--- a/Data/Worldwide Rig Count Aug 2020.xlsx
+++ b/Data/Worldwide Rig Count Aug 2020.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28A8AF-B0CE-4315-9581-D7B1C01B68B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="16140" windowHeight="9990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worldwide_Rigcount" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Worldwide_Rigcount!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="80000" fullCalcOnLoad="1"/>
+  <calcPr calcId="80000"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -92,9 +94,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-10409]0"/>
+    <numFmt numFmtId="164" formatCode="[$-10409]0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -367,7 +369,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -381,6 +383,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -401,42 +439,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -518,6 +520,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -539,7 +544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1024" name="Picture 0" descr="a6736b31-22bd-4600-a957-ca7bedfbb998"/>
+        <xdr:cNvPr id="1024" name="Picture 0" descr="a6736b31-22bd-4600-a957-ca7bedfbb998">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -625,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,9 +669,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,6 +721,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -868,12 +913,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L696"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -885,45 +930,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:12" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -988,10 +1033,10 @@
       <c r="J8" s="4">
         <v>791</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="8">
         <v>2073</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
@@ -1021,10 +1066,10 @@
       <c r="J9" s="4">
         <v>791</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="8">
         <v>2125</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -1054,10 +1099,10 @@
       <c r="J10" s="4">
         <v>772</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="8">
         <v>1964</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -1087,10 +1132,10 @@
       <c r="J11" s="4">
         <v>566</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="8">
         <v>1514</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
@@ -1120,10 +1165,10 @@
       <c r="J12" s="4">
         <v>348</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="8">
         <v>1176</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -1153,10 +1198,10 @@
       <c r="J13" s="4">
         <v>274</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="8">
         <v>1073</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
@@ -1186,10 +1231,10 @@
       <c r="J14" s="4">
         <v>255</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="8">
         <v>1030</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
@@ -1219,10 +1264,10 @@
       <c r="J15" s="4">
         <v>250</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="8">
         <v>1050</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
@@ -1236,8 +1281,8 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="17"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
@@ -1251,8 +1296,8 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="17"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
@@ -1266,8 +1311,8 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
@@ -1281,8 +1326,8 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="17"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
@@ -1312,10 +1357,10 @@
       <c r="J20" s="6">
         <v>506</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="10">
         <v>1501</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
@@ -1327,8 +1372,8 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
@@ -1391,10 +1436,10 @@
       <c r="J23" s="4">
         <v>1065</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="8">
         <v>2265</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
@@ -1424,10 +1469,10 @@
       <c r="J24" s="4">
         <v>1049</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="8">
         <v>2306</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
@@ -1457,10 +1502,10 @@
       <c r="J25" s="4">
         <v>1023</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="8">
         <v>2213</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
@@ -1490,10 +1535,10 @@
       <c r="J26" s="4">
         <v>1012</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="8">
         <v>2140</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
@@ -1523,10 +1568,10 @@
       <c r="J27" s="4">
         <v>986</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="8">
         <v>2182</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
@@ -1556,10 +1601,10 @@
       <c r="J28" s="4">
         <v>969</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="8">
         <v>2221</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
@@ -1589,10 +1634,10 @@
       <c r="J29" s="4">
         <v>955</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="8">
         <v>2238</v>
       </c>
-      <c r="L29" s="17"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
@@ -1622,10 +1667,10 @@
       <c r="J30" s="4">
         <v>926</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="8">
         <v>2206</v>
       </c>
-      <c r="L30" s="17"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
@@ -1655,10 +1700,10 @@
       <c r="J31" s="4">
         <v>878</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="8">
         <v>2141</v>
       </c>
-      <c r="L31" s="17"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
@@ -1688,10 +1733,10 @@
       <c r="J32" s="4">
         <v>848</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="8">
         <v>2123</v>
       </c>
-      <c r="L32" s="17"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
@@ -1721,10 +1766,10 @@
       <c r="J33" s="4">
         <v>810</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="8">
         <v>2042</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
@@ -1754,10 +1799,10 @@
       <c r="J34" s="4">
         <v>804</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="8">
         <v>2043</v>
       </c>
-      <c r="L34" s="17"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
@@ -1787,10 +1832,10 @@
       <c r="J35" s="6">
         <v>944</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="10">
         <v>2177</v>
       </c>
-      <c r="L35" s="20"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
@@ -1802,8 +1847,8 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
@@ -1866,10 +1911,10 @@
       <c r="J38" s="4">
         <v>937</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="8">
         <v>2175</v>
       </c>
-      <c r="L38" s="17"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
@@ -1899,10 +1944,10 @@
       <c r="J39" s="4">
         <v>969</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="8">
         <v>2271</v>
       </c>
-      <c r="L39" s="17"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
@@ -1932,10 +1977,10 @@
       <c r="J40" s="4">
         <v>989</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="8">
         <v>2179</v>
       </c>
-      <c r="L40" s="17"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
@@ -1965,10 +2010,10 @@
       <c r="J41" s="4">
         <v>1011</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="8">
         <v>2087</v>
       </c>
-      <c r="L41" s="17"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
@@ -1998,10 +2043,10 @@
       <c r="J42" s="4">
         <v>1046</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="8">
         <v>2096</v>
       </c>
-      <c r="L42" s="17"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
@@ -2031,10 +2076,10 @@
       <c r="J43" s="4">
         <v>1056</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="8">
         <v>2152</v>
       </c>
-      <c r="L43" s="17"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
@@ -2064,10 +2109,10 @@
       <c r="J44" s="4">
         <v>1050</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="8">
         <v>2251</v>
       </c>
-      <c r="L44" s="17"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
@@ -2097,10 +2142,10 @@
       <c r="J45" s="4">
         <v>1050</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="8">
         <v>2278</v>
       </c>
-      <c r="L45" s="17"/>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
@@ -2130,10 +2175,10 @@
       <c r="J46" s="4">
         <v>1053</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="8">
         <v>2258</v>
       </c>
-      <c r="L46" s="17"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
@@ -2163,10 +2208,10 @@
       <c r="J47" s="4">
         <v>1062</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="8">
         <v>2271</v>
       </c>
-      <c r="L47" s="17"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
@@ -2196,10 +2241,10 @@
       <c r="J48" s="4">
         <v>1077</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="8">
         <v>2266</v>
       </c>
-      <c r="L48" s="17"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
@@ -2229,10 +2274,10 @@
       <c r="J49" s="4">
         <v>1078</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="8">
         <v>2244</v>
       </c>
-      <c r="L49" s="17"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
@@ -2262,10 +2307,10 @@
       <c r="J50" s="6">
         <v>1032</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="10">
         <v>2211</v>
       </c>
-      <c r="L50" s="20"/>
+      <c r="L50" s="11"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="7"/>
@@ -2277,8 +2322,8 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="22"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13"/>
     </row>
     <row r="52" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
@@ -2341,10 +2386,10 @@
       <c r="J53" s="4">
         <v>683</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="8">
         <v>1918</v>
       </c>
-      <c r="L53" s="17"/>
+      <c r="L53" s="9"/>
     </row>
     <row r="54" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
@@ -2374,10 +2419,10 @@
       <c r="J54" s="4">
         <v>744</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="8">
         <v>2027</v>
       </c>
-      <c r="L54" s="17"/>
+      <c r="L54" s="9"/>
     </row>
     <row r="55" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
@@ -2407,10 +2452,10 @@
       <c r="J55" s="4">
         <v>789</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="8">
         <v>1985</v>
       </c>
-      <c r="L55" s="17"/>
+      <c r="L55" s="9"/>
     </row>
     <row r="56" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
@@ -2440,10 +2485,10 @@
       <c r="J56" s="4">
         <v>853</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="8">
         <v>1917</v>
       </c>
-      <c r="L56" s="17"/>
+      <c r="L56" s="9"/>
     </row>
     <row r="57" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
@@ -2473,10 +2518,10 @@
       <c r="J57" s="4">
         <v>893</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="8">
         <v>1935</v>
       </c>
-      <c r="L57" s="17"/>
+      <c r="L57" s="9"/>
     </row>
     <row r="58" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
@@ -2506,10 +2551,10 @@
       <c r="J58" s="4">
         <v>931</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="8">
         <v>2041</v>
       </c>
-      <c r="L58" s="17"/>
+      <c r="L58" s="9"/>
     </row>
     <row r="59" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
@@ -2539,10 +2584,10 @@
       <c r="J59" s="4">
         <v>953</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="8">
         <v>2110</v>
       </c>
-      <c r="L59" s="17"/>
+      <c r="L59" s="9"/>
     </row>
     <row r="60" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
@@ -2572,10 +2617,10 @@
       <c r="J60" s="4">
         <v>947</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="8">
         <v>2116</v>
       </c>
-      <c r="L60" s="17"/>
+      <c r="L60" s="9"/>
     </row>
     <row r="61" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
@@ -2605,10 +2650,10 @@
       <c r="J61" s="4">
         <v>940</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="8">
         <v>2081</v>
       </c>
-      <c r="L61" s="17"/>
+      <c r="L61" s="9"/>
     </row>
     <row r="62" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
@@ -2638,10 +2683,10 @@
       <c r="J62" s="4">
         <v>922</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="8">
         <v>2077</v>
       </c>
-      <c r="L62" s="17"/>
+      <c r="L62" s="9"/>
     </row>
     <row r="63" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
@@ -2671,10 +2716,10 @@
       <c r="J63" s="4">
         <v>911</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="8">
         <v>2057</v>
       </c>
-      <c r="L63" s="17"/>
+      <c r="L63" s="9"/>
     </row>
     <row r="64" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
@@ -2704,10 +2749,10 @@
       <c r="J64" s="4">
         <v>930</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="8">
         <v>2089</v>
       </c>
-      <c r="L64" s="17"/>
+      <c r="L64" s="9"/>
     </row>
     <row r="65" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -2737,10 +2782,10 @@
       <c r="J65" s="6">
         <v>875</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K65" s="10">
         <v>2029</v>
       </c>
-      <c r="L65" s="20"/>
+      <c r="L65" s="11"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="7"/>
@@ -2752,8 +2797,8 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="22"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="13"/>
     </row>
     <row r="67" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
@@ -2816,10 +2861,10 @@
       <c r="J68" s="4">
         <v>654</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="8">
         <v>1891</v>
       </c>
-      <c r="L68" s="17"/>
+      <c r="L68" s="9"/>
     </row>
     <row r="69" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
@@ -2849,10 +2894,10 @@
       <c r="J69" s="4">
         <v>532</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="8">
         <v>1761</v>
       </c>
-      <c r="L69" s="17"/>
+      <c r="L69" s="9"/>
     </row>
     <row r="70" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
@@ -2882,10 +2927,10 @@
       <c r="J70" s="4">
         <v>478</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="8">
         <v>1551</v>
       </c>
-      <c r="L70" s="17"/>
+      <c r="L70" s="9"/>
     </row>
     <row r="71" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
@@ -2915,10 +2960,10 @@
       <c r="J71" s="4">
         <v>437</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="8">
         <v>1424</v>
       </c>
-      <c r="L71" s="17"/>
+      <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
@@ -2948,10 +2993,10 @@
       <c r="J72" s="4">
         <v>408</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="8">
         <v>1405</v>
       </c>
-      <c r="L72" s="17"/>
+      <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
@@ -2981,10 +3026,10 @@
       <c r="J73" s="4">
         <v>417</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="8">
         <v>1407</v>
       </c>
-      <c r="L73" s="17"/>
+      <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
@@ -3014,10 +3059,10 @@
       <c r="J74" s="4">
         <v>449</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="8">
         <v>1481</v>
       </c>
-      <c r="L74" s="17"/>
+      <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
@@ -3047,10 +3092,10 @@
       <c r="J75" s="4">
         <v>481</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="8">
         <v>1547</v>
       </c>
-      <c r="L75" s="17"/>
+      <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
@@ -3080,10 +3125,10 @@
       <c r="J76" s="4">
         <v>509</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="8">
         <v>1584</v>
       </c>
-      <c r="L76" s="17"/>
+      <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
@@ -3113,10 +3158,10 @@
       <c r="J77" s="4">
         <v>544</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="8">
         <v>1620</v>
       </c>
-      <c r="L77" s="17"/>
+      <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
@@ -3146,10 +3191,10 @@
       <c r="J78" s="4">
         <v>580</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="8">
         <v>1678</v>
       </c>
-      <c r="L78" s="17"/>
+      <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
@@ -3179,10 +3224,10 @@
       <c r="J79" s="4">
         <v>634</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K79" s="8">
         <v>1772</v>
       </c>
-      <c r="L79" s="17"/>
+      <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
@@ -3212,10 +3257,10 @@
       <c r="J80" s="6">
         <v>510</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K80" s="10">
         <v>1593</v>
       </c>
-      <c r="L80" s="20"/>
+      <c r="L80" s="11"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="7"/>
@@ -3227,8 +3272,8 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="22"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="13"/>
     </row>
     <row r="82" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
@@ -3291,10 +3336,10 @@
       <c r="J83" s="4">
         <v>1683</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K83" s="8">
         <v>3309</v>
       </c>
-      <c r="L83" s="17"/>
+      <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
@@ -3324,10 +3369,10 @@
       <c r="J84" s="4">
         <v>1348</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="8">
         <v>2986</v>
       </c>
-      <c r="L84" s="17"/>
+      <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
@@ -3357,10 +3402,10 @@
       <c r="J85" s="4">
         <v>1110</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="8">
         <v>2557</v>
       </c>
-      <c r="L85" s="17"/>
+      <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
@@ -3390,10 +3435,10 @@
       <c r="J86" s="4">
         <v>976</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="8">
         <v>2268</v>
       </c>
-      <c r="L86" s="17"/>
+      <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
@@ -3423,10 +3468,10 @@
       <c r="J87" s="4">
         <v>889</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K87" s="8">
         <v>2127</v>
       </c>
-      <c r="L87" s="17"/>
+      <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
@@ -3456,10 +3501,10 @@
       <c r="J88" s="4">
         <v>861</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="8">
         <v>2136</v>
       </c>
-      <c r="L88" s="17"/>
+      <c r="L88" s="9"/>
     </row>
     <row r="89" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
@@ -3489,10 +3534,10 @@
       <c r="J89" s="4">
         <v>866</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="8">
         <v>2167</v>
       </c>
-      <c r="L89" s="17"/>
+      <c r="L89" s="9"/>
     </row>
     <row r="90" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
@@ -3522,10 +3567,10 @@
       <c r="J90" s="4">
         <v>883</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="8">
         <v>2226</v>
       </c>
-      <c r="L90" s="17"/>
+      <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
@@ -3555,10 +3600,10 @@
       <c r="J91" s="4">
         <v>848</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="8">
         <v>2171</v>
       </c>
-      <c r="L91" s="17"/>
+      <c r="L91" s="9"/>
     </row>
     <row r="92" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
@@ -3588,10 +3633,10 @@
       <c r="J92" s="4">
         <v>791</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="8">
         <v>2086</v>
       </c>
-      <c r="L92" s="17"/>
+      <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
@@ -3621,10 +3666,10 @@
       <c r="J93" s="4">
         <v>760</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="8">
         <v>2047</v>
       </c>
-      <c r="L93" s="17"/>
+      <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
@@ -3654,10 +3699,10 @@
       <c r="J94" s="4">
         <v>714</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="8">
         <v>1969</v>
       </c>
-      <c r="L94" s="17"/>
+      <c r="L94" s="9"/>
     </row>
     <row r="95" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
@@ -3687,10 +3732,10 @@
       <c r="J95" s="6">
         <v>977</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K95" s="10">
         <v>2337</v>
       </c>
-      <c r="L95" s="20"/>
+      <c r="L95" s="11"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="7"/>
@@ -3702,8 +3747,8 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="22"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="13"/>
     </row>
     <row r="97" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
@@ -3766,10 +3811,10 @@
       <c r="J98" s="4">
         <v>1769</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="8">
         <v>3598</v>
       </c>
-      <c r="L98" s="17"/>
+      <c r="L98" s="9"/>
     </row>
     <row r="99" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
@@ -3799,10 +3844,10 @@
       <c r="J99" s="4">
         <v>1769</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="8">
         <v>3736</v>
       </c>
-      <c r="L99" s="17"/>
+      <c r="L99" s="9"/>
     </row>
     <row r="100" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
@@ -3832,10 +3877,10 @@
       <c r="J100" s="4">
         <v>1803</v>
       </c>
-      <c r="K100" s="16">
+      <c r="K100" s="8">
         <v>3597</v>
       </c>
-      <c r="L100" s="17"/>
+      <c r="L100" s="9"/>
     </row>
     <row r="101" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
@@ -3865,10 +3910,10 @@
       <c r="J101" s="4">
         <v>1835</v>
       </c>
-      <c r="K101" s="16">
+      <c r="K101" s="8">
         <v>3388</v>
       </c>
-      <c r="L101" s="17"/>
+      <c r="L101" s="9"/>
     </row>
     <row r="102" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
@@ -3898,10 +3943,10 @@
       <c r="J102" s="4">
         <v>1859</v>
       </c>
-      <c r="K102" s="16">
+      <c r="K102" s="8">
         <v>3371</v>
       </c>
-      <c r="L102" s="17"/>
+      <c r="L102" s="9"/>
     </row>
     <row r="103" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
@@ -3931,10 +3976,10 @@
       <c r="J103" s="4">
         <v>1861</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="8">
         <v>3445</v>
       </c>
-      <c r="L103" s="17"/>
+      <c r="L103" s="9"/>
     </row>
     <row r="104" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
@@ -3964,10 +4009,10 @@
       <c r="J104" s="4">
         <v>1876</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="8">
         <v>3608</v>
       </c>
-      <c r="L104" s="17"/>
+      <c r="L104" s="9"/>
     </row>
     <row r="105" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
@@ -3997,10 +4042,10 @@
       <c r="J105" s="4">
         <v>1904</v>
       </c>
-      <c r="K105" s="16">
+      <c r="K105" s="8">
         <v>3642</v>
       </c>
-      <c r="L105" s="17"/>
+      <c r="L105" s="9"/>
     </row>
     <row r="106" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
@@ -4030,10 +4075,10 @@
       <c r="J106" s="4">
         <v>1930</v>
       </c>
-      <c r="K106" s="16">
+      <c r="K106" s="8">
         <v>3659</v>
       </c>
-      <c r="L106" s="17"/>
+      <c r="L106" s="9"/>
     </row>
     <row r="107" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
@@ -4063,10 +4108,10 @@
       <c r="J107" s="4">
         <v>1925</v>
       </c>
-      <c r="K107" s="16">
+      <c r="K107" s="8">
         <v>3657</v>
       </c>
-      <c r="L107" s="17"/>
+      <c r="L107" s="9"/>
     </row>
     <row r="108" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
@@ -4096,10 +4141,10 @@
       <c r="J108" s="4">
         <v>1925</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="8">
         <v>3670</v>
       </c>
-      <c r="L108" s="17"/>
+      <c r="L108" s="9"/>
     </row>
     <row r="109" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
@@ -4129,10 +4174,10 @@
       <c r="J109" s="4">
         <v>1882</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="8">
         <v>3570</v>
       </c>
-      <c r="L109" s="17"/>
+      <c r="L109" s="9"/>
     </row>
     <row r="110" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
@@ -4162,10 +4207,10 @@
       <c r="J110" s="6">
         <v>1862</v>
       </c>
-      <c r="K110" s="19">
+      <c r="K110" s="10">
         <v>3578</v>
       </c>
-      <c r="L110" s="20"/>
+      <c r="L110" s="11"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" s="7"/>
@@ -4177,8 +4222,8 @@
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="22"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="13"/>
     </row>
     <row r="112" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
@@ -4241,10 +4286,10 @@
       <c r="J113" s="4">
         <v>1757</v>
       </c>
-      <c r="K113" s="16">
+      <c r="K113" s="8">
         <v>3539</v>
       </c>
-      <c r="L113" s="17"/>
+      <c r="L113" s="9"/>
     </row>
     <row r="114" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
@@ -4274,10 +4319,10 @@
       <c r="J114" s="4">
         <v>1762</v>
       </c>
-      <c r="K114" s="16">
+      <c r="K114" s="8">
         <v>3679</v>
       </c>
-      <c r="L114" s="17"/>
+      <c r="L114" s="9"/>
     </row>
     <row r="115" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
@@ -4307,10 +4352,10 @@
       <c r="J115" s="4">
         <v>1756</v>
       </c>
-      <c r="K115" s="16">
+      <c r="K115" s="8">
         <v>3488</v>
       </c>
-      <c r="L115" s="17"/>
+      <c r="L115" s="9"/>
     </row>
     <row r="116" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
@@ -4340,10 +4385,10 @@
       <c r="J116" s="4">
         <v>1755</v>
       </c>
-      <c r="K116" s="16">
+      <c r="K116" s="8">
         <v>3209</v>
       </c>
-      <c r="L116" s="17"/>
+      <c r="L116" s="9"/>
     </row>
     <row r="117" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
@@ -4373,10 +4418,10 @@
       <c r="J117" s="4">
         <v>1767</v>
       </c>
-      <c r="K117" s="16">
+      <c r="K117" s="8">
         <v>3178</v>
       </c>
-      <c r="L117" s="17"/>
+      <c r="L117" s="9"/>
     </row>
     <row r="118" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
@@ -4406,10 +4451,10 @@
       <c r="J118" s="4">
         <v>1761</v>
       </c>
-      <c r="K118" s="16">
+      <c r="K118" s="8">
         <v>3277</v>
       </c>
-      <c r="L118" s="17"/>
+      <c r="L118" s="9"/>
     </row>
     <row r="119" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
@@ -4439,10 +4484,10 @@
       <c r="J119" s="4">
         <v>1766</v>
       </c>
-      <c r="K119" s="16">
+      <c r="K119" s="8">
         <v>3362</v>
       </c>
-      <c r="L119" s="17"/>
+      <c r="L119" s="9"/>
     </row>
     <row r="120" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
@@ -4472,10 +4517,10 @@
       <c r="J120" s="4">
         <v>1781</v>
       </c>
-      <c r="K120" s="16">
+      <c r="K120" s="8">
         <v>3416</v>
       </c>
-      <c r="L120" s="17"/>
+      <c r="L120" s="9"/>
     </row>
     <row r="121" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
@@ -4505,10 +4550,10 @@
       <c r="J121" s="4">
         <v>1760</v>
       </c>
-      <c r="K121" s="16">
+      <c r="K121" s="8">
         <v>3431</v>
       </c>
-      <c r="L121" s="17"/>
+      <c r="L121" s="9"/>
     </row>
     <row r="122" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
@@ -4538,10 +4583,10 @@
       <c r="J122" s="4">
         <v>1744</v>
       </c>
-      <c r="K122" s="16">
+      <c r="K122" s="8">
         <v>3437</v>
       </c>
-      <c r="L122" s="17"/>
+      <c r="L122" s="9"/>
     </row>
     <row r="123" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
@@ -4571,10 +4616,10 @@
       <c r="J123" s="4">
         <v>1756</v>
       </c>
-      <c r="K123" s="16">
+      <c r="K123" s="8">
         <v>3452</v>
       </c>
-      <c r="L123" s="17"/>
+      <c r="L123" s="9"/>
     </row>
     <row r="124" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
@@ -4604,10 +4649,10 @@
       <c r="J124" s="4">
         <v>1771</v>
       </c>
-      <c r="K124" s="16">
+      <c r="K124" s="8">
         <v>3478</v>
       </c>
-      <c r="L124" s="17"/>
+      <c r="L124" s="9"/>
     </row>
     <row r="125" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
@@ -4637,10 +4682,10 @@
       <c r="J125" s="6">
         <v>1761</v>
       </c>
-      <c r="K125" s="19">
+      <c r="K125" s="10">
         <v>3412</v>
       </c>
-      <c r="L125" s="20"/>
+      <c r="L125" s="11"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B126" s="7"/>
@@ -4652,8 +4697,8 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-      <c r="K126" s="21"/>
-      <c r="L126" s="22"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="13"/>
     </row>
     <row r="127" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
@@ -4716,10 +4761,10 @@
       <c r="J128" s="4">
         <v>2003</v>
       </c>
-      <c r="K128" s="16">
+      <c r="K128" s="8">
         <v>3751</v>
       </c>
-      <c r="L128" s="17"/>
+      <c r="L128" s="9"/>
     </row>
     <row r="129" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
@@ -4749,10 +4794,10 @@
       <c r="J129" s="4">
         <v>1990</v>
       </c>
-      <c r="K129" s="16">
+      <c r="K129" s="8">
         <v>3900</v>
       </c>
-      <c r="L129" s="17"/>
+      <c r="L129" s="9"/>
     </row>
     <row r="130" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
@@ -4782,10 +4827,10 @@
       <c r="J130" s="4">
         <v>1979</v>
       </c>
-      <c r="K130" s="16">
+      <c r="K130" s="8">
         <v>3663</v>
       </c>
-      <c r="L130" s="17"/>
+      <c r="L130" s="9"/>
     </row>
     <row r="131" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
@@ -4815,10 +4860,10 @@
       <c r="J131" s="4">
         <v>1962</v>
       </c>
-      <c r="K131" s="16">
+      <c r="K131" s="8">
         <v>3298</v>
       </c>
-      <c r="L131" s="17"/>
+      <c r="L131" s="9"/>
     </row>
     <row r="132" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
@@ -4848,10 +4893,10 @@
       <c r="J132" s="4">
         <v>1977</v>
       </c>
-      <c r="K132" s="16">
+      <c r="K132" s="8">
         <v>3335</v>
       </c>
-      <c r="L132" s="17"/>
+      <c r="L132" s="9"/>
     </row>
     <row r="133" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
@@ -4881,10 +4926,10 @@
       <c r="J133" s="4">
         <v>1972</v>
       </c>
-      <c r="K133" s="16">
+      <c r="K133" s="8">
         <v>3484</v>
       </c>
-      <c r="L133" s="17"/>
+      <c r="L133" s="9"/>
     </row>
     <row r="134" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
@@ -4914,10 +4959,10 @@
       <c r="J134" s="4">
         <v>1945</v>
       </c>
-      <c r="K134" s="16">
+      <c r="K134" s="8">
         <v>3516</v>
       </c>
-      <c r="L134" s="17"/>
+      <c r="L134" s="9"/>
     </row>
     <row r="135" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
@@ -4947,10 +4992,10 @@
       <c r="J135" s="4">
         <v>1913</v>
       </c>
-      <c r="K135" s="16">
+      <c r="K135" s="8">
         <v>3490</v>
       </c>
-      <c r="L135" s="17"/>
+      <c r="L135" s="9"/>
     </row>
     <row r="136" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
@@ -4980,10 +5025,10 @@
       <c r="J136" s="4">
         <v>1859</v>
       </c>
-      <c r="K136" s="16">
+      <c r="K136" s="8">
         <v>3468</v>
       </c>
-      <c r="L136" s="17"/>
+      <c r="L136" s="9"/>
     </row>
     <row r="137" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
@@ -5013,10 +5058,10 @@
       <c r="J137" s="4">
         <v>1834</v>
       </c>
-      <c r="K137" s="16">
+      <c r="K137" s="8">
         <v>3458</v>
       </c>
-      <c r="L137" s="17"/>
+      <c r="L137" s="9"/>
     </row>
     <row r="138" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
@@ -5046,10 +5091,10 @@
       <c r="J138" s="4">
         <v>1809</v>
       </c>
-      <c r="K138" s="16">
+      <c r="K138" s="8">
         <v>3461</v>
       </c>
-      <c r="L138" s="17"/>
+      <c r="L138" s="9"/>
     </row>
     <row r="139" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
@@ -5079,10 +5124,10 @@
       <c r="J139" s="4">
         <v>1784</v>
       </c>
-      <c r="K139" s="16">
+      <c r="K139" s="8">
         <v>3390</v>
       </c>
-      <c r="L139" s="17"/>
+      <c r="L139" s="9"/>
     </row>
     <row r="140" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="6" t="s">
@@ -5112,10 +5157,10 @@
       <c r="J140" s="6">
         <v>1919</v>
       </c>
-      <c r="K140" s="19">
+      <c r="K140" s="10">
         <v>3518</v>
       </c>
-      <c r="L140" s="20"/>
+      <c r="L140" s="11"/>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
@@ -5127,8 +5172,8 @@
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
-      <c r="K141" s="21"/>
-      <c r="L141" s="22"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="13"/>
     </row>
     <row r="142" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
@@ -5191,10 +5236,10 @@
       <c r="J143" s="4">
         <v>1711</v>
       </c>
-      <c r="K143" s="16">
+      <c r="K143" s="8">
         <v>3436</v>
       </c>
-      <c r="L143" s="17"/>
+      <c r="L143" s="9"/>
     </row>
     <row r="144" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="3" t="s">
@@ -5224,10 +5269,10 @@
       <c r="J144" s="4">
         <v>1718</v>
       </c>
-      <c r="K144" s="16">
+      <c r="K144" s="8">
         <v>3536</v>
       </c>
-      <c r="L144" s="17"/>
+      <c r="L144" s="9"/>
     </row>
     <row r="145" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
@@ -5257,10 +5302,10 @@
       <c r="J145" s="4">
         <v>1720</v>
       </c>
-      <c r="K145" s="16">
+      <c r="K145" s="8">
         <v>3434</v>
       </c>
-      <c r="L145" s="17"/>
+      <c r="L145" s="9"/>
     </row>
     <row r="146" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="3" t="s">
@@ -5290,10 +5335,10 @@
       <c r="J146" s="4">
         <v>1790</v>
       </c>
-      <c r="K146" s="16">
+      <c r="K146" s="8">
         <v>3103</v>
       </c>
-      <c r="L146" s="17"/>
+      <c r="L146" s="9"/>
     </row>
     <row r="147" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="3" t="s">
@@ -5323,10 +5368,10 @@
       <c r="J147" s="4">
         <v>1836</v>
       </c>
-      <c r="K147" s="16">
+      <c r="K147" s="8">
         <v>3130</v>
       </c>
-      <c r="L147" s="17"/>
+      <c r="L147" s="9"/>
     </row>
     <row r="148" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
@@ -5356,10 +5401,10 @@
       <c r="J148" s="4">
         <v>1863</v>
       </c>
-      <c r="K148" s="16">
+      <c r="K148" s="8">
         <v>3257</v>
       </c>
-      <c r="L148" s="17"/>
+      <c r="L148" s="9"/>
     </row>
     <row r="149" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="3" t="s">
@@ -5389,10 +5434,10 @@
       <c r="J149" s="4">
         <v>1900</v>
       </c>
-      <c r="K149" s="16">
+      <c r="K149" s="8">
         <v>3397</v>
       </c>
-      <c r="L149" s="17"/>
+      <c r="L149" s="9"/>
     </row>
     <row r="150" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
@@ -5422,10 +5467,10 @@
       <c r="J150" s="4">
         <v>1957</v>
       </c>
-      <c r="K150" s="16">
+      <c r="K150" s="8">
         <v>3613</v>
       </c>
-      <c r="L150" s="17"/>
+      <c r="L150" s="9"/>
     </row>
     <row r="151" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
@@ -5455,10 +5500,10 @@
       <c r="J151" s="4">
         <v>1978</v>
       </c>
-      <c r="K151" s="16">
+      <c r="K151" s="8">
         <v>3662</v>
       </c>
-      <c r="L151" s="17"/>
+      <c r="L151" s="9"/>
     </row>
     <row r="152" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="3" t="s">
@@ -5488,10 +5533,10 @@
       <c r="J152" s="4">
         <v>2017</v>
       </c>
-      <c r="K152" s="16">
+      <c r="K152" s="8">
         <v>3722</v>
       </c>
-      <c r="L152" s="17"/>
+      <c r="L152" s="9"/>
     </row>
     <row r="153" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="3" t="s">
@@ -5521,10 +5566,10 @@
       <c r="J153" s="4">
         <v>2011</v>
       </c>
-      <c r="K153" s="16">
+      <c r="K153" s="8">
         <v>3683</v>
       </c>
-      <c r="L153" s="17"/>
+      <c r="L153" s="9"/>
     </row>
     <row r="154" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
@@ -5554,10 +5599,10 @@
       <c r="J154" s="4">
         <v>2003</v>
       </c>
-      <c r="K154" s="16">
+      <c r="K154" s="8">
         <v>3612</v>
       </c>
-      <c r="L154" s="17"/>
+      <c r="L154" s="9"/>
     </row>
     <row r="155" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="6" t="s">
@@ -5587,10 +5632,10 @@
       <c r="J155" s="6">
         <v>1875</v>
       </c>
-      <c r="K155" s="19">
+      <c r="K155" s="10">
         <v>3465</v>
       </c>
-      <c r="L155" s="20"/>
+      <c r="L155" s="11"/>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B156" s="7"/>
@@ -5602,8 +5647,8 @@
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="22"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="13"/>
     </row>
     <row r="157" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
@@ -5666,10 +5711,10 @@
       <c r="J158" s="4">
         <v>1267</v>
       </c>
-      <c r="K158" s="16">
+      <c r="K158" s="8">
         <v>2773</v>
       </c>
-      <c r="L158" s="17"/>
+      <c r="L158" s="9"/>
     </row>
     <row r="159" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
@@ -5699,10 +5744,10 @@
       <c r="J159" s="4">
         <v>1350</v>
       </c>
-      <c r="K159" s="16">
+      <c r="K159" s="8">
         <v>2982</v>
       </c>
-      <c r="L159" s="17"/>
+      <c r="L159" s="9"/>
     </row>
     <row r="160" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
@@ -5732,10 +5777,10 @@
       <c r="J160" s="4">
         <v>1419</v>
       </c>
-      <c r="K160" s="16">
+      <c r="K160" s="8">
         <v>2879</v>
       </c>
-      <c r="L160" s="17"/>
+      <c r="L160" s="9"/>
     </row>
     <row r="161" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
@@ -5765,10 +5810,10 @@
       <c r="J161" s="4">
         <v>1479</v>
       </c>
-      <c r="K161" s="16">
+      <c r="K161" s="8">
         <v>2676</v>
       </c>
-      <c r="L161" s="17"/>
+      <c r="L161" s="9"/>
     </row>
     <row r="162" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="3" t="s">
@@ -5798,10 +5843,10 @@
       <c r="J162" s="4">
         <v>1513</v>
       </c>
-      <c r="K162" s="16">
+      <c r="K162" s="8">
         <v>2750</v>
       </c>
-      <c r="L162" s="17"/>
+      <c r="L162" s="9"/>
     </row>
     <row r="163" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
@@ -5831,10 +5876,10 @@
       <c r="J163" s="4">
         <v>1531</v>
       </c>
-      <c r="K163" s="16">
+      <c r="K163" s="8">
         <v>2859</v>
       </c>
-      <c r="L163" s="17"/>
+      <c r="L163" s="9"/>
     </row>
     <row r="164" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="3" t="s">
@@ -5864,10 +5909,10 @@
       <c r="J164" s="4">
         <v>1573</v>
       </c>
-      <c r="K164" s="16">
+      <c r="K164" s="8">
         <v>3032</v>
       </c>
-      <c r="L164" s="17"/>
+      <c r="L164" s="9"/>
     </row>
     <row r="165" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
@@ -5897,10 +5942,10 @@
       <c r="J165" s="4">
         <v>1638</v>
       </c>
-      <c r="K165" s="16">
+      <c r="K165" s="8">
         <v>3127</v>
       </c>
-      <c r="L165" s="17"/>
+      <c r="L165" s="9"/>
     </row>
     <row r="166" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
@@ -5930,10 +5975,10 @@
       <c r="J166" s="4">
         <v>1655</v>
       </c>
-      <c r="K166" s="16">
+      <c r="K166" s="8">
         <v>3122</v>
       </c>
-      <c r="L166" s="17"/>
+      <c r="L166" s="9"/>
     </row>
     <row r="167" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
@@ -5963,10 +6008,10 @@
       <c r="J167" s="4">
         <v>1668</v>
       </c>
-      <c r="K167" s="16">
+      <c r="K167" s="8">
         <v>3165</v>
       </c>
-      <c r="L167" s="17"/>
+      <c r="L167" s="9"/>
     </row>
     <row r="168" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="3" t="s">
@@ -5996,10 +6041,10 @@
       <c r="J168" s="4">
         <v>1683</v>
       </c>
-      <c r="K168" s="16">
+      <c r="K168" s="8">
         <v>3233</v>
       </c>
-      <c r="L168" s="17"/>
+      <c r="L168" s="9"/>
     </row>
     <row r="169" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
@@ -6029,10 +6074,10 @@
       <c r="J169" s="4">
         <v>1711</v>
       </c>
-      <c r="K169" s="16">
+      <c r="K169" s="8">
         <v>3227</v>
       </c>
-      <c r="L169" s="17"/>
+      <c r="L169" s="9"/>
     </row>
     <row r="170" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="6" t="s">
@@ -6062,10 +6107,10 @@
       <c r="J170" s="6">
         <v>1541</v>
       </c>
-      <c r="K170" s="19">
+      <c r="K170" s="10">
         <v>2985</v>
       </c>
-      <c r="L170" s="20"/>
+      <c r="L170" s="11"/>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B171" s="7"/>
@@ -6077,8 +6122,8 @@
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-      <c r="K171" s="21"/>
-      <c r="L171" s="22"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="13"/>
     </row>
     <row r="172" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B172" s="1">
@@ -6141,10 +6186,10 @@
       <c r="J173" s="4">
         <v>1553</v>
       </c>
-      <c r="K173" s="16">
+      <c r="K173" s="8">
         <v>2974</v>
       </c>
-      <c r="L173" s="17"/>
+      <c r="L173" s="9"/>
     </row>
     <row r="174" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="3" t="s">
@@ -6174,10 +6219,10 @@
       <c r="J174" s="4">
         <v>1320</v>
       </c>
-      <c r="K174" s="16">
+      <c r="K174" s="8">
         <v>2753</v>
       </c>
-      <c r="L174" s="17"/>
+      <c r="L174" s="9"/>
     </row>
     <row r="175" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
@@ -6207,10 +6252,10 @@
       <c r="J175" s="4">
         <v>1105</v>
       </c>
-      <c r="K175" s="16">
+      <c r="K175" s="8">
         <v>2313</v>
       </c>
-      <c r="L175" s="17"/>
+      <c r="L175" s="9"/>
     </row>
     <row r="176" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
@@ -6240,10 +6285,10 @@
       <c r="J176" s="4">
         <v>995</v>
       </c>
-      <c r="K176" s="16">
+      <c r="K176" s="8">
         <v>2055</v>
       </c>
-      <c r="L176" s="17"/>
+      <c r="L176" s="9"/>
     </row>
     <row r="177" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
@@ -6273,10 +6318,10 @@
       <c r="J177" s="4">
         <v>918</v>
       </c>
-      <c r="K177" s="16">
+      <c r="K177" s="8">
         <v>1983</v>
       </c>
-      <c r="L177" s="17"/>
+      <c r="L177" s="9"/>
     </row>
     <row r="178" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="3" t="s">
@@ -6306,10 +6351,10 @@
       <c r="J178" s="4">
         <v>895</v>
       </c>
-      <c r="K178" s="16">
+      <c r="K178" s="8">
         <v>1987</v>
       </c>
-      <c r="L178" s="17"/>
+      <c r="L178" s="9"/>
     </row>
     <row r="179" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
@@ -6339,10 +6384,10 @@
       <c r="J179" s="4">
         <v>931</v>
       </c>
-      <c r="K179" s="16">
+      <c r="K179" s="8">
         <v>2080</v>
       </c>
-      <c r="L179" s="17"/>
+      <c r="L179" s="9"/>
     </row>
     <row r="180" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
@@ -6372,10 +6417,10 @@
       <c r="J180" s="4">
         <v>980</v>
       </c>
-      <c r="K180" s="16">
+      <c r="K180" s="8">
         <v>2105</v>
       </c>
-      <c r="L180" s="17"/>
+      <c r="L180" s="9"/>
     </row>
     <row r="181" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
@@ -6405,10 +6450,10 @@
       <c r="J181" s="4">
         <v>1009</v>
       </c>
-      <c r="K181" s="16">
+      <c r="K181" s="8">
         <v>2203</v>
       </c>
-      <c r="L181" s="17"/>
+      <c r="L181" s="9"/>
     </row>
     <row r="182" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
@@ -6438,10 +6483,10 @@
       <c r="J182" s="4">
         <v>1044</v>
       </c>
-      <c r="K182" s="16">
+      <c r="K182" s="8">
         <v>2271</v>
       </c>
-      <c r="L182" s="17"/>
+      <c r="L182" s="9"/>
     </row>
     <row r="183" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
@@ -6471,10 +6516,10 @@
       <c r="J183" s="4">
         <v>1107</v>
       </c>
-      <c r="K183" s="16">
+      <c r="K183" s="8">
         <v>2409</v>
       </c>
-      <c r="L183" s="17"/>
+      <c r="L183" s="9"/>
     </row>
     <row r="184" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="3" t="s">
@@ -6504,10 +6549,10 @@
       <c r="J184" s="4">
         <v>1172</v>
       </c>
-      <c r="K184" s="16">
+      <c r="K184" s="8">
         <v>2509</v>
       </c>
-      <c r="L184" s="17"/>
+      <c r="L184" s="9"/>
     </row>
     <row r="185" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="6" t="s">
@@ -6537,10 +6582,10 @@
       <c r="J185" s="6">
         <v>1086</v>
       </c>
-      <c r="K185" s="19">
+      <c r="K185" s="10">
         <v>2304</v>
       </c>
-      <c r="L185" s="20"/>
+      <c r="L185" s="11"/>
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B186" s="7"/>
@@ -6552,8 +6597,8 @@
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="22"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="13"/>
     </row>
     <row r="187" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B187" s="1">
@@ -6616,10 +6661,10 @@
       <c r="J188" s="4">
         <v>1749</v>
       </c>
-      <c r="K188" s="16">
+      <c r="K188" s="8">
         <v>3296</v>
       </c>
-      <c r="L188" s="17"/>
+      <c r="L188" s="9"/>
     </row>
     <row r="189" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="3" t="s">
@@ -6649,10 +6694,10 @@
       <c r="J189" s="4">
         <v>1765</v>
       </c>
-      <c r="K189" s="16">
+      <c r="K189" s="8">
         <v>3417</v>
       </c>
-      <c r="L189" s="17"/>
+      <c r="L189" s="9"/>
     </row>
     <row r="190" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
@@ -6682,10 +6727,10 @@
       <c r="J190" s="4">
         <v>1797</v>
       </c>
-      <c r="K190" s="16">
+      <c r="K190" s="8">
         <v>3259</v>
       </c>
-      <c r="L190" s="17"/>
+      <c r="L190" s="9"/>
     </row>
     <row r="191" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
@@ -6715,10 +6760,10 @@
       <c r="J191" s="4">
         <v>1829</v>
       </c>
-      <c r="K191" s="16">
+      <c r="K191" s="8">
         <v>3009</v>
       </c>
-      <c r="L191" s="17"/>
+      <c r="L191" s="9"/>
     </row>
     <row r="192" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
@@ -6748,10 +6793,10 @@
       <c r="J192" s="4">
         <v>1863</v>
       </c>
-      <c r="K192" s="16">
+      <c r="K192" s="8">
         <v>3073</v>
       </c>
-      <c r="L192" s="17"/>
+      <c r="L192" s="9"/>
     </row>
     <row r="193" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="3" t="s">
@@ -6781,10 +6826,10 @@
       <c r="J193" s="4">
         <v>1901</v>
       </c>
-      <c r="K193" s="16">
+      <c r="K193" s="8">
         <v>3269</v>
       </c>
-      <c r="L193" s="17"/>
+      <c r="L193" s="9"/>
     </row>
     <row r="194" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
@@ -6814,10 +6859,10 @@
       <c r="J194" s="4">
         <v>1932</v>
       </c>
-      <c r="K194" s="16">
+      <c r="K194" s="8">
         <v>3436</v>
       </c>
-      <c r="L194" s="17"/>
+      <c r="L194" s="9"/>
     </row>
     <row r="195" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="3" t="s">
@@ -6847,10 +6892,10 @@
       <c r="J195" s="4">
         <v>1987</v>
       </c>
-      <c r="K195" s="16">
+      <c r="K195" s="8">
         <v>3523</v>
       </c>
-      <c r="L195" s="17"/>
+      <c r="L195" s="9"/>
     </row>
     <row r="196" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
@@ -6880,10 +6925,10 @@
       <c r="J196" s="4">
         <v>2014</v>
       </c>
-      <c r="K196" s="16">
+      <c r="K196" s="8">
         <v>3557</v>
       </c>
-      <c r="L196" s="17"/>
+      <c r="L196" s="9"/>
     </row>
     <row r="197" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
@@ -6913,10 +6958,10 @@
       <c r="J197" s="4">
         <v>1976</v>
       </c>
-      <c r="K197" s="16">
+      <c r="K197" s="8">
         <v>3518</v>
       </c>
-      <c r="L197" s="17"/>
+      <c r="L197" s="9"/>
     </row>
     <row r="198" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
@@ -6946,10 +6991,10 @@
       <c r="J198" s="4">
         <v>1935</v>
       </c>
-      <c r="K198" s="16">
+      <c r="K198" s="8">
         <v>3448</v>
       </c>
-      <c r="L198" s="17"/>
+      <c r="L198" s="9"/>
     </row>
     <row r="199" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="3" t="s">
@@ -6979,10 +7024,10 @@
       <c r="J199" s="4">
         <v>1782</v>
       </c>
-      <c r="K199" s="16">
+      <c r="K199" s="8">
         <v>3221</v>
       </c>
-      <c r="L199" s="17"/>
+      <c r="L199" s="9"/>
     </row>
     <row r="200" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
@@ -7012,10 +7057,10 @@
       <c r="J200" s="6">
         <v>1878</v>
       </c>
-      <c r="K200" s="19">
+      <c r="K200" s="10">
         <v>3336</v>
       </c>
-      <c r="L200" s="20"/>
+      <c r="L200" s="11"/>
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B201" s="7"/>
@@ -7027,8 +7072,8 @@
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
-      <c r="K201" s="21"/>
-      <c r="L201" s="22"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="13"/>
     </row>
     <row r="202" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B202" s="1">
@@ -7091,10 +7136,10 @@
       <c r="J203" s="4">
         <v>1714</v>
       </c>
-      <c r="K203" s="16">
+      <c r="K203" s="8">
         <v>3254</v>
       </c>
-      <c r="L203" s="17"/>
+      <c r="L203" s="9"/>
     </row>
     <row r="204" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
@@ -7124,10 +7169,10 @@
       <c r="J204" s="4">
         <v>1736</v>
       </c>
-      <c r="K204" s="16">
+      <c r="K204" s="8">
         <v>3352</v>
       </c>
-      <c r="L204" s="17"/>
+      <c r="L204" s="9"/>
     </row>
     <row r="205" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="3" t="s">
@@ -7157,10 +7202,10 @@
       <c r="J205" s="4">
         <v>1749</v>
       </c>
-      <c r="K205" s="16">
+      <c r="K205" s="8">
         <v>3135</v>
       </c>
-      <c r="L205" s="17"/>
+      <c r="L205" s="9"/>
     </row>
     <row r="206" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="3" t="s">
@@ -7190,10 +7235,10 @@
       <c r="J206" s="4">
         <v>1751</v>
       </c>
-      <c r="K206" s="16">
+      <c r="K206" s="8">
         <v>2836</v>
       </c>
-      <c r="L206" s="17"/>
+      <c r="L206" s="9"/>
     </row>
     <row r="207" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="3" t="s">
@@ -7223,10 +7268,10 @@
       <c r="J207" s="4">
         <v>1748</v>
       </c>
-      <c r="K207" s="16">
+      <c r="K207" s="8">
         <v>2862</v>
       </c>
-      <c r="L207" s="17"/>
+      <c r="L207" s="9"/>
     </row>
     <row r="208" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
@@ -7256,10 +7301,10 @@
       <c r="J208" s="4">
         <v>1771</v>
       </c>
-      <c r="K208" s="16">
+      <c r="K208" s="8">
         <v>2996</v>
       </c>
-      <c r="L208" s="17"/>
+      <c r="L208" s="9"/>
     </row>
     <row r="209" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="3" t="s">
@@ -7289,10 +7334,10 @@
       <c r="J209" s="4">
         <v>1777</v>
       </c>
-      <c r="K209" s="16">
+      <c r="K209" s="8">
         <v>3144</v>
       </c>
-      <c r="L209" s="17"/>
+      <c r="L209" s="9"/>
     </row>
     <row r="210" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="3" t="s">
@@ -7322,10 +7367,10 @@
       <c r="J210" s="4">
         <v>1804</v>
       </c>
-      <c r="K210" s="16">
+      <c r="K210" s="8">
         <v>3156</v>
       </c>
-      <c r="L210" s="17"/>
+      <c r="L210" s="9"/>
     </row>
     <row r="211" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="3" t="s">
@@ -7355,10 +7400,10 @@
       <c r="J211" s="4">
         <v>1783</v>
       </c>
-      <c r="K211" s="16">
+      <c r="K211" s="8">
         <v>3166</v>
       </c>
-      <c r="L211" s="17"/>
+      <c r="L211" s="9"/>
     </row>
     <row r="212" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="3" t="s">
@@ -7388,10 +7433,10 @@
       <c r="J212" s="4">
         <v>1762</v>
       </c>
-      <c r="K212" s="16">
+      <c r="K212" s="8">
         <v>3124</v>
       </c>
-      <c r="L212" s="17"/>
+      <c r="L212" s="9"/>
     </row>
     <row r="213" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="3" t="s">
@@ -7421,10 +7466,10 @@
       <c r="J213" s="4">
         <v>1798</v>
       </c>
-      <c r="K213" s="16">
+      <c r="K213" s="8">
         <v>3161</v>
       </c>
-      <c r="L213" s="17"/>
+      <c r="L213" s="9"/>
     </row>
     <row r="214" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="3" t="s">
@@ -7454,10 +7499,10 @@
       <c r="J214" s="4">
         <v>1811</v>
       </c>
-      <c r="K214" s="16">
+      <c r="K214" s="8">
         <v>3207</v>
       </c>
-      <c r="L214" s="17"/>
+      <c r="L214" s="9"/>
     </row>
     <row r="215" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="6" t="s">
@@ -7487,10 +7532,10 @@
       <c r="J215" s="6">
         <v>1767</v>
       </c>
-      <c r="K215" s="19">
+      <c r="K215" s="10">
         <v>3116</v>
       </c>
-      <c r="L215" s="20"/>
+      <c r="L215" s="11"/>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B216" s="7"/>
@@ -7502,8 +7547,8 @@
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
-      <c r="K216" s="21"/>
-      <c r="L216" s="22"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="13"/>
     </row>
     <row r="217" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B217" s="1">
@@ -7566,10 +7611,10 @@
       <c r="J218" s="4">
         <v>1473</v>
       </c>
-      <c r="K218" s="16">
+      <c r="K218" s="8">
         <v>3038</v>
       </c>
-      <c r="L218" s="17"/>
+      <c r="L218" s="9"/>
     </row>
     <row r="219" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="3" t="s">
@@ -7599,10 +7644,10 @@
       <c r="J219" s="4">
         <v>1533</v>
       </c>
-      <c r="K219" s="16">
+      <c r="K219" s="8">
         <v>3133</v>
       </c>
-      <c r="L219" s="17"/>
+      <c r="L219" s="9"/>
     </row>
     <row r="220" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="3" t="s">
@@ -7632,10 +7677,10 @@
       <c r="J220" s="4">
         <v>1551</v>
       </c>
-      <c r="K220" s="16">
+      <c r="K220" s="8">
         <v>3069</v>
       </c>
-      <c r="L220" s="17"/>
+      <c r="L220" s="9"/>
     </row>
     <row r="221" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="3" t="s">
@@ -7665,10 +7710,10 @@
       <c r="J221" s="4">
         <v>1597</v>
       </c>
-      <c r="K221" s="16">
+      <c r="K221" s="8">
         <v>2707</v>
       </c>
-      <c r="L221" s="17"/>
+      <c r="L221" s="9"/>
     </row>
     <row r="222" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="3" t="s">
@@ -7698,10 +7743,10 @@
       <c r="J222" s="4">
         <v>1635</v>
       </c>
-      <c r="K222" s="16">
+      <c r="K222" s="8">
         <v>2795</v>
       </c>
-      <c r="L222" s="17"/>
+      <c r="L222" s="9"/>
     </row>
     <row r="223" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="3" t="s">
@@ -7731,10 +7776,10 @@
       <c r="J223" s="4">
         <v>1665</v>
       </c>
-      <c r="K223" s="16">
+      <c r="K223" s="8">
         <v>2979</v>
       </c>
-      <c r="L223" s="17"/>
+      <c r="L223" s="9"/>
     </row>
     <row r="224" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="3" t="s">
@@ -7764,10 +7809,10 @@
       <c r="J224" s="4">
         <v>1681</v>
       </c>
-      <c r="K224" s="16">
+      <c r="K224" s="8">
         <v>3155</v>
       </c>
-      <c r="L224" s="17"/>
+      <c r="L224" s="9"/>
     </row>
     <row r="225" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="3" t="s">
@@ -7797,10 +7842,10 @@
       <c r="J225" s="4">
         <v>1738</v>
       </c>
-      <c r="K225" s="16">
+      <c r="K225" s="8">
         <v>3174</v>
       </c>
-      <c r="L225" s="17"/>
+      <c r="L225" s="9"/>
     </row>
     <row r="226" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="3" t="s">
@@ -7830,10 +7875,10 @@
       <c r="J226" s="4">
         <v>1739</v>
       </c>
-      <c r="K226" s="16">
+      <c r="K226" s="8">
         <v>3134</v>
       </c>
-      <c r="L226" s="17"/>
+      <c r="L226" s="9"/>
     </row>
     <row r="227" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="3" t="s">
@@ -7863,10 +7908,10 @@
       <c r="J227" s="4">
         <v>1734</v>
       </c>
-      <c r="K227" s="16">
+      <c r="K227" s="8">
         <v>3130</v>
       </c>
-      <c r="L227" s="17"/>
+      <c r="L227" s="9"/>
     </row>
     <row r="228" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="3" t="s">
@@ -7896,10 +7941,10 @@
       <c r="J228" s="4">
         <v>1706</v>
       </c>
-      <c r="K228" s="16">
+      <c r="K228" s="8">
         <v>3077</v>
       </c>
-      <c r="L228" s="17"/>
+      <c r="L228" s="9"/>
     </row>
     <row r="229" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="3" t="s">
@@ -7929,10 +7974,10 @@
       <c r="J229" s="4">
         <v>1718</v>
       </c>
-      <c r="K229" s="16">
+      <c r="K229" s="8">
         <v>3125</v>
       </c>
-      <c r="L229" s="17"/>
+      <c r="L229" s="9"/>
     </row>
     <row r="230" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="6" t="s">
@@ -7962,10 +8007,10 @@
       <c r="J230" s="6">
         <v>1648</v>
       </c>
-      <c r="K230" s="19">
+      <c r="K230" s="10">
         <v>3043</v>
       </c>
-      <c r="L230" s="20"/>
+      <c r="L230" s="11"/>
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B231" s="7"/>
@@ -7977,8 +8022,8 @@
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
-      <c r="K231" s="21"/>
-      <c r="L231" s="22"/>
+      <c r="K231" s="12"/>
+      <c r="L231" s="13"/>
     </row>
     <row r="232" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B232" s="1">
@@ -8041,10 +8086,10 @@
       <c r="J233" s="4">
         <v>1255</v>
       </c>
-      <c r="K233" s="16">
+      <c r="K233" s="8">
         <v>2665</v>
       </c>
-      <c r="L233" s="17"/>
+      <c r="L233" s="9"/>
     </row>
     <row r="234" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="3" t="s">
@@ -8074,10 +8119,10 @@
       <c r="J234" s="4">
         <v>1276</v>
       </c>
-      <c r="K234" s="16">
+      <c r="K234" s="8">
         <v>2745</v>
       </c>
-      <c r="L234" s="17"/>
+      <c r="L234" s="9"/>
     </row>
     <row r="235" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="3" t="s">
@@ -8107,10 +8152,10 @@
       <c r="J235" s="4">
         <v>1306</v>
       </c>
-      <c r="K235" s="16">
+      <c r="K235" s="8">
         <v>2617</v>
       </c>
-      <c r="L235" s="17"/>
+      <c r="L235" s="9"/>
     </row>
     <row r="236" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="3" t="s">
@@ -8140,10 +8185,10 @@
       <c r="J236" s="4">
         <v>1334</v>
       </c>
-      <c r="K236" s="16">
+      <c r="K236" s="8">
         <v>2415</v>
       </c>
-      <c r="L236" s="17"/>
+      <c r="L236" s="9"/>
     </row>
     <row r="237" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="3" t="s">
@@ -8173,10 +8218,10 @@
       <c r="J237" s="4">
         <v>1319</v>
       </c>
-      <c r="K237" s="16">
+      <c r="K237" s="8">
         <v>2485</v>
       </c>
-      <c r="L237" s="17"/>
+      <c r="L237" s="9"/>
     </row>
     <row r="238" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="3" t="s">
@@ -8206,10 +8251,10 @@
       <c r="J238" s="4">
         <v>1355</v>
       </c>
-      <c r="K238" s="16">
+      <c r="K238" s="8">
         <v>2580</v>
       </c>
-      <c r="L238" s="17"/>
+      <c r="L238" s="9"/>
     </row>
     <row r="239" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="3" t="s">
@@ -8239,10 +8284,10 @@
       <c r="J239" s="4">
         <v>1398</v>
       </c>
-      <c r="K239" s="16">
+      <c r="K239" s="8">
         <v>2759</v>
       </c>
-      <c r="L239" s="17"/>
+      <c r="L239" s="9"/>
     </row>
     <row r="240" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="3" t="s">
@@ -8272,10 +8317,10 @@
       <c r="J240" s="4">
         <v>1435</v>
       </c>
-      <c r="K240" s="16">
+      <c r="K240" s="8">
         <v>2894</v>
       </c>
-      <c r="L240" s="17"/>
+      <c r="L240" s="9"/>
     </row>
     <row r="241" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="3" t="s">
@@ -8305,10 +8350,10 @@
       <c r="J241" s="4">
         <v>1452</v>
       </c>
-      <c r="K241" s="16">
+      <c r="K241" s="8">
         <v>2856</v>
       </c>
-      <c r="L241" s="17"/>
+      <c r="L241" s="9"/>
     </row>
     <row r="242" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="3" t="s">
@@ -8338,10 +8383,10 @@
       <c r="J242" s="4">
         <v>1479</v>
       </c>
-      <c r="K242" s="16">
+      <c r="K242" s="8">
         <v>2923</v>
       </c>
-      <c r="L242" s="17"/>
+      <c r="L242" s="9"/>
     </row>
     <row r="243" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="3" t="s">
@@ -8371,10 +8416,10 @@
       <c r="J243" s="4">
         <v>1486</v>
       </c>
-      <c r="K243" s="16">
+      <c r="K243" s="8">
         <v>3021</v>
       </c>
-      <c r="L243" s="17"/>
+      <c r="L243" s="9"/>
     </row>
     <row r="244" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="3" t="s">
@@ -8404,10 +8449,10 @@
       <c r="J244" s="4">
         <v>1470</v>
       </c>
-      <c r="K244" s="16">
+      <c r="K244" s="8">
         <v>2993</v>
       </c>
-      <c r="L244" s="17"/>
+      <c r="L244" s="9"/>
     </row>
     <row r="245" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="6" t="s">
@@ -8437,10 +8482,10 @@
       <c r="J245" s="6">
         <v>1380</v>
       </c>
-      <c r="K245" s="19">
+      <c r="K245" s="10">
         <v>2746</v>
       </c>
-      <c r="L245" s="20"/>
+      <c r="L245" s="11"/>
     </row>
     <row r="246" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B246" s="7"/>
@@ -8452,8 +8497,8 @@
       <c r="H246" s="7"/>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
-      <c r="K246" s="21"/>
-      <c r="L246" s="22"/>
+      <c r="K246" s="12"/>
+      <c r="L246" s="13"/>
     </row>
     <row r="247" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B247" s="1">
@@ -8516,10 +8561,10 @@
       <c r="J248" s="4">
         <v>1101</v>
       </c>
-      <c r="K248" s="16">
+      <c r="K248" s="8">
         <v>2457</v>
       </c>
-      <c r="L248" s="17"/>
+      <c r="L248" s="9"/>
     </row>
     <row r="249" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="3" t="s">
@@ -8549,10 +8594,10 @@
       <c r="J249" s="4">
         <v>1119</v>
       </c>
-      <c r="K249" s="16">
+      <c r="K249" s="8">
         <v>2477</v>
       </c>
-      <c r="L249" s="17"/>
+      <c r="L249" s="9"/>
     </row>
     <row r="250" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="3" t="s">
@@ -8582,10 +8627,10 @@
       <c r="J250" s="4">
         <v>1136</v>
       </c>
-      <c r="K250" s="16">
+      <c r="K250" s="8">
         <v>2397</v>
       </c>
-      <c r="L250" s="17"/>
+      <c r="L250" s="9"/>
     </row>
     <row r="251" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="3" t="s">
@@ -8615,10 +8660,10 @@
       <c r="J251" s="4">
         <v>1151</v>
       </c>
-      <c r="K251" s="16">
+      <c r="K251" s="8">
         <v>2136</v>
       </c>
-      <c r="L251" s="17"/>
+      <c r="L251" s="9"/>
     </row>
     <row r="252" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="3" t="s">
@@ -8648,10 +8693,10 @@
       <c r="J252" s="4">
         <v>1164</v>
       </c>
-      <c r="K252" s="16">
+      <c r="K252" s="8">
         <v>2190</v>
       </c>
-      <c r="L252" s="17"/>
+      <c r="L252" s="9"/>
     </row>
     <row r="253" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="3" t="s">
@@ -8681,10 +8726,10 @@
       <c r="J253" s="4">
         <v>1176</v>
       </c>
-      <c r="K253" s="16">
+      <c r="K253" s="8">
         <v>2282</v>
       </c>
-      <c r="L253" s="17"/>
+      <c r="L253" s="9"/>
     </row>
     <row r="254" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="3" t="s">
@@ -8714,10 +8759,10 @@
       <c r="J254" s="4">
         <v>1213</v>
       </c>
-      <c r="K254" s="16">
+      <c r="K254" s="8">
         <v>2381</v>
       </c>
-      <c r="L254" s="17"/>
+      <c r="L254" s="9"/>
     </row>
     <row r="255" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="3" t="s">
@@ -8747,10 +8792,10 @@
       <c r="J255" s="4">
         <v>1234</v>
       </c>
-      <c r="K255" s="16">
+      <c r="K255" s="8">
         <v>2443</v>
       </c>
-      <c r="L255" s="17"/>
+      <c r="L255" s="9"/>
     </row>
     <row r="256" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="3" t="s">
@@ -8780,10 +8825,10 @@
       <c r="J256" s="4">
         <v>1240</v>
       </c>
-      <c r="K256" s="16">
+      <c r="K256" s="8">
         <v>2379</v>
       </c>
-      <c r="L256" s="17"/>
+      <c r="L256" s="9"/>
     </row>
     <row r="257" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="3" t="s">
@@ -8813,10 +8858,10 @@
       <c r="J257" s="4">
         <v>1240</v>
       </c>
-      <c r="K257" s="16">
+      <c r="K257" s="8">
         <v>2454</v>
       </c>
-      <c r="L257" s="17"/>
+      <c r="L257" s="9"/>
     </row>
     <row r="258" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="3" t="s">
@@ -8846,10 +8891,10 @@
       <c r="J258" s="4">
         <v>1262</v>
       </c>
-      <c r="K258" s="16">
+      <c r="K258" s="8">
         <v>2585</v>
       </c>
-      <c r="L258" s="17"/>
+      <c r="L258" s="9"/>
     </row>
     <row r="259" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="3" t="s">
@@ -8879,10 +8924,10 @@
       <c r="J259" s="4">
         <v>1246</v>
       </c>
-      <c r="K259" s="16">
+      <c r="K259" s="8">
         <v>2555</v>
       </c>
-      <c r="L259" s="17"/>
+      <c r="L259" s="9"/>
     </row>
     <row r="260" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="6" t="s">
@@ -8912,10 +8957,10 @@
       <c r="J260" s="6">
         <v>1190</v>
       </c>
-      <c r="K260" s="19">
+      <c r="K260" s="10">
         <v>2395</v>
       </c>
-      <c r="L260" s="20"/>
+      <c r="L260" s="11"/>
     </row>
     <row r="261" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B261" s="7"/>
@@ -8927,8 +8972,8 @@
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
-      <c r="K261" s="21"/>
-      <c r="L261" s="22"/>
+      <c r="K261" s="12"/>
+      <c r="L261" s="13"/>
     </row>
     <row r="262" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B262" s="1">
@@ -8991,10 +9036,10 @@
       <c r="J263" s="4">
         <v>854</v>
       </c>
-      <c r="K263" s="16">
+      <c r="K263" s="8">
         <v>2066</v>
       </c>
-      <c r="L263" s="17"/>
+      <c r="L263" s="9"/>
     </row>
     <row r="264" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="3" t="s">
@@ -9024,10 +9069,10 @@
       <c r="J264" s="4">
         <v>907</v>
       </c>
-      <c r="K264" s="16">
+      <c r="K264" s="8">
         <v>2213</v>
       </c>
-      <c r="L264" s="17"/>
+      <c r="L264" s="9"/>
     </row>
     <row r="265" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="3" t="s">
@@ -9057,10 +9102,10 @@
       <c r="J265" s="4">
         <v>941</v>
       </c>
-      <c r="K265" s="16">
+      <c r="K265" s="8">
         <v>2137</v>
       </c>
-      <c r="L265" s="17"/>
+      <c r="L265" s="9"/>
     </row>
     <row r="266" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="3" t="s">
@@ -9090,10 +9135,10 @@
       <c r="J266" s="4">
         <v>983</v>
       </c>
-      <c r="K266" s="16">
+      <c r="K266" s="8">
         <v>1904</v>
       </c>
-      <c r="L266" s="17"/>
+      <c r="L266" s="9"/>
     </row>
     <row r="267" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="3" t="s">
@@ -9123,10 +9168,10 @@
       <c r="J267" s="4">
         <v>1035</v>
       </c>
-      <c r="K267" s="16">
+      <c r="K267" s="8">
         <v>1940</v>
       </c>
-      <c r="L267" s="17"/>
+      <c r="L267" s="9"/>
     </row>
     <row r="268" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="3" t="s">
@@ -9156,10 +9201,10 @@
       <c r="J268" s="4">
         <v>1067</v>
       </c>
-      <c r="K268" s="16">
+      <c r="K268" s="8">
         <v>2144</v>
       </c>
-      <c r="L268" s="17"/>
+      <c r="L268" s="9"/>
     </row>
     <row r="269" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="3" t="s">
@@ -9189,10 +9234,10 @@
       <c r="J269" s="4">
         <v>1081</v>
       </c>
-      <c r="K269" s="16">
+      <c r="K269" s="8">
         <v>2254</v>
       </c>
-      <c r="L269" s="17"/>
+      <c r="L269" s="9"/>
     </row>
     <row r="270" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="3" t="s">
@@ -9222,10 +9267,10 @@
       <c r="J270" s="4">
         <v>1090</v>
       </c>
-      <c r="K270" s="16">
+      <c r="K270" s="8">
         <v>2273</v>
       </c>
-      <c r="L270" s="17"/>
+      <c r="L270" s="9"/>
     </row>
     <row r="271" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="3" t="s">
@@ -9255,10 +9300,10 @@
       <c r="J271" s="4">
         <v>1093</v>
       </c>
-      <c r="K271" s="16">
+      <c r="K271" s="8">
         <v>2233</v>
       </c>
-      <c r="L271" s="17"/>
+      <c r="L271" s="9"/>
     </row>
     <row r="272" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="3" t="s">
@@ -9288,10 +9333,10 @@
       <c r="J272" s="4">
         <v>1102</v>
       </c>
-      <c r="K272" s="16">
+      <c r="K272" s="8">
         <v>2286</v>
       </c>
-      <c r="L272" s="17"/>
+      <c r="L272" s="9"/>
     </row>
     <row r="273" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="3" t="s">
@@ -9321,10 +9366,10 @@
       <c r="J273" s="4">
         <v>1112</v>
       </c>
-      <c r="K273" s="16">
+      <c r="K273" s="8">
         <v>2304</v>
       </c>
-      <c r="L273" s="17"/>
+      <c r="L273" s="9"/>
     </row>
     <row r="274" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="3" t="s">
@@ -9354,10 +9399,10 @@
       <c r="J274" s="4">
         <v>1114</v>
       </c>
-      <c r="K274" s="16">
+      <c r="K274" s="8">
         <v>2334</v>
       </c>
-      <c r="L274" s="17"/>
+      <c r="L274" s="9"/>
     </row>
     <row r="275" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="6" t="s">
@@ -9387,10 +9432,10 @@
       <c r="J275" s="6">
         <v>1032</v>
       </c>
-      <c r="K275" s="19">
+      <c r="K275" s="10">
         <v>2174</v>
       </c>
-      <c r="L275" s="20"/>
+      <c r="L275" s="11"/>
     </row>
     <row r="276" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B276" s="7"/>
@@ -9402,8 +9447,8 @@
       <c r="H276" s="7"/>
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
-      <c r="K276" s="21"/>
-      <c r="L276" s="22"/>
+      <c r="K276" s="12"/>
+      <c r="L276" s="13"/>
     </row>
     <row r="277" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B277" s="1">
@@ -9466,10 +9511,10 @@
       <c r="J278" s="4">
         <v>867</v>
       </c>
-      <c r="K278" s="16">
+      <c r="K278" s="8">
         <v>2016</v>
       </c>
-      <c r="L278" s="17"/>
+      <c r="L278" s="9"/>
     </row>
     <row r="279" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="3" t="s">
@@ -9499,10 +9544,10 @@
       <c r="J279" s="4">
         <v>825</v>
       </c>
-      <c r="K279" s="16">
+      <c r="K279" s="8">
         <v>1974</v>
       </c>
-      <c r="L279" s="17"/>
+      <c r="L279" s="9"/>
     </row>
     <row r="280" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="3" t="s">
@@ -9532,10 +9577,10 @@
       <c r="J280" s="4">
         <v>763</v>
       </c>
-      <c r="K280" s="16">
+      <c r="K280" s="8">
         <v>1808</v>
       </c>
-      <c r="L280" s="17"/>
+      <c r="L280" s="9"/>
     </row>
     <row r="281" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="3" t="s">
@@ -9565,10 +9610,10 @@
       <c r="J281" s="4">
         <v>750</v>
       </c>
-      <c r="K281" s="16">
+      <c r="K281" s="8">
         <v>1597</v>
       </c>
-      <c r="L281" s="17"/>
+      <c r="L281" s="9"/>
     </row>
     <row r="282" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="3" t="s">
@@ -9598,10 +9643,10 @@
       <c r="J282" s="4">
         <v>826</v>
       </c>
-      <c r="K282" s="16">
+      <c r="K282" s="8">
         <v>1658</v>
       </c>
-      <c r="L282" s="17"/>
+      <c r="L282" s="9"/>
     </row>
     <row r="283" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="3" t="s">
@@ -9631,10 +9676,10 @@
       <c r="J283" s="4">
         <v>843</v>
       </c>
-      <c r="K283" s="16">
+      <c r="K283" s="8">
         <v>1778</v>
       </c>
-      <c r="L283" s="17"/>
+      <c r="L283" s="9"/>
     </row>
     <row r="284" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="3" t="s">
@@ -9664,10 +9709,10 @@
       <c r="J284" s="4">
         <v>851</v>
       </c>
-      <c r="K284" s="16">
+      <c r="K284" s="8">
         <v>1822</v>
       </c>
-      <c r="L284" s="17"/>
+      <c r="L284" s="9"/>
     </row>
     <row r="285" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="3" t="s">
@@ -9697,10 +9742,10 @@
       <c r="J285" s="4">
         <v>848</v>
       </c>
-      <c r="K285" s="16">
+      <c r="K285" s="8">
         <v>1805</v>
       </c>
-      <c r="L285" s="17"/>
+      <c r="L285" s="9"/>
     </row>
     <row r="286" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="3" t="s">
@@ -9730,10 +9775,10 @@
       <c r="J286" s="4">
         <v>860</v>
       </c>
-      <c r="K286" s="16">
+      <c r="K286" s="8">
         <v>1837</v>
       </c>
-      <c r="L286" s="17"/>
+      <c r="L286" s="9"/>
     </row>
     <row r="287" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="3" t="s">
@@ -9763,10 +9808,10 @@
       <c r="J287" s="4">
         <v>852</v>
       </c>
-      <c r="K287" s="16">
+      <c r="K287" s="8">
         <v>1818</v>
       </c>
-      <c r="L287" s="17"/>
+      <c r="L287" s="9"/>
     </row>
     <row r="288" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="3" t="s">
@@ -9796,10 +9841,10 @@
       <c r="J288" s="4">
         <v>834</v>
       </c>
-      <c r="K288" s="16">
+      <c r="K288" s="8">
         <v>1875</v>
       </c>
-      <c r="L288" s="17"/>
+      <c r="L288" s="9"/>
     </row>
     <row r="289" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="3" t="s">
@@ -9829,10 +9874,10 @@
       <c r="J289" s="4">
         <v>856</v>
       </c>
-      <c r="K289" s="16">
+      <c r="K289" s="8">
         <v>1957</v>
       </c>
-      <c r="L289" s="17"/>
+      <c r="L289" s="9"/>
     </row>
     <row r="290" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="6" t="s">
@@ -9862,10 +9907,10 @@
       <c r="J290" s="6">
         <v>831</v>
       </c>
-      <c r="K290" s="19">
+      <c r="K290" s="10">
         <v>1829</v>
       </c>
-      <c r="L290" s="20"/>
+      <c r="L290" s="11"/>
     </row>
     <row r="291" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B291" s="7"/>
@@ -9877,8 +9922,8 @@
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
-      <c r="K291" s="21"/>
-      <c r="L291" s="22"/>
+      <c r="K291" s="12"/>
+      <c r="L291" s="13"/>
     </row>
     <row r="292" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B292" s="1">
@@ -9941,10 +9986,10 @@
       <c r="J293" s="4">
         <v>1118</v>
       </c>
-      <c r="K293" s="16">
+      <c r="K293" s="8">
         <v>2374</v>
       </c>
-      <c r="L293" s="17"/>
+      <c r="L293" s="9"/>
     </row>
     <row r="294" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="3" t="s">
@@ -9974,10 +10019,10 @@
       <c r="J294" s="4">
         <v>1136</v>
       </c>
-      <c r="K294" s="16">
+      <c r="K294" s="8">
         <v>2430</v>
       </c>
-      <c r="L294" s="17"/>
+      <c r="L294" s="9"/>
     </row>
     <row r="295" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="3" t="s">
@@ -10007,10 +10052,10 @@
       <c r="J295" s="4">
         <v>1164</v>
       </c>
-      <c r="K295" s="16">
+      <c r="K295" s="8">
         <v>2331</v>
       </c>
-      <c r="L295" s="17"/>
+      <c r="L295" s="9"/>
     </row>
     <row r="296" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="3" t="s">
@@ -10040,10 +10085,10 @@
       <c r="J296" s="4">
         <v>1206</v>
       </c>
-      <c r="K296" s="16">
+      <c r="K296" s="8">
         <v>2165</v>
       </c>
-      <c r="L296" s="17"/>
+      <c r="L296" s="9"/>
     </row>
     <row r="297" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="3" t="s">
@@ -10073,10 +10118,10 @@
       <c r="J297" s="4">
         <v>1234</v>
       </c>
-      <c r="K297" s="16">
+      <c r="K297" s="8">
         <v>2224</v>
       </c>
-      <c r="L297" s="17"/>
+      <c r="L297" s="9"/>
     </row>
     <row r="298" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="3" t="s">
@@ -10106,10 +10151,10 @@
       <c r="J298" s="4">
         <v>1271</v>
       </c>
-      <c r="K298" s="16">
+      <c r="K298" s="8">
         <v>2333</v>
       </c>
-      <c r="L298" s="17"/>
+      <c r="L298" s="9"/>
     </row>
     <row r="299" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="3" t="s">
@@ -10139,10 +10184,10 @@
       <c r="J299" s="4">
         <v>1278</v>
       </c>
-      <c r="K299" s="16">
+      <c r="K299" s="8">
         <v>2345</v>
       </c>
-      <c r="L299" s="17"/>
+      <c r="L299" s="9"/>
     </row>
     <row r="300" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="3" t="s">
@@ -10172,10 +10217,10 @@
       <c r="J300" s="4">
         <v>1252</v>
       </c>
-      <c r="K300" s="16">
+      <c r="K300" s="8">
         <v>2333</v>
       </c>
-      <c r="L300" s="17"/>
+      <c r="L300" s="9"/>
     </row>
     <row r="301" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="3" t="s">
@@ -10205,10 +10250,10 @@
       <c r="J301" s="4">
         <v>1193</v>
       </c>
-      <c r="K301" s="16">
+      <c r="K301" s="8">
         <v>2276</v>
       </c>
-      <c r="L301" s="17"/>
+      <c r="L301" s="9"/>
     </row>
     <row r="302" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="3" t="s">
@@ -10238,10 +10283,10 @@
       <c r="J302" s="4">
         <v>1111</v>
       </c>
-      <c r="K302" s="16">
+      <c r="K302" s="8">
         <v>2165</v>
       </c>
-      <c r="L302" s="17"/>
+      <c r="L302" s="9"/>
     </row>
     <row r="303" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="3" t="s">
@@ -10271,10 +10316,10 @@
       <c r="J303" s="4">
         <v>1000</v>
       </c>
-      <c r="K303" s="16">
+      <c r="K303" s="8">
         <v>2007</v>
       </c>
-      <c r="L303" s="17"/>
+      <c r="L303" s="9"/>
     </row>
     <row r="304" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="3" t="s">
@@ -10304,10 +10349,10 @@
       <c r="J304" s="4">
         <v>901</v>
       </c>
-      <c r="K304" s="16">
+      <c r="K304" s="8">
         <v>1917</v>
       </c>
-      <c r="L304" s="17"/>
+      <c r="L304" s="9"/>
     </row>
     <row r="305" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="6" t="s">
@@ -10337,10 +10382,10 @@
       <c r="J305" s="6">
         <v>1155</v>
       </c>
-      <c r="K305" s="19">
+      <c r="K305" s="10">
         <v>2242</v>
       </c>
-      <c r="L305" s="20"/>
+      <c r="L305" s="11"/>
     </row>
     <row r="306" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B306" s="7"/>
@@ -10352,8 +10397,8 @@
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
       <c r="J306" s="7"/>
-      <c r="K306" s="21"/>
-      <c r="L306" s="22"/>
+      <c r="K306" s="12"/>
+      <c r="L306" s="13"/>
     </row>
     <row r="307" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B307" s="1">
@@ -10416,10 +10461,10 @@
       <c r="J308" s="4">
         <v>775</v>
       </c>
-      <c r="K308" s="16">
+      <c r="K308" s="8">
         <v>1837</v>
       </c>
-      <c r="L308" s="17"/>
+      <c r="L308" s="9"/>
     </row>
     <row r="309" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="3" t="s">
@@ -10449,10 +10494,10 @@
       <c r="J309" s="4">
         <v>763</v>
       </c>
-      <c r="K309" s="16">
+      <c r="K309" s="8">
         <v>1869</v>
       </c>
-      <c r="L309" s="17"/>
+      <c r="L309" s="9"/>
     </row>
     <row r="310" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="3" t="s">
@@ -10482,10 +10527,10 @@
       <c r="J310" s="4">
         <v>773</v>
       </c>
-      <c r="K310" s="16">
+      <c r="K310" s="8">
         <v>1773</v>
       </c>
-      <c r="L310" s="17"/>
+      <c r="L310" s="9"/>
     </row>
     <row r="311" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="3" t="s">
@@ -10515,10 +10560,10 @@
       <c r="J311" s="4">
         <v>805</v>
       </c>
-      <c r="K311" s="16">
+      <c r="K311" s="8">
         <v>1553</v>
       </c>
-      <c r="L311" s="17"/>
+      <c r="L311" s="9"/>
     </row>
     <row r="312" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="3" t="s">
@@ -10548,10 +10593,10 @@
       <c r="J312" s="4">
         <v>844</v>
       </c>
-      <c r="K312" s="16">
+      <c r="K312" s="8">
         <v>1660</v>
       </c>
-      <c r="L312" s="17"/>
+      <c r="L312" s="9"/>
     </row>
     <row r="313" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="3" t="s">
@@ -10581,10 +10626,10 @@
       <c r="J313" s="4">
         <v>878</v>
       </c>
-      <c r="K313" s="16">
+      <c r="K313" s="8">
         <v>1826</v>
       </c>
-      <c r="L313" s="17"/>
+      <c r="L313" s="9"/>
     </row>
     <row r="314" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="3" t="s">
@@ -10614,10 +10659,10 @@
       <c r="J314" s="4">
         <v>942</v>
       </c>
-      <c r="K314" s="16">
+      <c r="K314" s="8">
         <v>1912</v>
       </c>
-      <c r="L314" s="17"/>
+      <c r="L314" s="9"/>
     </row>
     <row r="315" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="3" t="s">
@@ -10647,10 +10692,10 @@
       <c r="J315" s="4">
         <v>987</v>
       </c>
-      <c r="K315" s="16">
+      <c r="K315" s="8">
         <v>2011</v>
       </c>
-      <c r="L315" s="17"/>
+      <c r="L315" s="9"/>
     </row>
     <row r="316" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="3" t="s">
@@ -10680,10 +10725,10 @@
       <c r="J316" s="4">
         <v>1011</v>
       </c>
-      <c r="K316" s="16">
+      <c r="K316" s="8">
         <v>2039</v>
       </c>
-      <c r="L316" s="17"/>
+      <c r="L316" s="9"/>
     </row>
     <row r="317" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="3" t="s">
@@ -10713,10 +10758,10 @@
       <c r="J317" s="4">
         <v>1055</v>
       </c>
-      <c r="K317" s="16">
+      <c r="K317" s="8">
         <v>2135</v>
       </c>
-      <c r="L317" s="17"/>
+      <c r="L317" s="9"/>
     </row>
     <row r="318" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="3" t="s">
@@ -10746,10 +10791,10 @@
       <c r="J318" s="4">
         <v>1067</v>
       </c>
-      <c r="K318" s="16">
+      <c r="K318" s="8">
         <v>2129</v>
       </c>
-      <c r="L318" s="17"/>
+      <c r="L318" s="9"/>
     </row>
     <row r="319" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="3" t="s">
@@ -10779,10 +10824,10 @@
       <c r="J319" s="4">
         <v>1097</v>
       </c>
-      <c r="K319" s="16">
+      <c r="K319" s="8">
         <v>2212</v>
       </c>
-      <c r="L319" s="17"/>
+      <c r="L319" s="9"/>
     </row>
     <row r="320" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="6" t="s">
@@ -10812,10 +10857,10 @@
       <c r="J320" s="6">
         <v>916</v>
       </c>
-      <c r="K320" s="19">
+      <c r="K320" s="10">
         <v>1913</v>
       </c>
-      <c r="L320" s="20"/>
+      <c r="L320" s="11"/>
     </row>
     <row r="321" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B321" s="7"/>
@@ -10827,8 +10872,8 @@
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
       <c r="J321" s="7"/>
-      <c r="K321" s="21"/>
-      <c r="L321" s="22"/>
+      <c r="K321" s="12"/>
+      <c r="L321" s="13"/>
     </row>
     <row r="322" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B322" s="1">
@@ -10891,10 +10936,10 @@
       <c r="J323" s="4">
         <v>587</v>
       </c>
-      <c r="K323" s="16">
+      <c r="K323" s="8">
         <v>1563</v>
       </c>
-      <c r="L323" s="17"/>
+      <c r="L323" s="9"/>
     </row>
     <row r="324" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="3" t="s">
@@ -10924,10 +10969,10 @@
       <c r="J324" s="4">
         <v>542</v>
       </c>
-      <c r="K324" s="16">
+      <c r="K324" s="8">
         <v>1486</v>
       </c>
-      <c r="L324" s="17"/>
+      <c r="L324" s="9"/>
     </row>
     <row r="325" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="3" t="s">
@@ -10957,10 +11002,10 @@
       <c r="J325" s="4">
         <v>526</v>
       </c>
-      <c r="K325" s="16">
+      <c r="K325" s="8">
         <v>1337</v>
       </c>
-      <c r="L325" s="17"/>
+      <c r="L325" s="9"/>
     </row>
     <row r="326" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="3" t="s">
@@ -10990,10 +11035,10 @@
       <c r="J326" s="4">
         <v>496</v>
       </c>
-      <c r="K326" s="16">
+      <c r="K326" s="8">
         <v>1156</v>
       </c>
-      <c r="L326" s="17"/>
+      <c r="L326" s="9"/>
     </row>
     <row r="327" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="3" t="s">
@@ -11023,10 +11068,10 @@
       <c r="J327" s="4">
         <v>516</v>
       </c>
-      <c r="K327" s="16">
+      <c r="K327" s="8">
         <v>1171</v>
       </c>
-      <c r="L327" s="17"/>
+      <c r="L327" s="9"/>
     </row>
     <row r="328" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="3" t="s">
@@ -11056,10 +11101,10 @@
       <c r="J328" s="4">
         <v>558</v>
       </c>
-      <c r="K328" s="16">
+      <c r="K328" s="8">
         <v>1347</v>
       </c>
-      <c r="L328" s="17"/>
+      <c r="L328" s="9"/>
     </row>
     <row r="329" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="3" t="s">
@@ -11089,10 +11134,10 @@
       <c r="J329" s="4">
         <v>588</v>
       </c>
-      <c r="K329" s="16">
+      <c r="K329" s="8">
         <v>1384</v>
       </c>
-      <c r="L329" s="17"/>
+      <c r="L329" s="9"/>
     </row>
     <row r="330" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="3" t="s">
@@ -11122,10 +11167,10 @@
       <c r="J330" s="4">
         <v>639</v>
       </c>
-      <c r="K330" s="16">
+      <c r="K330" s="8">
         <v>1465</v>
       </c>
-      <c r="L330" s="17"/>
+      <c r="L330" s="9"/>
     </row>
     <row r="331" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="3" t="s">
@@ -11155,10 +11200,10 @@
       <c r="J331" s="4">
         <v>696</v>
       </c>
-      <c r="K331" s="16">
+      <c r="K331" s="8">
         <v>1528</v>
       </c>
-      <c r="L331" s="17"/>
+      <c r="L331" s="9"/>
     </row>
     <row r="332" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="3" t="s">
@@ -11188,10 +11233,10 @@
       <c r="J332" s="4">
         <v>741</v>
       </c>
-      <c r="K332" s="16">
+      <c r="K332" s="8">
         <v>1595</v>
       </c>
-      <c r="L332" s="17"/>
+      <c r="L332" s="9"/>
     </row>
     <row r="333" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="3" t="s">
@@ -11221,10 +11266,10 @@
       <c r="J333" s="4">
         <v>782</v>
       </c>
-      <c r="K333" s="16">
+      <c r="K333" s="8">
         <v>1693</v>
       </c>
-      <c r="L333" s="17"/>
+      <c r="L333" s="9"/>
     </row>
     <row r="334" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="3" t="s">
@@ -11254,10 +11299,10 @@
       <c r="J334" s="4">
         <v>798</v>
       </c>
-      <c r="K334" s="16">
+      <c r="K334" s="8">
         <v>1757</v>
       </c>
-      <c r="L334" s="17"/>
+      <c r="L334" s="9"/>
     </row>
     <row r="335" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="6" t="s">
@@ -11287,10 +11332,10 @@
       <c r="J335" s="6">
         <v>622</v>
       </c>
-      <c r="K335" s="19">
+      <c r="K335" s="10">
         <v>1457</v>
       </c>
-      <c r="L335" s="20"/>
+      <c r="L335" s="11"/>
     </row>
     <row r="336" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B336" s="7"/>
@@ -11302,8 +11347,8 @@
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
       <c r="J336" s="7"/>
-      <c r="K336" s="21"/>
-      <c r="L336" s="22"/>
+      <c r="K336" s="12"/>
+      <c r="L336" s="13"/>
     </row>
     <row r="337" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B337" s="1">
@@ -11366,10 +11411,10 @@
       <c r="J338" s="4">
         <v>993</v>
       </c>
-      <c r="K338" s="16">
+      <c r="K338" s="8">
         <v>2293</v>
       </c>
-      <c r="L338" s="17"/>
+      <c r="L338" s="9"/>
     </row>
     <row r="339" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="3" t="s">
@@ -11399,10 +11444,10 @@
       <c r="J339" s="4">
         <v>974</v>
       </c>
-      <c r="K339" s="16">
+      <c r="K339" s="8">
         <v>2290</v>
       </c>
-      <c r="L339" s="17"/>
+      <c r="L339" s="9"/>
     </row>
     <row r="340" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="3" t="s">
@@ -11432,10 +11477,10 @@
       <c r="J340" s="4">
         <v>932</v>
       </c>
-      <c r="K340" s="16">
+      <c r="K340" s="8">
         <v>2128</v>
       </c>
-      <c r="L340" s="17"/>
+      <c r="L340" s="9"/>
     </row>
     <row r="341" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="3" t="s">
@@ -11465,10 +11510,10 @@
       <c r="J341" s="4">
         <v>886</v>
       </c>
-      <c r="K341" s="16">
+      <c r="K341" s="8">
         <v>1819</v>
       </c>
-      <c r="L341" s="17"/>
+      <c r="L341" s="9"/>
     </row>
     <row r="342" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="3" t="s">
@@ -11498,10 +11543,10 @@
       <c r="J342" s="4">
         <v>855</v>
       </c>
-      <c r="K342" s="16">
+      <c r="K342" s="8">
         <v>1810</v>
       </c>
-      <c r="L342" s="17"/>
+      <c r="L342" s="9"/>
     </row>
     <row r="343" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="3" t="s">
@@ -11531,10 +11576,10 @@
       <c r="J343" s="4">
         <v>854</v>
       </c>
-      <c r="K343" s="16">
+      <c r="K343" s="8">
         <v>1882</v>
       </c>
-      <c r="L343" s="17"/>
+      <c r="L343" s="9"/>
     </row>
     <row r="344" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="3" t="s">
@@ -11564,10 +11609,10 @@
       <c r="J344" s="4">
         <v>816</v>
       </c>
-      <c r="K344" s="16">
+      <c r="K344" s="8">
         <v>1764</v>
       </c>
-      <c r="L344" s="17"/>
+      <c r="L344" s="9"/>
     </row>
     <row r="345" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="3" t="s">
@@ -11597,10 +11642,10 @@
       <c r="J345" s="4">
         <v>792</v>
       </c>
-      <c r="K345" s="16">
+      <c r="K345" s="8">
         <v>1725</v>
       </c>
-      <c r="L345" s="17"/>
+      <c r="L345" s="9"/>
     </row>
     <row r="346" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="3" t="s">
@@ -11630,10 +11675,10 @@
       <c r="J346" s="4">
         <v>774</v>
       </c>
-      <c r="K346" s="16">
+      <c r="K346" s="8">
         <v>1693</v>
       </c>
-      <c r="L346" s="17"/>
+      <c r="L346" s="9"/>
     </row>
     <row r="347" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="3" t="s">
@@ -11663,10 +11708,10 @@
       <c r="J347" s="4">
         <v>734</v>
       </c>
-      <c r="K347" s="16">
+      <c r="K347" s="8">
         <v>1573</v>
       </c>
-      <c r="L347" s="17"/>
+      <c r="L347" s="9"/>
     </row>
     <row r="348" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="3" t="s">
@@ -11696,10 +11741,10 @@
       <c r="J348" s="4">
         <v>688</v>
       </c>
-      <c r="K348" s="16">
+      <c r="K348" s="8">
         <v>1578</v>
       </c>
-      <c r="L348" s="17"/>
+      <c r="L348" s="9"/>
     </row>
     <row r="349" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="3" t="s">
@@ -11729,10 +11774,10 @@
       <c r="J349" s="4">
         <v>647</v>
       </c>
-      <c r="K349" s="16">
+      <c r="K349" s="8">
         <v>1566</v>
       </c>
-      <c r="L349" s="17"/>
+      <c r="L349" s="9"/>
     </row>
     <row r="350" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="6" t="s">
@@ -11762,10 +11807,10 @@
       <c r="J350" s="6">
         <v>829</v>
       </c>
-      <c r="K350" s="19">
+      <c r="K350" s="10">
         <v>1843</v>
       </c>
-      <c r="L350" s="20"/>
+      <c r="L350" s="11"/>
     </row>
     <row r="351" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B351" s="7"/>
@@ -11777,8 +11822,8 @@
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
       <c r="J351" s="7"/>
-      <c r="K351" s="21"/>
-      <c r="L351" s="22"/>
+      <c r="K351" s="12"/>
+      <c r="L351" s="13"/>
     </row>
     <row r="352" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B352" s="1">
@@ -11841,10 +11886,10 @@
       <c r="J353" s="4">
         <v>822</v>
       </c>
-      <c r="K353" s="16">
+      <c r="K353" s="8">
         <v>2032</v>
       </c>
-      <c r="L353" s="17"/>
+      <c r="L353" s="9"/>
     </row>
     <row r="354" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="3" t="s">
@@ -11874,10 +11919,10 @@
       <c r="J354" s="4">
         <v>849</v>
       </c>
-      <c r="K354" s="16">
+      <c r="K354" s="8">
         <v>2067</v>
       </c>
-      <c r="L354" s="17"/>
+      <c r="L354" s="9"/>
     </row>
     <row r="355" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="3" t="s">
@@ -11907,10 +11952,10 @@
       <c r="J355" s="4">
         <v>897</v>
       </c>
-      <c r="K355" s="16">
+      <c r="K355" s="8">
         <v>2067</v>
       </c>
-      <c r="L355" s="17"/>
+      <c r="L355" s="9"/>
     </row>
     <row r="356" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="3" t="s">
@@ -11940,10 +11985,10 @@
       <c r="J356" s="4">
         <v>901</v>
       </c>
-      <c r="K356" s="16">
+      <c r="K356" s="8">
         <v>1914</v>
       </c>
-      <c r="L356" s="17"/>
+      <c r="L356" s="9"/>
     </row>
     <row r="357" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="3" t="s">
@@ -11973,10 +12018,10 @@
       <c r="J357" s="4">
         <v>924</v>
       </c>
-      <c r="K357" s="16">
+      <c r="K357" s="8">
         <v>1969</v>
       </c>
-      <c r="L357" s="17"/>
+      <c r="L357" s="9"/>
     </row>
     <row r="358" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="3" t="s">
@@ -12006,10 +12051,10 @@
       <c r="J358" s="4">
         <v>976</v>
       </c>
-      <c r="K358" s="16">
+      <c r="K358" s="8">
         <v>2121</v>
       </c>
-      <c r="L358" s="17"/>
+      <c r="L358" s="9"/>
     </row>
     <row r="359" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="3" t="s">
@@ -12039,10 +12084,10 @@
       <c r="J359" s="4">
         <v>969</v>
       </c>
-      <c r="K359" s="16">
+      <c r="K359" s="8">
         <v>2168</v>
       </c>
-      <c r="L359" s="17"/>
+      <c r="L359" s="9"/>
     </row>
     <row r="360" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="3" t="s">
@@ -12072,10 +12117,10 @@
       <c r="J360" s="4">
         <v>993</v>
       </c>
-      <c r="K360" s="16">
+      <c r="K360" s="8">
         <v>2215</v>
       </c>
-      <c r="L360" s="17"/>
+      <c r="L360" s="9"/>
     </row>
     <row r="361" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="3" t="s">
@@ -12105,10 +12150,10 @@
       <c r="J361" s="4">
         <v>1009</v>
       </c>
-      <c r="K361" s="16">
+      <c r="K361" s="8">
         <v>2211</v>
       </c>
-      <c r="L361" s="17"/>
+      <c r="L361" s="9"/>
     </row>
     <row r="362" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="3" t="s">
@@ -12138,10 +12183,10 @@
       <c r="J362" s="4">
         <v>996</v>
       </c>
-      <c r="K362" s="16">
+      <c r="K362" s="8">
         <v>2224</v>
       </c>
-      <c r="L362" s="17"/>
+      <c r="L362" s="9"/>
     </row>
     <row r="363" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="3" t="s">
@@ -12171,10 +12216,10 @@
       <c r="J363" s="4">
         <v>983</v>
       </c>
-      <c r="K363" s="16">
+      <c r="K363" s="8">
         <v>2230</v>
       </c>
-      <c r="L363" s="17"/>
+      <c r="L363" s="9"/>
     </row>
     <row r="364" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="3" t="s">
@@ -12204,10 +12249,10 @@
       <c r="J364" s="4">
         <v>1013</v>
       </c>
-      <c r="K364" s="16">
+      <c r="K364" s="8">
         <v>2318</v>
       </c>
-      <c r="L364" s="17"/>
+      <c r="L364" s="9"/>
     </row>
     <row r="365" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="6" t="s">
@@ -12237,10 +12282,10 @@
       <c r="J365" s="6">
         <v>944</v>
       </c>
-      <c r="K365" s="19">
+      <c r="K365" s="10">
         <v>2128</v>
       </c>
-      <c r="L365" s="20"/>
+      <c r="L365" s="11"/>
     </row>
     <row r="366" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B366" s="7"/>
@@ -12252,8 +12297,8 @@
       <c r="H366" s="7"/>
       <c r="I366" s="7"/>
       <c r="J366" s="7"/>
-      <c r="K366" s="21"/>
-      <c r="L366" s="22"/>
+      <c r="K366" s="12"/>
+      <c r="L366" s="13"/>
     </row>
     <row r="367" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B367" s="1">
@@ -12316,10 +12361,10 @@
       <c r="J368" s="4">
         <v>709</v>
       </c>
-      <c r="K368" s="16">
+      <c r="K368" s="8">
         <v>1827</v>
       </c>
-      <c r="L368" s="17"/>
+      <c r="L368" s="9"/>
     </row>
     <row r="369" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="3" t="s">
@@ -12349,10 +12394,10 @@
       <c r="J369" s="4">
         <v>700</v>
       </c>
-      <c r="K369" s="16">
+      <c r="K369" s="8">
         <v>1841</v>
       </c>
-      <c r="L369" s="17"/>
+      <c r="L369" s="9"/>
     </row>
     <row r="370" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="3" t="s">
@@ -12382,10 +12427,10 @@
       <c r="J370" s="4">
         <v>714</v>
       </c>
-      <c r="K370" s="16">
+      <c r="K370" s="8">
         <v>1819</v>
       </c>
-      <c r="L370" s="17"/>
+      <c r="L370" s="9"/>
     </row>
     <row r="371" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="3" t="s">
@@ -12415,10 +12460,10 @@
       <c r="J371" s="4">
         <v>741</v>
       </c>
-      <c r="K371" s="16">
+      <c r="K371" s="8">
         <v>1620</v>
       </c>
-      <c r="L371" s="17"/>
+      <c r="L371" s="9"/>
     </row>
     <row r="372" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="3" t="s">
@@ -12448,10 +12493,10 @@
       <c r="J372" s="4">
         <v>764</v>
       </c>
-      <c r="K372" s="16">
+      <c r="K372" s="8">
         <v>1677</v>
       </c>
-      <c r="L372" s="17"/>
+      <c r="L372" s="9"/>
     </row>
     <row r="373" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="3" t="s">
@@ -12481,10 +12526,10 @@
       <c r="J373" s="4">
         <v>774</v>
       </c>
-      <c r="K373" s="16">
+      <c r="K373" s="8">
         <v>1812</v>
       </c>
-      <c r="L373" s="17"/>
+      <c r="L373" s="9"/>
     </row>
     <row r="374" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="3" t="s">
@@ -12514,10 +12559,10 @@
       <c r="J374" s="4">
         <v>784</v>
       </c>
-      <c r="K374" s="16">
+      <c r="K374" s="8">
         <v>1890</v>
       </c>
-      <c r="L374" s="17"/>
+      <c r="L374" s="9"/>
     </row>
     <row r="375" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="3" t="s">
@@ -12547,10 +12592,10 @@
       <c r="J375" s="4">
         <v>811</v>
       </c>
-      <c r="K375" s="16">
+      <c r="K375" s="8">
         <v>1886</v>
       </c>
-      <c r="L375" s="17"/>
+      <c r="L375" s="9"/>
     </row>
     <row r="376" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="3" t="s">
@@ -12580,10 +12625,10 @@
       <c r="J376" s="4">
         <v>811</v>
       </c>
-      <c r="K376" s="16">
+      <c r="K376" s="8">
         <v>1860</v>
       </c>
-      <c r="L376" s="17"/>
+      <c r="L376" s="9"/>
     </row>
     <row r="377" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="3" t="s">
@@ -12613,10 +12658,10 @@
       <c r="J377" s="4">
         <v>836</v>
       </c>
-      <c r="K377" s="16">
+      <c r="K377" s="8">
         <v>1902</v>
       </c>
-      <c r="L377" s="17"/>
+      <c r="L377" s="9"/>
     </row>
     <row r="378" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="3" t="s">
@@ -12646,10 +12691,10 @@
       <c r="J378" s="4">
         <v>832</v>
       </c>
-      <c r="K378" s="16">
+      <c r="K378" s="8">
         <v>1958</v>
       </c>
-      <c r="L378" s="17"/>
+      <c r="L378" s="9"/>
     </row>
     <row r="379" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="3" t="s">
@@ -12679,10 +12724,10 @@
       <c r="J379" s="4">
         <v>852</v>
       </c>
-      <c r="K379" s="16">
+      <c r="K379" s="8">
         <v>2005</v>
       </c>
-      <c r="L379" s="17"/>
+      <c r="L379" s="9"/>
     </row>
     <row r="380" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="6" t="s">
@@ -12712,10 +12757,10 @@
       <c r="J380" s="6">
         <v>777</v>
       </c>
-      <c r="K380" s="19">
+      <c r="K380" s="10">
         <v>1841</v>
       </c>
-      <c r="L380" s="20"/>
+      <c r="L380" s="11"/>
     </row>
     <row r="381" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B381" s="7"/>
@@ -12727,8 +12772,8 @@
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
       <c r="J381" s="7"/>
-      <c r="K381" s="21"/>
-      <c r="L381" s="22"/>
+      <c r="K381" s="12"/>
+      <c r="L381" s="13"/>
     </row>
     <row r="382" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B382" s="1">
@@ -12791,10 +12836,10 @@
       <c r="J383" s="4">
         <v>748</v>
       </c>
-      <c r="K383" s="16">
+      <c r="K383" s="8">
         <v>1836</v>
       </c>
-      <c r="L383" s="17"/>
+      <c r="L383" s="9"/>
     </row>
     <row r="384" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="3" t="s">
@@ -12824,10 +12869,10 @@
       <c r="J384" s="4">
         <v>713</v>
       </c>
-      <c r="K384" s="16">
+      <c r="K384" s="8">
         <v>1826</v>
       </c>
-      <c r="L384" s="17"/>
+      <c r="L384" s="9"/>
     </row>
     <row r="385" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="3" t="s">
@@ -12857,10 +12902,10 @@
       <c r="J385" s="4">
         <v>665</v>
       </c>
-      <c r="K385" s="16">
+      <c r="K385" s="8">
         <v>1695</v>
       </c>
-      <c r="L385" s="17"/>
+      <c r="L385" s="9"/>
     </row>
     <row r="386" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="3" t="s">
@@ -12890,10 +12935,10 @@
       <c r="J386" s="4">
         <v>678</v>
       </c>
-      <c r="K386" s="16">
+      <c r="K386" s="8">
         <v>1521</v>
       </c>
-      <c r="L386" s="17"/>
+      <c r="L386" s="9"/>
     </row>
     <row r="387" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="3" t="s">
@@ -12923,10 +12968,10 @@
       <c r="J387" s="4">
         <v>685</v>
       </c>
-      <c r="K387" s="16">
+      <c r="K387" s="8">
         <v>1551</v>
       </c>
-      <c r="L387" s="17"/>
+      <c r="L387" s="9"/>
     </row>
     <row r="388" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="3" t="s">
@@ -12956,10 +13001,10 @@
       <c r="J388" s="4">
         <v>674</v>
       </c>
-      <c r="K388" s="16">
+      <c r="K388" s="8">
         <v>1685</v>
       </c>
-      <c r="L388" s="17"/>
+      <c r="L388" s="9"/>
     </row>
     <row r="389" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="3" t="s">
@@ -12989,10 +13034,10 @@
       <c r="J389" s="4">
         <v>723</v>
       </c>
-      <c r="K389" s="16">
+      <c r="K389" s="8">
         <v>1716</v>
       </c>
-      <c r="L389" s="17"/>
+      <c r="L389" s="9"/>
     </row>
     <row r="390" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="3" t="s">
@@ -13022,10 +13067,10 @@
       <c r="J390" s="4">
         <v>745</v>
       </c>
-      <c r="K390" s="16">
+      <c r="K390" s="8">
         <v>1710</v>
       </c>
-      <c r="L390" s="17"/>
+      <c r="L390" s="9"/>
     </row>
     <row r="391" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="3" t="s">
@@ -13055,10 +13100,10 @@
       <c r="J391" s="4">
         <v>765</v>
       </c>
-      <c r="K391" s="16">
+      <c r="K391" s="8">
         <v>1742</v>
       </c>
-      <c r="L391" s="17"/>
+      <c r="L391" s="9"/>
     </row>
     <row r="392" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="3" t="s">
@@ -13088,10 +13133,10 @@
       <c r="J392" s="4">
         <v>754</v>
       </c>
-      <c r="K392" s="16">
+      <c r="K392" s="8">
         <v>1728</v>
       </c>
-      <c r="L392" s="17"/>
+      <c r="L392" s="9"/>
     </row>
     <row r="393" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="3" t="s">
@@ -13121,10 +13166,10 @@
       <c r="J393" s="4">
         <v>772</v>
       </c>
-      <c r="K393" s="16">
+      <c r="K393" s="8">
         <v>1747</v>
       </c>
-      <c r="L393" s="17"/>
+      <c r="L393" s="9"/>
     </row>
     <row r="394" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="3" t="s">
@@ -13154,10 +13199,10 @@
       <c r="J394" s="4">
         <v>763</v>
       </c>
-      <c r="K394" s="16">
+      <c r="K394" s="8">
         <v>1797</v>
       </c>
-      <c r="L394" s="17"/>
+      <c r="L394" s="9"/>
     </row>
     <row r="395" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="6" t="s">
@@ -13187,10 +13232,10 @@
       <c r="J395" s="6">
         <v>724</v>
       </c>
-      <c r="K395" s="19">
+      <c r="K395" s="10">
         <v>1713</v>
       </c>
-      <c r="L395" s="20"/>
+      <c r="L395" s="11"/>
     </row>
     <row r="396" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B396" s="7"/>
@@ -13202,8 +13247,8 @@
       <c r="H396" s="7"/>
       <c r="I396" s="7"/>
       <c r="J396" s="7"/>
-      <c r="K396" s="21"/>
-      <c r="L396" s="22"/>
+      <c r="K396" s="12"/>
+      <c r="L396" s="13"/>
     </row>
     <row r="397" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B397" s="1">
@@ -13266,10 +13311,10 @@
       <c r="J398" s="4">
         <v>789</v>
       </c>
-      <c r="K398" s="16">
+      <c r="K398" s="8">
         <v>1857</v>
       </c>
-      <c r="L398" s="17"/>
+      <c r="L398" s="9"/>
     </row>
     <row r="399" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="3" t="s">
@@ -13299,10 +13344,10 @@
       <c r="J399" s="4">
         <v>754</v>
       </c>
-      <c r="K399" s="16">
+      <c r="K399" s="8">
         <v>1826</v>
       </c>
-      <c r="L399" s="17"/>
+      <c r="L399" s="9"/>
     </row>
     <row r="400" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="3" t="s">
@@ -13332,10 +13377,10 @@
       <c r="J400" s="4">
         <v>735</v>
       </c>
-      <c r="K400" s="16">
+      <c r="K400" s="8">
         <v>1738</v>
       </c>
-      <c r="L400" s="17"/>
+      <c r="L400" s="9"/>
     </row>
     <row r="401" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="3" t="s">
@@ -13365,10 +13410,10 @@
       <c r="J401" s="4">
         <v>723</v>
       </c>
-      <c r="K401" s="16">
+      <c r="K401" s="8">
         <v>1594</v>
       </c>
-      <c r="L401" s="17"/>
+      <c r="L401" s="9"/>
     </row>
     <row r="402" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="3" t="s">
@@ -13398,10 +13443,10 @@
       <c r="J402" s="4">
         <v>716</v>
       </c>
-      <c r="K402" s="16">
+      <c r="K402" s="8">
         <v>1610</v>
       </c>
-      <c r="L402" s="17"/>
+      <c r="L402" s="9"/>
     </row>
     <row r="403" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="3" t="s">
@@ -13431,10 +13476,10 @@
       <c r="J403" s="4">
         <v>756</v>
       </c>
-      <c r="K403" s="16">
+      <c r="K403" s="8">
         <v>1716</v>
       </c>
-      <c r="L403" s="17"/>
+      <c r="L403" s="9"/>
     </row>
     <row r="404" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="3" t="s">
@@ -13464,10 +13509,10 @@
       <c r="J404" s="4">
         <v>771</v>
       </c>
-      <c r="K404" s="16">
+      <c r="K404" s="8">
         <v>1754</v>
       </c>
-      <c r="L404" s="17"/>
+      <c r="L404" s="9"/>
     </row>
     <row r="405" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="3" t="s">
@@ -13497,10 +13542,10 @@
       <c r="J405" s="4">
         <v>766</v>
       </c>
-      <c r="K405" s="16">
+      <c r="K405" s="8">
         <v>1755</v>
       </c>
-      <c r="L405" s="17"/>
+      <c r="L405" s="9"/>
     </row>
     <row r="406" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="3" t="s">
@@ -13530,10 +13575,10 @@
       <c r="J406" s="4">
         <v>809</v>
       </c>
-      <c r="K406" s="16">
+      <c r="K406" s="8">
         <v>1824</v>
       </c>
-      <c r="L406" s="17"/>
+      <c r="L406" s="9"/>
     </row>
     <row r="407" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="3" t="s">
@@ -13563,10 +13608,10 @@
       <c r="J407" s="4">
         <v>822</v>
       </c>
-      <c r="K407" s="16">
+      <c r="K407" s="8">
         <v>1825</v>
       </c>
-      <c r="L407" s="17"/>
+      <c r="L407" s="9"/>
     </row>
     <row r="408" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="3" t="s">
@@ -13596,10 +13641,10 @@
       <c r="J408" s="4">
         <v>835</v>
       </c>
-      <c r="K408" s="16">
+      <c r="K408" s="8">
         <v>1876</v>
       </c>
-      <c r="L408" s="17"/>
+      <c r="L408" s="9"/>
     </row>
     <row r="409" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="3" t="s">
@@ -13629,10 +13674,10 @@
       <c r="J409" s="4">
         <v>816</v>
       </c>
-      <c r="K409" s="16">
+      <c r="K409" s="8">
         <v>1834</v>
       </c>
-      <c r="L409" s="17"/>
+      <c r="L409" s="9"/>
     </row>
     <row r="410" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="6" t="s">
@@ -13662,10 +13707,10 @@
       <c r="J410" s="6">
         <v>774</v>
       </c>
-      <c r="K410" s="19">
+      <c r="K410" s="10">
         <v>1767</v>
       </c>
-      <c r="L410" s="20"/>
+      <c r="L410" s="11"/>
     </row>
     <row r="411" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B411" s="7"/>
@@ -13677,8 +13722,8 @@
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
       <c r="J411" s="7"/>
-      <c r="K411" s="21"/>
-      <c r="L411" s="22"/>
+      <c r="K411" s="12"/>
+      <c r="L411" s="13"/>
     </row>
     <row r="412" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B412" s="1">
@@ -13741,10 +13786,10 @@
       <c r="J413" s="4">
         <v>824</v>
       </c>
-      <c r="K413" s="16">
+      <c r="K413" s="8">
         <v>1761</v>
       </c>
-      <c r="L413" s="17"/>
+      <c r="L413" s="9"/>
     </row>
     <row r="414" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="3" t="s">
@@ -13774,10 +13819,10 @@
       <c r="J414" s="4">
         <v>684</v>
       </c>
-      <c r="K414" s="16">
+      <c r="K414" s="8">
         <v>1686</v>
       </c>
-      <c r="L414" s="17"/>
+      <c r="L414" s="9"/>
     </row>
     <row r="415" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="3" t="s">
@@ -13807,10 +13852,10 @@
       <c r="J415" s="4">
         <v>611</v>
       </c>
-      <c r="K415" s="16">
+      <c r="K415" s="8">
         <v>1622</v>
       </c>
-      <c r="L415" s="17"/>
+      <c r="L415" s="9"/>
     </row>
     <row r="416" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="3" t="s">
@@ -13840,10 +13885,10 @@
       <c r="J416" s="4">
         <v>612</v>
       </c>
-      <c r="K416" s="16">
+      <c r="K416" s="8">
         <v>1483</v>
       </c>
-      <c r="L416" s="17"/>
+      <c r="L416" s="9"/>
     </row>
     <row r="417" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="3" t="s">
@@ -13873,10 +13918,10 @@
       <c r="J417" s="4">
         <v>637</v>
       </c>
-      <c r="K417" s="16">
+      <c r="K417" s="8">
         <v>1525</v>
       </c>
-      <c r="L417" s="17"/>
+      <c r="L417" s="9"/>
     </row>
     <row r="418" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="3" t="s">
@@ -13906,10 +13951,10 @@
       <c r="J418" s="4">
         <v>695</v>
       </c>
-      <c r="K418" s="16">
+      <c r="K418" s="8">
         <v>1651</v>
       </c>
-      <c r="L418" s="17"/>
+      <c r="L418" s="9"/>
     </row>
     <row r="419" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="3" t="s">
@@ -13939,10 +13984,10 @@
       <c r="J419" s="4">
         <v>741</v>
       </c>
-      <c r="K419" s="16">
+      <c r="K419" s="8">
         <v>1668</v>
       </c>
-      <c r="L419" s="17"/>
+      <c r="L419" s="9"/>
     </row>
     <row r="420" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="3" t="s">
@@ -13972,10 +14017,10 @@
       <c r="J420" s="4">
         <v>797</v>
       </c>
-      <c r="K420" s="16">
+      <c r="K420" s="8">
         <v>1732</v>
       </c>
-      <c r="L420" s="17"/>
+      <c r="L420" s="9"/>
     </row>
     <row r="421" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="3" t="s">
@@ -14005,10 +14050,10 @@
       <c r="J421" s="4">
         <v>848</v>
       </c>
-      <c r="K421" s="16">
+      <c r="K421" s="8">
         <v>1795</v>
       </c>
-      <c r="L421" s="17"/>
+      <c r="L421" s="9"/>
     </row>
     <row r="422" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="3" t="s">
@@ -14038,10 +14083,10 @@
       <c r="J422" s="4">
         <v>860</v>
       </c>
-      <c r="K422" s="16">
+      <c r="K422" s="8">
         <v>1847</v>
       </c>
-      <c r="L422" s="17"/>
+      <c r="L422" s="9"/>
     </row>
     <row r="423" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="3" t="s">
@@ -14071,10 +14116,10 @@
       <c r="J423" s="4">
         <v>868</v>
       </c>
-      <c r="K423" s="16">
+      <c r="K423" s="8">
         <v>1881</v>
       </c>
-      <c r="L423" s="17"/>
+      <c r="L423" s="9"/>
     </row>
     <row r="424" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="3" t="s">
@@ -14104,10 +14149,10 @@
       <c r="J424" s="4">
         <v>857</v>
       </c>
-      <c r="K424" s="16">
+      <c r="K424" s="8">
         <v>1881</v>
       </c>
-      <c r="L424" s="17"/>
+      <c r="L424" s="9"/>
     </row>
     <row r="425" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="6" t="s">
@@ -14137,10 +14182,10 @@
       <c r="J425" s="6">
         <v>753</v>
       </c>
-      <c r="K425" s="19">
+      <c r="K425" s="10">
         <v>1711</v>
       </c>
-      <c r="L425" s="20"/>
+      <c r="L425" s="11"/>
     </row>
     <row r="426" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B426" s="7"/>
@@ -14152,8 +14197,8 @@
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
       <c r="J426" s="7"/>
-      <c r="K426" s="21"/>
-      <c r="L426" s="22"/>
+      <c r="K426" s="12"/>
+      <c r="L426" s="13"/>
     </row>
     <row r="427" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B427" s="1">
@@ -14216,10 +14261,10 @@
       <c r="J428" s="4">
         <v>710</v>
       </c>
-      <c r="K428" s="16">
+      <c r="K428" s="8">
         <v>1743</v>
       </c>
-      <c r="L428" s="17"/>
+      <c r="L428" s="9"/>
     </row>
     <row r="429" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="3" t="s">
@@ -14249,10 +14294,10 @@
       <c r="J429" s="4">
         <v>669</v>
       </c>
-      <c r="K429" s="16">
+      <c r="K429" s="8">
         <v>1694</v>
       </c>
-      <c r="L429" s="17"/>
+      <c r="L429" s="9"/>
     </row>
     <row r="430" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="3" t="s">
@@ -14282,10 +14327,10 @@
       <c r="J430" s="4">
         <v>648</v>
       </c>
-      <c r="K430" s="16">
+      <c r="K430" s="8">
         <v>1615</v>
       </c>
-      <c r="L430" s="17"/>
+      <c r="L430" s="9"/>
     </row>
     <row r="431" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="3" t="s">
@@ -14315,10 +14360,10 @@
       <c r="J431" s="4">
         <v>642</v>
       </c>
-      <c r="K431" s="16">
+      <c r="K431" s="8">
         <v>1549</v>
       </c>
-      <c r="L431" s="17"/>
+      <c r="L431" s="9"/>
     </row>
     <row r="432" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="3" t="s">
@@ -14348,10 +14393,10 @@
       <c r="J432" s="4">
         <v>638</v>
       </c>
-      <c r="K432" s="16">
+      <c r="K432" s="8">
         <v>1557</v>
       </c>
-      <c r="L432" s="17"/>
+      <c r="L432" s="9"/>
     </row>
     <row r="433" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="3" t="s">
@@ -14381,10 +14426,10 @@
       <c r="J433" s="4">
         <v>621</v>
       </c>
-      <c r="K433" s="16">
+      <c r="K433" s="8">
         <v>1552</v>
       </c>
-      <c r="L433" s="17"/>
+      <c r="L433" s="9"/>
     </row>
     <row r="434" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="3" t="s">
@@ -14414,10 +14459,10 @@
       <c r="J434" s="4">
         <v>676</v>
       </c>
-      <c r="K434" s="16">
+      <c r="K434" s="8">
         <v>1616</v>
       </c>
-      <c r="L434" s="17"/>
+      <c r="L434" s="9"/>
     </row>
     <row r="435" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="3" t="s">
@@ -14447,10 +14492,10 @@
       <c r="J435" s="4">
         <v>686</v>
       </c>
-      <c r="K435" s="16">
+      <c r="K435" s="8">
         <v>1625</v>
       </c>
-      <c r="L435" s="17"/>
+      <c r="L435" s="9"/>
     </row>
     <row r="436" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="3" t="s">
@@ -14480,10 +14525,10 @@
       <c r="J436" s="4">
         <v>717</v>
       </c>
-      <c r="K436" s="16">
+      <c r="K436" s="8">
         <v>1625</v>
       </c>
-      <c r="L436" s="17"/>
+      <c r="L436" s="9"/>
     </row>
     <row r="437" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="3" t="s">
@@ -14513,10 +14558,10 @@
       <c r="J437" s="4">
         <v>803</v>
       </c>
-      <c r="K437" s="16">
+      <c r="K437" s="8">
         <v>1721</v>
       </c>
-      <c r="L437" s="17"/>
+      <c r="L437" s="9"/>
     </row>
     <row r="438" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="3" t="s">
@@ -14546,10 +14591,10 @@
       <c r="J438" s="4">
         <v>882</v>
       </c>
-      <c r="K438" s="16">
+      <c r="K438" s="8">
         <v>1853</v>
       </c>
-      <c r="L438" s="17"/>
+      <c r="L438" s="9"/>
     </row>
     <row r="439" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="3" t="s">
@@ -14579,10 +14624,10 @@
       <c r="J439" s="4">
         <v>926</v>
       </c>
-      <c r="K439" s="16">
+      <c r="K439" s="8">
         <v>1898</v>
       </c>
-      <c r="L439" s="17"/>
+      <c r="L439" s="9"/>
     </row>
     <row r="440" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="6" t="s">
@@ -14612,10 +14657,10 @@
       <c r="J440" s="6">
         <v>718</v>
       </c>
-      <c r="K440" s="19">
+      <c r="K440" s="10">
         <v>1671</v>
       </c>
-      <c r="L440" s="20"/>
+      <c r="L440" s="11"/>
     </row>
     <row r="441" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B441" s="7"/>
@@ -14627,8 +14672,8 @@
       <c r="H441" s="7"/>
       <c r="I441" s="7"/>
       <c r="J441" s="7"/>
-      <c r="K441" s="21"/>
-      <c r="L441" s="22"/>
+      <c r="K441" s="12"/>
+      <c r="L441" s="13"/>
     </row>
     <row r="442" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B442" s="1">
@@ -14691,10 +14736,10 @@
       <c r="J443" s="4">
         <v>1068</v>
       </c>
-      <c r="K443" s="16">
+      <c r="K443" s="8">
         <v>2141</v>
       </c>
-      <c r="L443" s="17"/>
+      <c r="L443" s="9"/>
     </row>
     <row r="444" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="3" t="s">
@@ -14724,10 +14769,10 @@
       <c r="J444" s="4">
         <v>984</v>
       </c>
-      <c r="K444" s="16">
+      <c r="K444" s="8">
         <v>2084</v>
       </c>
-      <c r="L444" s="17"/>
+      <c r="L444" s="9"/>
     </row>
     <row r="445" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="3" t="s">
@@ -14757,10 +14802,10 @@
       <c r="J445" s="4">
         <v>925</v>
       </c>
-      <c r="K445" s="16">
+      <c r="K445" s="8">
         <v>2045</v>
       </c>
-      <c r="L445" s="17"/>
+      <c r="L445" s="9"/>
     </row>
     <row r="446" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="3" t="s">
@@ -14790,10 +14835,10 @@
       <c r="J446" s="4">
         <v>854</v>
       </c>
-      <c r="K446" s="16">
+      <c r="K446" s="8">
         <v>1839</v>
       </c>
-      <c r="L446" s="17"/>
+      <c r="L446" s="9"/>
     </row>
     <row r="447" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="3" t="s">
@@ -14823,10 +14868,10 @@
       <c r="J447" s="4">
         <v>819</v>
       </c>
-      <c r="K447" s="16">
+      <c r="K447" s="8">
         <v>1786</v>
       </c>
-      <c r="L447" s="17"/>
+      <c r="L447" s="9"/>
     </row>
     <row r="448" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="3" t="s">
@@ -14856,10 +14901,10 @@
       <c r="J448" s="4">
         <v>867</v>
       </c>
-      <c r="K448" s="16">
+      <c r="K448" s="8">
         <v>1868</v>
       </c>
-      <c r="L448" s="17"/>
+      <c r="L448" s="9"/>
     </row>
     <row r="449" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="3" t="s">
@@ -14889,10 +14934,10 @@
       <c r="J449" s="4">
         <v>844</v>
       </c>
-      <c r="K449" s="16">
+      <c r="K449" s="8">
         <v>1861</v>
       </c>
-      <c r="L449" s="17"/>
+      <c r="L449" s="9"/>
     </row>
     <row r="450" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="3" t="s">
@@ -14922,10 +14967,10 @@
       <c r="J450" s="4">
         <v>803</v>
       </c>
-      <c r="K450" s="16">
+      <c r="K450" s="8">
         <v>1822</v>
       </c>
-      <c r="L450" s="17"/>
+      <c r="L450" s="9"/>
     </row>
     <row r="451" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="3" t="s">
@@ -14955,10 +15000,10 @@
       <c r="J451" s="4">
         <v>775</v>
       </c>
-      <c r="K451" s="16">
+      <c r="K451" s="8">
         <v>1755</v>
       </c>
-      <c r="L451" s="17"/>
+      <c r="L451" s="9"/>
     </row>
     <row r="452" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="3" t="s">
@@ -14988,10 +15033,10 @@
       <c r="J452" s="4">
         <v>795</v>
       </c>
-      <c r="K452" s="16">
+      <c r="K452" s="8">
         <v>1821</v>
       </c>
-      <c r="L452" s="17"/>
+      <c r="L452" s="9"/>
     </row>
     <row r="453" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="3" t="s">
@@ -15021,10 +15066,10 @@
       <c r="J453" s="4">
         <v>808</v>
       </c>
-      <c r="K453" s="16">
+      <c r="K453" s="8">
         <v>1848</v>
       </c>
-      <c r="L453" s="17"/>
+      <c r="L453" s="9"/>
     </row>
     <row r="454" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="3" t="s">
@@ -15054,10 +15099,10 @@
       <c r="J454" s="4">
         <v>796</v>
       </c>
-      <c r="K454" s="16">
+      <c r="K454" s="8">
         <v>1831</v>
       </c>
-      <c r="L454" s="17"/>
+      <c r="L454" s="9"/>
     </row>
     <row r="455" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="6" t="s">
@@ -15087,10 +15132,10 @@
       <c r="J455" s="6">
         <v>862</v>
       </c>
-      <c r="K455" s="19">
+      <c r="K455" s="10">
         <v>1892</v>
       </c>
-      <c r="L455" s="20"/>
+      <c r="L455" s="11"/>
     </row>
     <row r="456" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B456" s="7"/>
@@ -15102,8 +15147,8 @@
       <c r="H456" s="7"/>
       <c r="I456" s="7"/>
       <c r="J456" s="7"/>
-      <c r="K456" s="21"/>
-      <c r="L456" s="22"/>
+      <c r="K456" s="12"/>
+      <c r="L456" s="13"/>
     </row>
     <row r="457" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B457" s="1">
@@ -15166,10 +15211,10 @@
       <c r="J458" s="4">
         <v>998</v>
       </c>
-      <c r="K458" s="16">
+      <c r="K458" s="8">
         <v>2073</v>
       </c>
-      <c r="L458" s="17"/>
+      <c r="L458" s="9"/>
     </row>
     <row r="459" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="3" t="s">
@@ -15199,10 +15244,10 @@
       <c r="J459" s="4">
         <v>911</v>
       </c>
-      <c r="K459" s="16">
+      <c r="K459" s="8">
         <v>2049</v>
       </c>
-      <c r="L459" s="17"/>
+      <c r="L459" s="9"/>
     </row>
     <row r="460" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="3" t="s">
@@ -15232,10 +15277,10 @@
       <c r="J460" s="4">
         <v>905</v>
       </c>
-      <c r="K460" s="16">
+      <c r="K460" s="8">
         <v>2054</v>
       </c>
-      <c r="L460" s="17"/>
+      <c r="L460" s="9"/>
     </row>
     <row r="461" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="3" t="s">
@@ -15265,10 +15310,10 @@
       <c r="J461" s="4">
         <v>935</v>
       </c>
-      <c r="K461" s="16">
+      <c r="K461" s="8">
         <v>1947</v>
       </c>
-      <c r="L461" s="17"/>
+      <c r="L461" s="9"/>
     </row>
     <row r="462" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="3" t="s">
@@ -15298,10 +15343,10 @@
       <c r="J462" s="4">
         <v>961</v>
       </c>
-      <c r="K462" s="16">
+      <c r="K462" s="8">
         <v>1964</v>
       </c>
-      <c r="L462" s="17"/>
+      <c r="L462" s="9"/>
     </row>
     <row r="463" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="3" t="s">
@@ -15331,10 +15376,10 @@
       <c r="J463" s="4">
         <v>999</v>
       </c>
-      <c r="K463" s="16">
+      <c r="K463" s="8">
         <v>2037</v>
       </c>
-      <c r="L463" s="17"/>
+      <c r="L463" s="9"/>
     </row>
     <row r="464" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="3" t="s">
@@ -15364,10 +15409,10 @@
       <c r="J464" s="4">
         <v>1010</v>
       </c>
-      <c r="K464" s="16">
+      <c r="K464" s="8">
         <v>2029</v>
       </c>
-      <c r="L464" s="17"/>
+      <c r="L464" s="9"/>
     </row>
     <row r="465" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="3" t="s">
@@ -15397,10 +15442,10 @@
       <c r="J465" s="4">
         <v>987</v>
       </c>
-      <c r="K465" s="16">
+      <c r="K465" s="8">
         <v>1987</v>
       </c>
-      <c r="L465" s="17"/>
+      <c r="L465" s="9"/>
     </row>
     <row r="466" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="3" t="s">
@@ -15430,10 +15475,10 @@
       <c r="J466" s="4">
         <v>1042</v>
       </c>
-      <c r="K466" s="16">
+      <c r="K466" s="8">
         <v>2004</v>
       </c>
-      <c r="L466" s="17"/>
+      <c r="L466" s="9"/>
     </row>
     <row r="467" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="3" t="s">
@@ -15463,10 +15508,10 @@
       <c r="J467" s="4">
         <v>1073</v>
       </c>
-      <c r="K467" s="16">
+      <c r="K467" s="8">
         <v>2069</v>
       </c>
-      <c r="L467" s="17"/>
+      <c r="L467" s="9"/>
     </row>
     <row r="468" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="3" t="s">
@@ -15496,10 +15541,10 @@
       <c r="J468" s="4">
         <v>1137</v>
       </c>
-      <c r="K468" s="16">
+      <c r="K468" s="8">
         <v>2202</v>
       </c>
-      <c r="L468" s="17"/>
+      <c r="L468" s="9"/>
     </row>
     <row r="469" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="3" t="s">
@@ -15529,10 +15574,10 @@
       <c r="J469" s="4">
         <v>1136</v>
       </c>
-      <c r="K469" s="16">
+      <c r="K469" s="8">
         <v>2214</v>
       </c>
-      <c r="L469" s="17"/>
+      <c r="L469" s="9"/>
     </row>
     <row r="470" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="6" t="s">
@@ -15562,10 +15607,10 @@
       <c r="J470" s="6">
         <v>1008</v>
       </c>
-      <c r="K470" s="19">
+      <c r="K470" s="10">
         <v>2052</v>
       </c>
-      <c r="L470" s="20"/>
+      <c r="L470" s="11"/>
     </row>
     <row r="471" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B471" s="7"/>
@@ -15577,8 +15622,8 @@
       <c r="H471" s="7"/>
       <c r="I471" s="7"/>
       <c r="J471" s="7"/>
-      <c r="K471" s="21"/>
-      <c r="L471" s="22"/>
+      <c r="K471" s="12"/>
+      <c r="L471" s="13"/>
     </row>
     <row r="472" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B472" s="1">
@@ -15641,10 +15686,10 @@
       <c r="J473" s="4">
         <v>841</v>
       </c>
-      <c r="K473" s="16">
+      <c r="K473" s="8">
         <v>1955</v>
       </c>
-      <c r="L473" s="17"/>
+      <c r="L473" s="9"/>
     </row>
     <row r="474" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="3" t="s">
@@ -15674,10 +15719,10 @@
       <c r="J474" s="4">
         <v>762</v>
       </c>
-      <c r="K474" s="16">
+      <c r="K474" s="8">
         <v>1957</v>
       </c>
-      <c r="L474" s="17"/>
+      <c r="L474" s="9"/>
     </row>
     <row r="475" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="3" t="s">
@@ -15707,10 +15752,10 @@
       <c r="J475" s="4">
         <v>753</v>
       </c>
-      <c r="K475" s="16">
+      <c r="K475" s="8">
         <v>1919</v>
       </c>
-      <c r="L475" s="17"/>
+      <c r="L475" s="9"/>
     </row>
     <row r="476" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="3" t="s">
@@ -15740,10 +15785,10 @@
       <c r="J476" s="4">
         <v>771</v>
       </c>
-      <c r="K476" s="16">
+      <c r="K476" s="8">
         <v>1802</v>
       </c>
-      <c r="L476" s="17"/>
+      <c r="L476" s="9"/>
     </row>
     <row r="477" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="3" t="s">
@@ -15773,10 +15818,10 @@
       <c r="J477" s="4">
         <v>754</v>
       </c>
-      <c r="K477" s="16">
+      <c r="K477" s="8">
         <v>1735</v>
       </c>
-      <c r="L477" s="17"/>
+      <c r="L477" s="9"/>
     </row>
     <row r="478" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="3" t="s">
@@ -15806,10 +15851,10 @@
       <c r="J478" s="4">
         <v>795</v>
       </c>
-      <c r="K478" s="16">
+      <c r="K478" s="8">
         <v>1787</v>
       </c>
-      <c r="L478" s="17"/>
+      <c r="L478" s="9"/>
     </row>
     <row r="479" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="3" t="s">
@@ -15839,10 +15884,10 @@
       <c r="J479" s="4">
         <v>832</v>
       </c>
-      <c r="K479" s="16">
+      <c r="K479" s="8">
         <v>1832</v>
       </c>
-      <c r="L479" s="17"/>
+      <c r="L479" s="9"/>
     </row>
     <row r="480" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="3" t="s">
@@ -15872,10 +15917,10 @@
       <c r="J480" s="4">
         <v>886</v>
       </c>
-      <c r="K480" s="16">
+      <c r="K480" s="8">
         <v>1866</v>
       </c>
-      <c r="L480" s="17"/>
+      <c r="L480" s="9"/>
     </row>
     <row r="481" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="3" t="s">
@@ -15905,10 +15950,10 @@
       <c r="J481" s="4">
         <v>955</v>
       </c>
-      <c r="K481" s="16">
+      <c r="K481" s="8">
         <v>1951</v>
       </c>
-      <c r="L481" s="17"/>
+      <c r="L481" s="9"/>
     </row>
     <row r="482" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="3" t="s">
@@ -15938,10 +15983,10 @@
       <c r="J482" s="4">
         <v>984</v>
       </c>
-      <c r="K482" s="16">
+      <c r="K482" s="8">
         <v>2020</v>
       </c>
-      <c r="L482" s="17"/>
+      <c r="L482" s="9"/>
     </row>
     <row r="483" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="3" t="s">
@@ -15971,10 +16016,10 @@
       <c r="J483" s="4">
         <v>1041</v>
       </c>
-      <c r="K483" s="16">
+      <c r="K483" s="8">
         <v>2079</v>
       </c>
-      <c r="L483" s="17"/>
+      <c r="L483" s="9"/>
     </row>
     <row r="484" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="3" t="s">
@@ -16004,10 +16049,10 @@
       <c r="J484" s="4">
         <v>1065</v>
       </c>
-      <c r="K484" s="16">
+      <c r="K484" s="8">
         <v>2127</v>
       </c>
-      <c r="L484" s="17"/>
+      <c r="L484" s="9"/>
     </row>
     <row r="485" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="6" t="s">
@@ -16037,10 +16082,10 @@
       <c r="J485" s="6">
         <v>870</v>
       </c>
-      <c r="K485" s="19">
+      <c r="K485" s="10">
         <v>1919</v>
       </c>
-      <c r="L485" s="20"/>
+      <c r="L485" s="11"/>
     </row>
     <row r="486" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B486" s="7"/>
@@ -16052,8 +16097,8 @@
       <c r="H486" s="7"/>
       <c r="I486" s="7"/>
       <c r="J486" s="7"/>
-      <c r="K486" s="21"/>
-      <c r="L486" s="22"/>
+      <c r="K486" s="12"/>
+      <c r="L486" s="13"/>
     </row>
     <row r="487" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B487" s="1">
@@ -16116,10 +16161,10 @@
       <c r="J488" s="4">
         <v>1076</v>
       </c>
-      <c r="K488" s="16">
+      <c r="K488" s="8">
         <v>2283</v>
       </c>
-      <c r="L488" s="17"/>
+      <c r="L488" s="9"/>
     </row>
     <row r="489" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="3" t="s">
@@ -16149,10 +16194,10 @@
       <c r="J489" s="4">
         <v>976</v>
       </c>
-      <c r="K489" s="16">
+      <c r="K489" s="8">
         <v>2313</v>
       </c>
-      <c r="L489" s="17"/>
+      <c r="L489" s="9"/>
     </row>
     <row r="490" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="3" t="s">
@@ -16182,10 +16227,10 @@
       <c r="J490" s="4">
         <v>951</v>
       </c>
-      <c r="K490" s="16">
+      <c r="K490" s="8">
         <v>2301</v>
       </c>
-      <c r="L490" s="17"/>
+      <c r="L490" s="9"/>
     </row>
     <row r="491" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="3" t="s">
@@ -16215,10 +16260,10 @@
       <c r="J491" s="4">
         <v>917</v>
       </c>
-      <c r="K491" s="16">
+      <c r="K491" s="8">
         <v>2052</v>
       </c>
-      <c r="L491" s="17"/>
+      <c r="L491" s="9"/>
     </row>
     <row r="492" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="3" t="s">
@@ -16248,10 +16293,10 @@
       <c r="J492" s="4">
         <v>891</v>
       </c>
-      <c r="K492" s="16">
+      <c r="K492" s="8">
         <v>2063</v>
       </c>
-      <c r="L492" s="17"/>
+      <c r="L492" s="9"/>
     </row>
     <row r="493" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="3" t="s">
@@ -16281,10 +16326,10 @@
       <c r="J493" s="4">
         <v>897</v>
       </c>
-      <c r="K493" s="16">
+      <c r="K493" s="8">
         <v>2114</v>
       </c>
-      <c r="L493" s="17"/>
+      <c r="L493" s="9"/>
     </row>
     <row r="494" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="3" t="s">
@@ -16314,10 +16359,10 @@
       <c r="J494" s="4">
         <v>912</v>
       </c>
-      <c r="K494" s="16">
+      <c r="K494" s="8">
         <v>2121</v>
       </c>
-      <c r="L494" s="17"/>
+      <c r="L494" s="9"/>
     </row>
     <row r="495" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="3" t="s">
@@ -16347,10 +16392,10 @@
       <c r="J495" s="4">
         <v>930</v>
       </c>
-      <c r="K495" s="16">
+      <c r="K495" s="8">
         <v>2144</v>
       </c>
-      <c r="L495" s="17"/>
+      <c r="L495" s="9"/>
     </row>
     <row r="496" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="3" t="s">
@@ -16380,10 +16425,10 @@
       <c r="J496" s="4">
         <v>927</v>
       </c>
-      <c r="K496" s="16">
+      <c r="K496" s="8">
         <v>2218</v>
       </c>
-      <c r="L496" s="17"/>
+      <c r="L496" s="9"/>
     </row>
     <row r="497" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="3" t="s">
@@ -16413,10 +16458,10 @@
       <c r="J497" s="4">
         <v>923</v>
       </c>
-      <c r="K497" s="16">
+      <c r="K497" s="8">
         <v>2145</v>
       </c>
-      <c r="L497" s="17"/>
+      <c r="L497" s="9"/>
     </row>
     <row r="498" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="3" t="s">
@@ -16446,10 +16491,10 @@
       <c r="J498" s="4">
         <v>918</v>
       </c>
-      <c r="K498" s="16">
+      <c r="K498" s="8">
         <v>2185</v>
       </c>
-      <c r="L498" s="17"/>
+      <c r="L498" s="9"/>
     </row>
     <row r="499" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="3" t="s">
@@ -16479,10 +16524,10 @@
       <c r="J499" s="4">
         <v>924</v>
       </c>
-      <c r="K499" s="16">
+      <c r="K499" s="8">
         <v>2031</v>
       </c>
-      <c r="L499" s="17"/>
+      <c r="L499" s="9"/>
     </row>
     <row r="500" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="6" t="s">
@@ -16512,10 +16557,10 @@
       <c r="J500" s="6">
         <v>937</v>
       </c>
-      <c r="K500" s="19">
+      <c r="K500" s="10">
         <v>2164</v>
       </c>
-      <c r="L500" s="20"/>
+      <c r="L500" s="11"/>
     </row>
     <row r="501" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B501" s="7"/>
@@ -16527,8 +16572,8 @@
       <c r="H501" s="7"/>
       <c r="I501" s="7"/>
       <c r="J501" s="7"/>
-      <c r="K501" s="21"/>
-      <c r="L501" s="22"/>
+      <c r="K501" s="12"/>
+      <c r="L501" s="13"/>
     </row>
     <row r="502" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B502" s="1">
@@ -16591,10 +16636,10 @@
       <c r="J503" s="4">
         <v>900</v>
       </c>
-      <c r="K503" s="16">
+      <c r="K503" s="8">
         <v>2125</v>
       </c>
-      <c r="L503" s="17"/>
+      <c r="L503" s="9"/>
     </row>
     <row r="504" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B504" s="3" t="s">
@@ -16624,10 +16669,10 @@
       <c r="J504" s="4">
         <v>818</v>
       </c>
-      <c r="K504" s="16">
+      <c r="K504" s="8">
         <v>1909</v>
       </c>
-      <c r="L504" s="17"/>
+      <c r="L504" s="9"/>
     </row>
     <row r="505" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="3" t="s">
@@ -16657,10 +16702,10 @@
       <c r="J505" s="4">
         <v>772</v>
       </c>
-      <c r="K505" s="16">
+      <c r="K505" s="8">
         <v>1889</v>
       </c>
-      <c r="L505" s="17"/>
+      <c r="L505" s="9"/>
     </row>
     <row r="506" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="3" t="s">
@@ -16690,10 +16735,10 @@
       <c r="J506" s="4">
         <v>754</v>
       </c>
-      <c r="K506" s="16">
+      <c r="K506" s="8">
         <v>1782</v>
       </c>
-      <c r="L506" s="17"/>
+      <c r="L506" s="9"/>
     </row>
     <row r="507" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="3" t="s">
@@ -16723,10 +16768,10 @@
       <c r="J507" s="4">
         <v>763</v>
       </c>
-      <c r="K507" s="16">
+      <c r="K507" s="8">
         <v>1785</v>
       </c>
-      <c r="L507" s="17"/>
+      <c r="L507" s="9"/>
     </row>
     <row r="508" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="3" t="s">
@@ -16756,10 +16801,10 @@
       <c r="J508" s="4">
         <v>788</v>
       </c>
-      <c r="K508" s="16">
+      <c r="K508" s="8">
         <v>1879</v>
       </c>
-      <c r="L508" s="17"/>
+      <c r="L508" s="9"/>
     </row>
     <row r="509" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="3" t="s">
@@ -16789,10 +16834,10 @@
       <c r="J509" s="4">
         <v>901</v>
       </c>
-      <c r="K509" s="16">
+      <c r="K509" s="8">
         <v>2027</v>
       </c>
-      <c r="L509" s="17"/>
+      <c r="L509" s="9"/>
     </row>
     <row r="510" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="3" t="s">
@@ -16822,10 +16867,10 @@
       <c r="J510" s="4">
         <v>1003</v>
       </c>
-      <c r="K510" s="16">
+      <c r="K510" s="8">
         <v>2166</v>
       </c>
-      <c r="L510" s="17"/>
+      <c r="L510" s="9"/>
     </row>
     <row r="511" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="3" t="s">
@@ -16855,10 +16900,10 @@
       <c r="J511" s="4">
         <v>1101</v>
       </c>
-      <c r="K511" s="16">
+      <c r="K511" s="8">
         <v>2336</v>
       </c>
-      <c r="L511" s="17"/>
+      <c r="L511" s="9"/>
     </row>
     <row r="512" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="3" t="s">
@@ -16888,10 +16933,10 @@
       <c r="J512" s="4">
         <v>1124</v>
       </c>
-      <c r="K512" s="16">
+      <c r="K512" s="8">
         <v>2396</v>
       </c>
-      <c r="L512" s="17"/>
+      <c r="L512" s="9"/>
     </row>
     <row r="513" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="3" t="s">
@@ -16921,10 +16966,10 @@
       <c r="J513" s="4">
         <v>1152</v>
       </c>
-      <c r="K513" s="16">
+      <c r="K513" s="8">
         <v>2461</v>
       </c>
-      <c r="L513" s="17"/>
+      <c r="L513" s="9"/>
     </row>
     <row r="514" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="3" t="s">
@@ -16954,10 +16999,10 @@
       <c r="J514" s="4">
         <v>1162</v>
       </c>
-      <c r="K514" s="16">
+      <c r="K514" s="8">
         <v>2411</v>
       </c>
-      <c r="L514" s="17"/>
+      <c r="L514" s="9"/>
     </row>
     <row r="515" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="6" t="s">
@@ -16987,10 +17032,10 @@
       <c r="J515" s="6">
         <v>937</v>
       </c>
-      <c r="K515" s="19">
+      <c r="K515" s="10">
         <v>2097</v>
       </c>
-      <c r="L515" s="20"/>
+      <c r="L515" s="11"/>
     </row>
     <row r="516" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B516" s="7"/>
@@ -17002,8 +17047,8 @@
       <c r="H516" s="7"/>
       <c r="I516" s="7"/>
       <c r="J516" s="7"/>
-      <c r="K516" s="21"/>
-      <c r="L516" s="22"/>
+      <c r="K516" s="12"/>
+      <c r="L516" s="13"/>
     </row>
     <row r="517" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B517" s="1">
@@ -17066,10 +17111,10 @@
       <c r="J518" s="4">
         <v>1810</v>
       </c>
-      <c r="K518" s="16">
+      <c r="K518" s="8">
         <v>3495</v>
       </c>
-      <c r="L518" s="17"/>
+      <c r="L518" s="9"/>
     </row>
     <row r="519" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="3" t="s">
@@ -17099,10 +17144,10 @@
       <c r="J519" s="4">
         <v>1444</v>
       </c>
-      <c r="K519" s="16">
+      <c r="K519" s="8">
         <v>3123</v>
       </c>
-      <c r="L519" s="17"/>
+      <c r="L519" s="9"/>
     </row>
     <row r="520" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B520" s="3" t="s">
@@ -17132,10 +17177,10 @@
       <c r="J520" s="4">
         <v>1139</v>
       </c>
-      <c r="K520" s="16">
+      <c r="K520" s="8">
         <v>2681</v>
       </c>
-      <c r="L520" s="17"/>
+      <c r="L520" s="9"/>
     </row>
     <row r="521" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="3" t="s">
@@ -17165,10 +17210,10 @@
       <c r="J521" s="4">
         <v>906</v>
       </c>
-      <c r="K521" s="16">
+      <c r="K521" s="8">
         <v>2144</v>
       </c>
-      <c r="L521" s="17"/>
+      <c r="L521" s="9"/>
     </row>
     <row r="522" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="3" t="s">
@@ -17198,10 +17243,10 @@
       <c r="J522" s="4">
         <v>781</v>
       </c>
-      <c r="K522" s="16">
+      <c r="K522" s="8">
         <v>1938</v>
       </c>
-      <c r="L522" s="17"/>
+      <c r="L522" s="9"/>
     </row>
     <row r="523" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="3" t="s">
@@ -17231,10 +17276,10 @@
       <c r="J523" s="4">
         <v>705</v>
       </c>
-      <c r="K523" s="16">
+      <c r="K523" s="8">
         <v>1851</v>
       </c>
-      <c r="L523" s="17"/>
+      <c r="L523" s="9"/>
     </row>
     <row r="524" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B524" s="3" t="s">
@@ -17264,10 +17309,10 @@
       <c r="J524" s="4">
         <v>686</v>
       </c>
-      <c r="K524" s="16">
+      <c r="K524" s="8">
         <v>1772</v>
       </c>
-      <c r="L524" s="17"/>
+      <c r="L524" s="9"/>
     </row>
     <row r="525" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="3" t="s">
@@ -17297,10 +17342,10 @@
       <c r="J525" s="4">
         <v>730</v>
       </c>
-      <c r="K525" s="16">
+      <c r="K525" s="8">
         <v>1823</v>
       </c>
-      <c r="L525" s="17"/>
+      <c r="L525" s="9"/>
     </row>
     <row r="526" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="3" t="s">
@@ -17330,10 +17375,10 @@
       <c r="J526" s="4">
         <v>755</v>
       </c>
-      <c r="K526" s="16">
+      <c r="K526" s="8">
         <v>1826</v>
       </c>
-      <c r="L526" s="17"/>
+      <c r="L526" s="9"/>
     </row>
     <row r="527" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="3" t="s">
@@ -17363,10 +17408,10 @@
       <c r="J527" s="4">
         <v>819</v>
       </c>
-      <c r="K527" s="16">
+      <c r="K527" s="8">
         <v>1903</v>
       </c>
-      <c r="L527" s="17"/>
+      <c r="L527" s="9"/>
     </row>
     <row r="528" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="3" t="s">
@@ -17396,10 +17441,10 @@
       <c r="J528" s="4">
         <v>899</v>
       </c>
-      <c r="K528" s="16">
+      <c r="K528" s="8">
         <v>1957</v>
       </c>
-      <c r="L528" s="17"/>
+      <c r="L528" s="9"/>
     </row>
     <row r="529" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="3" t="s">
@@ -17429,10 +17474,10 @@
       <c r="J529" s="4">
         <v>963</v>
       </c>
-      <c r="K529" s="16">
+      <c r="K529" s="8">
         <v>2132</v>
       </c>
-      <c r="L529" s="17"/>
+      <c r="L529" s="9"/>
     </row>
     <row r="530" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="6" t="s">
@@ -17462,10 +17507,10 @@
       <c r="J530" s="6">
         <v>970</v>
       </c>
-      <c r="K530" s="19">
+      <c r="K530" s="10">
         <v>2220</v>
       </c>
-      <c r="L530" s="20"/>
+      <c r="L530" s="11"/>
     </row>
     <row r="531" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B531" s="7"/>
@@ -17477,8 +17522,8 @@
       <c r="H531" s="7"/>
       <c r="I531" s="7"/>
       <c r="J531" s="7"/>
-      <c r="K531" s="21"/>
-      <c r="L531" s="22"/>
+      <c r="K531" s="12"/>
+      <c r="L531" s="13"/>
     </row>
     <row r="532" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B532" s="1">
@@ -17541,10 +17586,10 @@
       <c r="J533" s="4">
         <v>2452</v>
       </c>
-      <c r="K533" s="16">
+      <c r="K533" s="8">
         <v>4050</v>
       </c>
-      <c r="L533" s="17"/>
+      <c r="L533" s="9"/>
     </row>
     <row r="534" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="3" t="s">
@@ -17574,10 +17619,10 @@
       <c r="J534" s="4">
         <v>2188</v>
       </c>
-      <c r="K534" s="16">
+      <c r="K534" s="8">
         <v>3836</v>
       </c>
-      <c r="L534" s="17"/>
+      <c r="L534" s="9"/>
     </row>
     <row r="535" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B535" s="3" t="s">
@@ -17607,10 +17652,10 @@
       <c r="J535" s="4">
         <v>1955</v>
       </c>
-      <c r="K535" s="16">
+      <c r="K535" s="8">
         <v>3610</v>
       </c>
-      <c r="L535" s="17"/>
+      <c r="L535" s="9"/>
     </row>
     <row r="536" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B536" s="3" t="s">
@@ -17640,10 +17685,10 @@
       <c r="J536" s="4">
         <v>1877</v>
       </c>
-      <c r="K536" s="16">
+      <c r="K536" s="8">
         <v>3281</v>
       </c>
-      <c r="L536" s="17"/>
+      <c r="L536" s="9"/>
     </row>
     <row r="537" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="3" t="s">
@@ -17673,10 +17718,10 @@
       <c r="J537" s="4">
         <v>1865</v>
       </c>
-      <c r="K537" s="16">
+      <c r="K537" s="8">
         <v>3310</v>
       </c>
-      <c r="L537" s="17"/>
+      <c r="L537" s="9"/>
     </row>
     <row r="538" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B538" s="3" t="s">
@@ -17706,10 +17751,10 @@
       <c r="J538" s="4">
         <v>1858</v>
       </c>
-      <c r="K538" s="16">
+      <c r="K538" s="8">
         <v>3455</v>
       </c>
-      <c r="L538" s="17"/>
+      <c r="L538" s="9"/>
     </row>
     <row r="539" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="3" t="s">
@@ -17739,10 +17784,10 @@
       <c r="J539" s="4">
         <v>1909</v>
       </c>
-      <c r="K539" s="16">
+      <c r="K539" s="8">
         <v>3516</v>
       </c>
-      <c r="L539" s="17"/>
+      <c r="L539" s="9"/>
     </row>
     <row r="540" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B540" s="3" t="s">
@@ -17772,10 +17817,10 @@
       <c r="J540" s="4">
         <v>1931</v>
       </c>
-      <c r="K540" s="16">
+      <c r="K540" s="8">
         <v>3546</v>
       </c>
-      <c r="L540" s="17"/>
+      <c r="L540" s="9"/>
     </row>
     <row r="541" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B541" s="3" t="s">
@@ -17805,10 +17850,10 @@
       <c r="J541" s="4">
         <v>1930</v>
       </c>
-      <c r="K541" s="16">
+      <c r="K541" s="8">
         <v>3507</v>
       </c>
-      <c r="L541" s="17"/>
+      <c r="L541" s="9"/>
     </row>
     <row r="542" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B542" s="3" t="s">
@@ -17838,10 +17883,10 @@
       <c r="J542" s="4">
         <v>1879</v>
       </c>
-      <c r="K542" s="16">
+      <c r="K542" s="8">
         <v>3464</v>
       </c>
-      <c r="L542" s="17"/>
+      <c r="L542" s="9"/>
     </row>
     <row r="543" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B543" s="3" t="s">
@@ -17871,10 +17916,10 @@
       <c r="J543" s="4">
         <v>1912</v>
       </c>
-      <c r="K543" s="16">
+      <c r="K543" s="8">
         <v>3550</v>
       </c>
-      <c r="L543" s="17"/>
+      <c r="L543" s="9"/>
     </row>
     <row r="544" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B544" s="3" t="s">
@@ -17904,10 +17949,10 @@
       <c r="J544" s="4">
         <v>1950</v>
       </c>
-      <c r="K544" s="16">
+      <c r="K544" s="8">
         <v>3618</v>
       </c>
-      <c r="L544" s="17"/>
+      <c r="L544" s="9"/>
     </row>
     <row r="545" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B545" s="6" t="s">
@@ -17937,10 +17982,10 @@
       <c r="J545" s="6">
         <v>1976</v>
       </c>
-      <c r="K545" s="19">
+      <c r="K545" s="10">
         <v>3562</v>
       </c>
-      <c r="L545" s="20"/>
+      <c r="L545" s="11"/>
     </row>
     <row r="546" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B546" s="7"/>
@@ -17952,8 +17997,8 @@
       <c r="H546" s="7"/>
       <c r="I546" s="7"/>
       <c r="J546" s="7"/>
-      <c r="K546" s="21"/>
-      <c r="L546" s="22"/>
+      <c r="K546" s="12"/>
+      <c r="L546" s="13"/>
     </row>
     <row r="547" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B547" s="1">
@@ -18016,10 +18061,10 @@
       <c r="J548" s="4">
         <v>2666</v>
       </c>
-      <c r="K548" s="16">
+      <c r="K548" s="8">
         <v>4133</v>
       </c>
-      <c r="L548" s="17"/>
+      <c r="L548" s="9"/>
     </row>
     <row r="549" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="3" t="s">
@@ -18049,10 +18094,10 @@
       <c r="J549" s="4">
         <v>2423</v>
       </c>
-      <c r="K549" s="16">
+      <c r="K549" s="8">
         <v>3971</v>
       </c>
-      <c r="L549" s="17"/>
+      <c r="L549" s="9"/>
     </row>
     <row r="550" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="3" t="s">
@@ -18082,10 +18127,10 @@
       <c r="J550" s="4">
         <v>2245</v>
       </c>
-      <c r="K550" s="16">
+      <c r="K550" s="8">
         <v>3789</v>
       </c>
-      <c r="L550" s="17"/>
+      <c r="L550" s="9"/>
     </row>
     <row r="551" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="3" t="s">
@@ -18115,10 +18160,10 @@
       <c r="J551" s="4">
         <v>2120</v>
       </c>
-      <c r="K551" s="16">
+      <c r="K551" s="8">
         <v>3454</v>
       </c>
-      <c r="L551" s="17"/>
+      <c r="L551" s="9"/>
     </row>
     <row r="552" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="3" t="s">
@@ -18148,10 +18193,10 @@
       <c r="J552" s="4">
         <v>2277</v>
       </c>
-      <c r="K552" s="16">
+      <c r="K552" s="8">
         <v>3655</v>
       </c>
-      <c r="L552" s="17"/>
+      <c r="L552" s="9"/>
     </row>
     <row r="553" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="3" t="s">
@@ -18181,10 +18226,10 @@
       <c r="J553" s="4">
         <v>2363</v>
       </c>
-      <c r="K553" s="16">
+      <c r="K553" s="8">
         <v>3800</v>
       </c>
-      <c r="L553" s="17"/>
+      <c r="L553" s="9"/>
     </row>
     <row r="554" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="3" t="s">
@@ -18214,10 +18259,10 @@
       <c r="J554" s="4">
         <v>2388</v>
       </c>
-      <c r="K554" s="16">
+      <c r="K554" s="8">
         <v>3858</v>
       </c>
-      <c r="L554" s="17"/>
+      <c r="L554" s="9"/>
     </row>
     <row r="555" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="3" t="s">
@@ -18247,10 +18292,10 @@
       <c r="J555" s="4">
         <v>2417</v>
       </c>
-      <c r="K555" s="16">
+      <c r="K555" s="8">
         <v>3928</v>
       </c>
-      <c r="L555" s="17"/>
+      <c r="L555" s="9"/>
     </row>
     <row r="556" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B556" s="3" t="s">
@@ -18280,10 +18325,10 @@
       <c r="J556" s="4">
         <v>2420</v>
       </c>
-      <c r="K556" s="16">
+      <c r="K556" s="8">
         <v>3911</v>
       </c>
-      <c r="L556" s="17"/>
+      <c r="L556" s="9"/>
     </row>
     <row r="557" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B557" s="3" t="s">
@@ -18313,10 +18358,10 @@
       <c r="J557" s="4">
         <v>2492</v>
       </c>
-      <c r="K557" s="16">
+      <c r="K557" s="8">
         <v>3995</v>
       </c>
-      <c r="L557" s="17"/>
+      <c r="L557" s="9"/>
     </row>
     <row r="558" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B558" s="3" t="s">
@@ -18346,10 +18391,10 @@
       <c r="J558" s="4">
         <v>2629</v>
       </c>
-      <c r="K558" s="16">
+      <c r="K558" s="8">
         <v>4174</v>
       </c>
-      <c r="L558" s="17"/>
+      <c r="L558" s="9"/>
     </row>
     <row r="559" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B559" s="3" t="s">
@@ -18379,10 +18424,10 @@
       <c r="J559" s="4">
         <v>2713</v>
       </c>
-      <c r="K559" s="16">
+      <c r="K559" s="8">
         <v>4331</v>
       </c>
-      <c r="L559" s="17"/>
+      <c r="L559" s="9"/>
     </row>
     <row r="560" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B560" s="6" t="s">
@@ -18412,10 +18457,10 @@
       <c r="J560" s="6">
         <v>2429</v>
       </c>
-      <c r="K560" s="19">
+      <c r="K560" s="10">
         <v>3917</v>
       </c>
-      <c r="L560" s="20"/>
+      <c r="L560" s="11"/>
     </row>
     <row r="561" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B561" s="7"/>
@@ -18427,8 +18472,8 @@
       <c r="H561" s="7"/>
       <c r="I561" s="7"/>
       <c r="J561" s="7"/>
-      <c r="K561" s="21"/>
-      <c r="L561" s="22"/>
+      <c r="K561" s="12"/>
+      <c r="L561" s="13"/>
     </row>
     <row r="562" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B562" s="1">
@@ -18491,10 +18536,10 @@
       <c r="J563" s="4">
         <v>2622</v>
       </c>
-      <c r="K563" s="16">
+      <c r="K563" s="8">
         <v>4279</v>
       </c>
-      <c r="L563" s="17"/>
+      <c r="L563" s="9"/>
     </row>
     <row r="564" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B564" s="3" t="s">
@@ -18524,10 +18569,10 @@
       <c r="J564" s="4">
         <v>2192</v>
       </c>
-      <c r="K564" s="16">
+      <c r="K564" s="8">
         <v>3806</v>
       </c>
-      <c r="L564" s="17"/>
+      <c r="L564" s="9"/>
     </row>
     <row r="565" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="3" t="s">
@@ -18557,10 +18602,10 @@
       <c r="J565" s="4">
         <v>2003</v>
       </c>
-      <c r="K565" s="16">
+      <c r="K565" s="8">
         <v>3551</v>
       </c>
-      <c r="L565" s="17"/>
+      <c r="L565" s="9"/>
     </row>
     <row r="566" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="3" t="s">
@@ -18590,10 +18635,10 @@
       <c r="J566" s="4">
         <v>1846</v>
       </c>
-      <c r="K566" s="16">
+      <c r="K566" s="8">
         <v>3203</v>
       </c>
-      <c r="L566" s="17"/>
+      <c r="L566" s="9"/>
     </row>
     <row r="567" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="3" t="s">
@@ -18623,10 +18668,10 @@
       <c r="J567" s="4">
         <v>1926</v>
       </c>
-      <c r="K567" s="16">
+      <c r="K567" s="8">
         <v>3275</v>
       </c>
-      <c r="L567" s="17"/>
+      <c r="L567" s="9"/>
     </row>
     <row r="568" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B568" s="3" t="s">
@@ -18656,10 +18701,10 @@
       <c r="J568" s="4">
         <v>1979</v>
       </c>
-      <c r="K568" s="16">
+      <c r="K568" s="8">
         <v>3439</v>
       </c>
-      <c r="L568" s="17"/>
+      <c r="L568" s="9"/>
     </row>
     <row r="569" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="3" t="s">
@@ -18689,10 +18734,10 @@
       <c r="J569" s="4">
         <v>2039</v>
       </c>
-      <c r="K569" s="16">
+      <c r="K569" s="8">
         <v>3500</v>
       </c>
-      <c r="L569" s="17"/>
+      <c r="L569" s="9"/>
     </row>
     <row r="570" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B570" s="3" t="s">
@@ -18722,10 +18767,10 @@
       <c r="J570" s="4">
         <v>2156</v>
       </c>
-      <c r="K570" s="16">
+      <c r="K570" s="8">
         <v>3656</v>
       </c>
-      <c r="L570" s="17"/>
+      <c r="L570" s="9"/>
     </row>
     <row r="571" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B571" s="3" t="s">
@@ -18755,10 +18800,10 @@
       <c r="J571" s="4">
         <v>2252</v>
       </c>
-      <c r="K571" s="16">
+      <c r="K571" s="8">
         <v>3706</v>
       </c>
-      <c r="L571" s="17"/>
+      <c r="L571" s="9"/>
     </row>
     <row r="572" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B572" s="3" t="s">
@@ -18788,10 +18833,10 @@
       <c r="J572" s="4">
         <v>2382</v>
       </c>
-      <c r="K572" s="16">
+      <c r="K572" s="8">
         <v>3799</v>
       </c>
-      <c r="L572" s="17"/>
+      <c r="L572" s="9"/>
     </row>
     <row r="573" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B573" s="3" t="s">
@@ -18821,10 +18866,10 @@
       <c r="J573" s="4">
         <v>2572</v>
       </c>
-      <c r="K573" s="16">
+      <c r="K573" s="8">
         <v>4011</v>
       </c>
-      <c r="L573" s="17"/>
+      <c r="L573" s="9"/>
     </row>
     <row r="574" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="3" t="s">
@@ -18854,10 +18899,10 @@
       <c r="J574" s="4">
         <v>2780</v>
       </c>
-      <c r="K574" s="16">
+      <c r="K574" s="8">
         <v>4270</v>
       </c>
-      <c r="L574" s="17"/>
+      <c r="L574" s="9"/>
     </row>
     <row r="575" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B575" s="6" t="s">
@@ -18887,10 +18932,10 @@
       <c r="J575" s="6">
         <v>2229</v>
       </c>
-      <c r="K575" s="19">
+      <c r="K575" s="10">
         <v>3708</v>
       </c>
-      <c r="L575" s="20"/>
+      <c r="L575" s="11"/>
     </row>
     <row r="576" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B576" s="7"/>
@@ -18902,8 +18947,8 @@
       <c r="H576" s="7"/>
       <c r="I576" s="7"/>
       <c r="J576" s="7"/>
-      <c r="K576" s="21"/>
-      <c r="L576" s="22"/>
+      <c r="K576" s="12"/>
+      <c r="L576" s="13"/>
     </row>
     <row r="577" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B577" s="1">
@@ -18966,10 +19011,10 @@
       <c r="J578" s="4">
         <v>4436</v>
       </c>
-      <c r="K578" s="16">
+      <c r="K578" s="8">
         <v>6148</v>
       </c>
-      <c r="L578" s="17"/>
+      <c r="L578" s="9"/>
     </row>
     <row r="579" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B579" s="3" t="s">
@@ -18999,10 +19044,10 @@
       <c r="J579" s="4">
         <v>4160</v>
       </c>
-      <c r="K579" s="16">
+      <c r="K579" s="8">
         <v>5965</v>
       </c>
-      <c r="L579" s="17"/>
+      <c r="L579" s="9"/>
     </row>
     <row r="580" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B580" s="3" t="s">
@@ -19032,10 +19077,10 @@
       <c r="J580" s="4">
         <v>3816</v>
       </c>
-      <c r="K580" s="16">
+      <c r="K580" s="8">
         <v>5589</v>
       </c>
-      <c r="L580" s="17"/>
+      <c r="L580" s="9"/>
     </row>
     <row r="581" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="3" t="s">
@@ -19065,10 +19110,10 @@
       <c r="J581" s="4">
         <v>3460</v>
       </c>
-      <c r="K581" s="16">
+      <c r="K581" s="8">
         <v>5035</v>
       </c>
-      <c r="L581" s="17"/>
+      <c r="L581" s="9"/>
     </row>
     <row r="582" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="3" t="s">
@@ -19098,10 +19143,10 @@
       <c r="J582" s="4">
         <v>3178</v>
       </c>
-      <c r="K582" s="16">
+      <c r="K582" s="8">
         <v>4741</v>
       </c>
-      <c r="L582" s="17"/>
+      <c r="L582" s="9"/>
     </row>
     <row r="583" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="3" t="s">
@@ -19131,10 +19176,10 @@
       <c r="J583" s="4">
         <v>2908</v>
       </c>
-      <c r="K583" s="16">
+      <c r="K583" s="8">
         <v>4513</v>
       </c>
-      <c r="L583" s="17"/>
+      <c r="L583" s="9"/>
     </row>
     <row r="584" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="3" t="s">
@@ -19164,10 +19209,10 @@
       <c r="J584" s="4">
         <v>2746</v>
       </c>
-      <c r="K584" s="16">
+      <c r="K584" s="8">
         <v>4350</v>
       </c>
-      <c r="L584" s="17"/>
+      <c r="L584" s="9"/>
     </row>
     <row r="585" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B585" s="3" t="s">
@@ -19197,10 +19242,10 @@
       <c r="J585" s="4">
         <v>2620</v>
       </c>
-      <c r="K585" s="16">
+      <c r="K585" s="8">
         <v>4226</v>
       </c>
-      <c r="L585" s="17"/>
+      <c r="L585" s="9"/>
     </row>
     <row r="586" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="3" t="s">
@@ -19230,10 +19275,10 @@
       <c r="J586" s="4">
         <v>2483</v>
       </c>
-      <c r="K586" s="16">
+      <c r="K586" s="8">
         <v>4088</v>
       </c>
-      <c r="L586" s="17"/>
+      <c r="L586" s="9"/>
     </row>
     <row r="587" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B587" s="3" t="s">
@@ -19263,10 +19308,10 @@
       <c r="J587" s="4">
         <v>2402</v>
       </c>
-      <c r="K587" s="16">
+      <c r="K587" s="8">
         <v>4038</v>
       </c>
-      <c r="L587" s="17"/>
+      <c r="L587" s="9"/>
     </row>
     <row r="588" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B588" s="3" t="s">
@@ -19296,10 +19341,10 @@
       <c r="J588" s="4">
         <v>2500</v>
       </c>
-      <c r="K588" s="16">
+      <c r="K588" s="8">
         <v>4260</v>
       </c>
-      <c r="L588" s="17"/>
+      <c r="L588" s="9"/>
     </row>
     <row r="589" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B589" s="3" t="s">
@@ -19329,10 +19374,10 @@
       <c r="J589" s="4">
         <v>2696</v>
       </c>
-      <c r="K589" s="16">
+      <c r="K589" s="8">
         <v>4489</v>
       </c>
-      <c r="L589" s="17"/>
+      <c r="L589" s="9"/>
     </row>
     <row r="590" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B590" s="6" t="s">
@@ -19362,10 +19407,10 @@
       <c r="J590" s="6">
         <v>3117</v>
       </c>
-      <c r="K590" s="19">
+      <c r="K590" s="10">
         <v>4787</v>
       </c>
-      <c r="L590" s="20"/>
+      <c r="L590" s="11"/>
     </row>
     <row r="591" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B591" s="7"/>
@@ -19377,8 +19422,8 @@
       <c r="H591" s="7"/>
       <c r="I591" s="7"/>
       <c r="J591" s="7"/>
-      <c r="K591" s="21"/>
-      <c r="L591" s="22"/>
+      <c r="K591" s="12"/>
+      <c r="L591" s="13"/>
     </row>
     <row r="592" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B592" s="1">
@@ -19441,10 +19486,10 @@
       <c r="J593" s="4">
         <v>3386</v>
       </c>
-      <c r="K593" s="16">
+      <c r="K593" s="8">
         <v>5105</v>
       </c>
-      <c r="L593" s="17"/>
+      <c r="L593" s="9"/>
     </row>
     <row r="594" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B594" s="3" t="s">
@@ -19474,10 +19519,10 @@
       <c r="J594" s="4">
         <v>3502</v>
       </c>
-      <c r="K594" s="16">
+      <c r="K594" s="8">
         <v>5309</v>
       </c>
-      <c r="L594" s="17"/>
+      <c r="L594" s="9"/>
     </row>
     <row r="595" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B595" s="3" t="s">
@@ -19507,10 +19552,10 @@
       <c r="J595" s="4">
         <v>3595</v>
       </c>
-      <c r="K595" s="16">
+      <c r="K595" s="8">
         <v>5382</v>
       </c>
-      <c r="L595" s="17"/>
+      <c r="L595" s="9"/>
     </row>
     <row r="596" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B596" s="3" t="s">
@@ -19540,10 +19585,10 @@
       <c r="J596" s="4">
         <v>3728</v>
       </c>
-      <c r="K596" s="16">
+      <c r="K596" s="8">
         <v>5267</v>
       </c>
-      <c r="L596" s="17"/>
+      <c r="L596" s="9"/>
     </row>
     <row r="597" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B597" s="3" t="s">
@@ -19573,10 +19618,10 @@
       <c r="J597" s="4">
         <v>3817</v>
       </c>
-      <c r="K597" s="16">
+      <c r="K597" s="8">
         <v>5358</v>
       </c>
-      <c r="L597" s="17"/>
+      <c r="L597" s="9"/>
     </row>
     <row r="598" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B598" s="3" t="s">
@@ -19606,10 +19651,10 @@
       <c r="J598" s="4">
         <v>3926</v>
       </c>
-      <c r="K598" s="16">
+      <c r="K598" s="8">
         <v>5515</v>
       </c>
-      <c r="L598" s="17"/>
+      <c r="L598" s="9"/>
     </row>
     <row r="599" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B599" s="3" t="s">
@@ -19639,10 +19684,10 @@
       <c r="J599" s="4">
         <v>3998</v>
       </c>
-      <c r="K599" s="16">
+      <c r="K599" s="8">
         <v>5605</v>
       </c>
-      <c r="L599" s="17"/>
+      <c r="L599" s="9"/>
     </row>
     <row r="600" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B600" s="3" t="s">
@@ -19672,10 +19717,10 @@
       <c r="J600" s="4">
         <v>4131</v>
       </c>
-      <c r="K600" s="16">
+      <c r="K600" s="8">
         <v>5750</v>
       </c>
-      <c r="L600" s="17"/>
+      <c r="L600" s="9"/>
     </row>
     <row r="601" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B601" s="3" t="s">
@@ -19705,10 +19750,10 @@
       <c r="J601" s="4">
         <v>4241</v>
       </c>
-      <c r="K601" s="16">
+      <c r="K601" s="8">
         <v>5885</v>
       </c>
-      <c r="L601" s="17"/>
+      <c r="L601" s="9"/>
     </row>
     <row r="602" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="3" t="s">
@@ -19738,10 +19783,10 @@
       <c r="J602" s="4">
         <v>4352</v>
       </c>
-      <c r="K602" s="16">
+      <c r="K602" s="8">
         <v>5995</v>
       </c>
-      <c r="L602" s="17"/>
+      <c r="L602" s="9"/>
     </row>
     <row r="603" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B603" s="3" t="s">
@@ -19771,10 +19816,10 @@
       <c r="J603" s="4">
         <v>4436</v>
       </c>
-      <c r="K603" s="16">
+      <c r="K603" s="8">
         <v>6093</v>
       </c>
-      <c r="L603" s="17"/>
+      <c r="L603" s="9"/>
     </row>
     <row r="604" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="3" t="s">
@@ -19804,10 +19849,10 @@
       <c r="J604" s="4">
         <v>4520</v>
       </c>
-      <c r="K604" s="16">
+      <c r="K604" s="8">
         <v>6227</v>
       </c>
-      <c r="L604" s="17"/>
+      <c r="L604" s="9"/>
     </row>
     <row r="605" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="6" t="s">
@@ -19837,10 +19882,10 @@
       <c r="J605" s="6">
         <v>3969</v>
       </c>
-      <c r="K605" s="19">
+      <c r="K605" s="10">
         <v>5624</v>
       </c>
-      <c r="L605" s="20"/>
+      <c r="L605" s="11"/>
     </row>
     <row r="606" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B606" s="7"/>
@@ -19852,8 +19897,8 @@
       <c r="H606" s="7"/>
       <c r="I606" s="7"/>
       <c r="J606" s="7"/>
-      <c r="K606" s="21"/>
-      <c r="L606" s="22"/>
+      <c r="K606" s="12"/>
+      <c r="L606" s="13"/>
     </row>
     <row r="607" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B607" s="1">
@@ -19916,10 +19961,10 @@
       <c r="J608" s="4">
         <v>2571</v>
       </c>
-      <c r="K608" s="16">
+      <c r="K608" s="8">
         <v>4155</v>
       </c>
-      <c r="L608" s="17"/>
+      <c r="L608" s="9"/>
     </row>
     <row r="609" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="3" t="s">
@@ -19949,10 +19994,10 @@
       <c r="J609" s="4">
         <v>2613</v>
       </c>
-      <c r="K609" s="16">
+      <c r="K609" s="8">
         <v>4275</v>
       </c>
-      <c r="L609" s="17"/>
+      <c r="L609" s="9"/>
     </row>
     <row r="610" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="3" t="s">
@@ -19982,10 +20027,10 @@
       <c r="J610" s="4">
         <v>2658</v>
       </c>
-      <c r="K610" s="16">
+      <c r="K610" s="8">
         <v>4318</v>
       </c>
-      <c r="L610" s="17"/>
+      <c r="L610" s="9"/>
     </row>
     <row r="611" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B611" s="3" t="s">
@@ -20015,10 +20060,10 @@
       <c r="J611" s="4">
         <v>2682</v>
       </c>
-      <c r="K611" s="16">
+      <c r="K611" s="8">
         <v>4271</v>
       </c>
-      <c r="L611" s="17"/>
+      <c r="L611" s="9"/>
     </row>
     <row r="612" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B612" s="3" t="s">
@@ -20048,10 +20093,10 @@
       <c r="J612" s="4">
         <v>2797</v>
       </c>
-      <c r="K612" s="16">
+      <c r="K612" s="8">
         <v>4442</v>
       </c>
-      <c r="L612" s="17"/>
+      <c r="L612" s="9"/>
     </row>
     <row r="613" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="3" t="s">
@@ -20081,10 +20126,10 @@
       <c r="J613" s="4">
         <v>2850</v>
       </c>
-      <c r="K613" s="16">
+      <c r="K613" s="8">
         <v>4534</v>
       </c>
-      <c r="L613" s="17"/>
+      <c r="L613" s="9"/>
     </row>
     <row r="614" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="3" t="s">
@@ -20114,10 +20159,10 @@
       <c r="J614" s="4">
         <v>2953</v>
       </c>
-      <c r="K614" s="16">
+      <c r="K614" s="8">
         <v>4674</v>
       </c>
-      <c r="L614" s="17"/>
+      <c r="L614" s="9"/>
     </row>
     <row r="615" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B615" s="3" t="s">
@@ -20147,10 +20192,10 @@
       <c r="J615" s="4">
         <v>3045</v>
       </c>
-      <c r="K615" s="16">
+      <c r="K615" s="8">
         <v>4796</v>
       </c>
-      <c r="L615" s="17"/>
+      <c r="L615" s="9"/>
     </row>
     <row r="616" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B616" s="3" t="s">
@@ -20180,10 +20225,10 @@
       <c r="J616" s="4">
         <v>3099</v>
       </c>
-      <c r="K616" s="16">
+      <c r="K616" s="8">
         <v>4835</v>
       </c>
-      <c r="L616" s="17"/>
+      <c r="L616" s="9"/>
     </row>
     <row r="617" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B617" s="3" t="s">
@@ -20213,10 +20258,10 @@
       <c r="J617" s="4">
         <v>3148</v>
       </c>
-      <c r="K617" s="16">
+      <c r="K617" s="8">
         <v>4905</v>
       </c>
-      <c r="L617" s="17"/>
+      <c r="L617" s="9"/>
     </row>
     <row r="618" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B618" s="3" t="s">
@@ -20246,10 +20291,10 @@
       <c r="J618" s="4">
         <v>3220</v>
       </c>
-      <c r="K618" s="16">
+      <c r="K618" s="8">
         <v>4989</v>
       </c>
-      <c r="L618" s="17"/>
+      <c r="L618" s="9"/>
     </row>
     <row r="619" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B619" s="3" t="s">
@@ -20279,10 +20324,10 @@
       <c r="J619" s="4">
         <v>3286</v>
       </c>
-      <c r="K619" s="16">
+      <c r="K619" s="8">
         <v>5037</v>
       </c>
-      <c r="L619" s="17"/>
+      <c r="L619" s="9"/>
     </row>
     <row r="620" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B620" s="6" t="s">
@@ -20312,10 +20357,10 @@
       <c r="J620" s="6">
         <v>2910</v>
       </c>
-      <c r="K620" s="19">
+      <c r="K620" s="10">
         <v>4603</v>
       </c>
-      <c r="L620" s="20"/>
+      <c r="L620" s="11"/>
     </row>
     <row r="621" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B621" s="7"/>
@@ -20327,8 +20372,8 @@
       <c r="H621" s="7"/>
       <c r="I621" s="7"/>
       <c r="J621" s="7"/>
-      <c r="K621" s="21"/>
-      <c r="L621" s="22"/>
+      <c r="K621" s="12"/>
+      <c r="L621" s="13"/>
     </row>
     <row r="622" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B622" s="1">
@@ -20391,10 +20436,10 @@
       <c r="J623" s="4">
         <v>2199</v>
       </c>
-      <c r="K623" s="16">
+      <c r="K623" s="8">
         <v>3610</v>
       </c>
-      <c r="L623" s="17"/>
+      <c r="L623" s="9"/>
     </row>
     <row r="624" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B624" s="3" t="s">
@@ -20424,10 +20469,10 @@
       <c r="J624" s="4">
         <v>2064</v>
       </c>
-      <c r="K624" s="16">
+      <c r="K624" s="8">
         <v>3520</v>
       </c>
-      <c r="L624" s="17"/>
+      <c r="L624" s="9"/>
     </row>
     <row r="625" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B625" s="3" t="s">
@@ -20457,10 +20502,10 @@
       <c r="J625" s="4">
         <v>1971</v>
       </c>
-      <c r="K625" s="16">
+      <c r="K625" s="8">
         <v>3409</v>
       </c>
-      <c r="L625" s="17"/>
+      <c r="L625" s="9"/>
     </row>
     <row r="626" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B626" s="3" t="s">
@@ -20490,10 +20535,10 @@
       <c r="J626" s="4">
         <v>1943</v>
       </c>
-      <c r="K626" s="16">
+      <c r="K626" s="8">
         <v>3271</v>
       </c>
-      <c r="L626" s="17"/>
+      <c r="L626" s="9"/>
     </row>
     <row r="627" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B627" s="3" t="s">
@@ -20523,10 +20568,10 @@
       <c r="J627" s="4">
         <v>1960</v>
       </c>
-      <c r="K627" s="16">
+      <c r="K627" s="8">
         <v>3270</v>
       </c>
-      <c r="L627" s="17"/>
+      <c r="L627" s="9"/>
     </row>
     <row r="628" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B628" s="3" t="s">
@@ -20556,10 +20601,10 @@
       <c r="J628" s="4">
         <v>1999</v>
       </c>
-      <c r="K628" s="16">
+      <c r="K628" s="8">
         <v>3436</v>
       </c>
-      <c r="L628" s="17"/>
+      <c r="L628" s="9"/>
     </row>
     <row r="629" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="3" t="s">
@@ -20589,10 +20634,10 @@
       <c r="J629" s="4">
         <v>2094</v>
       </c>
-      <c r="K629" s="16">
+      <c r="K629" s="8">
         <v>3565</v>
       </c>
-      <c r="L629" s="17"/>
+      <c r="L629" s="9"/>
     </row>
     <row r="630" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="3" t="s">
@@ -20622,10 +20667,10 @@
       <c r="J630" s="4">
         <v>2222</v>
       </c>
-      <c r="K630" s="16">
+      <c r="K630" s="8">
         <v>3749</v>
       </c>
-      <c r="L630" s="17"/>
+      <c r="L630" s="9"/>
     </row>
     <row r="631" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="3" t="s">
@@ -20655,10 +20700,10 @@
       <c r="J631" s="4">
         <v>2284</v>
       </c>
-      <c r="K631" s="16">
+      <c r="K631" s="8">
         <v>3865</v>
       </c>
-      <c r="L631" s="17"/>
+      <c r="L631" s="9"/>
     </row>
     <row r="632" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B632" s="3" t="s">
@@ -20688,10 +20733,10 @@
       <c r="J632" s="4">
         <v>2380</v>
       </c>
-      <c r="K632" s="16">
+      <c r="K632" s="8">
         <v>3963</v>
       </c>
-      <c r="L632" s="17"/>
+      <c r="L632" s="9"/>
     </row>
     <row r="633" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="3" t="s">
@@ -20721,10 +20766,10 @@
       <c r="J633" s="4">
         <v>2460</v>
       </c>
-      <c r="K633" s="16">
+      <c r="K633" s="8">
         <v>4070</v>
       </c>
-      <c r="L633" s="17"/>
+      <c r="L633" s="9"/>
     </row>
     <row r="634" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B634" s="3" t="s">
@@ -20754,10 +20799,10 @@
       <c r="J634" s="4">
         <v>2552</v>
       </c>
-      <c r="K634" s="16">
+      <c r="K634" s="8">
         <v>4176</v>
       </c>
-      <c r="L634" s="17"/>
+      <c r="L634" s="9"/>
     </row>
     <row r="635" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="6" t="s">
@@ -20787,10 +20832,10 @@
       <c r="J635" s="6">
         <v>2177</v>
       </c>
-      <c r="K635" s="19">
+      <c r="K635" s="10">
         <v>3659</v>
       </c>
-      <c r="L635" s="20"/>
+      <c r="L635" s="11"/>
     </row>
     <row r="636" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B636" s="7"/>
@@ -20802,8 +20847,8 @@
       <c r="H636" s="7"/>
       <c r="I636" s="7"/>
       <c r="J636" s="7"/>
-      <c r="K636" s="21"/>
-      <c r="L636" s="22"/>
+      <c r="K636" s="12"/>
+      <c r="L636" s="13"/>
     </row>
     <row r="637" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B637" s="1">
@@ -20866,10 +20911,10 @@
       <c r="J638" s="4">
         <v>2128</v>
       </c>
-      <c r="K638" s="16">
+      <c r="K638" s="8">
         <v>3403</v>
       </c>
-      <c r="L638" s="17"/>
+      <c r="L638" s="9"/>
     </row>
     <row r="639" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B639" s="3" t="s">
@@ -20899,10 +20944,10 @@
       <c r="J639" s="4">
         <v>2135</v>
       </c>
-      <c r="K639" s="16">
+      <c r="K639" s="8">
         <v>3452</v>
       </c>
-      <c r="L639" s="17"/>
+      <c r="L639" s="9"/>
     </row>
     <row r="640" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B640" s="3" t="s">
@@ -20932,10 +20977,10 @@
       <c r="J640" s="4">
         <v>2158</v>
       </c>
-      <c r="K640" s="16">
+      <c r="K640" s="8">
         <v>3486</v>
       </c>
-      <c r="L640" s="17"/>
+      <c r="L640" s="9"/>
     </row>
     <row r="641" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B641" s="3" t="s">
@@ -20965,10 +21010,10 @@
       <c r="J641" s="4">
         <v>2198</v>
       </c>
-      <c r="K641" s="16">
+      <c r="K641" s="8">
         <v>3423</v>
       </c>
-      <c r="L641" s="17"/>
+      <c r="L641" s="9"/>
     </row>
     <row r="642" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B642" s="3" t="s">
@@ -20998,10 +21043,10 @@
       <c r="J642" s="4">
         <v>2249</v>
       </c>
-      <c r="K642" s="16">
+      <c r="K642" s="8">
         <v>3507</v>
       </c>
-      <c r="L642" s="17"/>
+      <c r="L642" s="9"/>
     </row>
     <row r="643" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="3" t="s">
@@ -21031,10 +21076,10 @@
       <c r="J643" s="4">
         <v>2286</v>
       </c>
-      <c r="K643" s="16">
+      <c r="K643" s="8">
         <v>3605</v>
       </c>
-      <c r="L643" s="17"/>
+      <c r="L643" s="9"/>
     </row>
     <row r="644" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B644" s="3" t="s">
@@ -21064,10 +21109,10 @@
       <c r="J644" s="4">
         <v>2307</v>
       </c>
-      <c r="K644" s="16">
+      <c r="K644" s="8">
         <v>3667</v>
       </c>
-      <c r="L644" s="17"/>
+      <c r="L644" s="9"/>
     </row>
     <row r="645" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B645" s="3" t="s">
@@ -21097,10 +21142,10 @@
       <c r="J645" s="4">
         <v>2324</v>
       </c>
-      <c r="K645" s="16">
+      <c r="K645" s="8">
         <v>3712</v>
       </c>
-      <c r="L645" s="17"/>
+      <c r="L645" s="9"/>
     </row>
     <row r="646" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B646" s="3" t="s">
@@ -21130,10 +21175,10 @@
       <c r="J646" s="4">
         <v>2332</v>
       </c>
-      <c r="K646" s="16">
+      <c r="K646" s="8">
         <v>3701</v>
       </c>
-      <c r="L646" s="17"/>
+      <c r="L646" s="9"/>
     </row>
     <row r="647" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B647" s="3" t="s">
@@ -21163,10 +21208,10 @@
       <c r="J647" s="4">
         <v>2346</v>
       </c>
-      <c r="K647" s="16">
+      <c r="K647" s="8">
         <v>3738</v>
       </c>
-      <c r="L647" s="17"/>
+      <c r="L647" s="9"/>
     </row>
     <row r="648" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B648" s="3" t="s">
@@ -21196,10 +21241,10 @@
       <c r="J648" s="4">
         <v>2356</v>
       </c>
-      <c r="K648" s="16">
+      <c r="K648" s="8">
         <v>3800</v>
       </c>
-      <c r="L648" s="17"/>
+      <c r="L648" s="9"/>
     </row>
     <row r="649" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B649" s="3" t="s">
@@ -21229,10 +21274,10 @@
       <c r="J649" s="4">
         <v>2286</v>
       </c>
-      <c r="K649" s="16">
+      <c r="K649" s="8">
         <v>3737</v>
       </c>
-      <c r="L649" s="17"/>
+      <c r="L649" s="9"/>
     </row>
     <row r="650" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B650" s="6" t="s">
@@ -21262,10 +21307,10 @@
       <c r="J650" s="6">
         <v>2259</v>
       </c>
-      <c r="K650" s="19">
+      <c r="K650" s="10">
         <v>3603</v>
       </c>
-      <c r="L650" s="20"/>
+      <c r="L650" s="11"/>
     </row>
     <row r="651" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B651" s="7"/>
@@ -21277,8 +21322,8 @@
       <c r="H651" s="7"/>
       <c r="I651" s="7"/>
       <c r="J651" s="7"/>
-      <c r="K651" s="21"/>
-      <c r="L651" s="22"/>
+      <c r="K651" s="12"/>
+      <c r="L651" s="13"/>
     </row>
     <row r="652" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B652" s="1">
@@ -21341,10 +21386,10 @@
       <c r="J653" s="4">
         <v>1850</v>
       </c>
-      <c r="K653" s="16">
+      <c r="K653" s="8">
         <v>3033</v>
       </c>
-      <c r="L653" s="17"/>
+      <c r="L653" s="9"/>
     </row>
     <row r="654" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B654" s="3" t="s">
@@ -21374,10 +21419,10 @@
       <c r="J654" s="4">
         <v>1856</v>
       </c>
-      <c r="K654" s="16">
+      <c r="K654" s="8">
         <v>3095</v>
       </c>
-      <c r="L654" s="17"/>
+      <c r="L654" s="9"/>
     </row>
     <row r="655" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B655" s="3" t="s">
@@ -21407,10 +21452,10 @@
       <c r="J655" s="4">
         <v>1887</v>
       </c>
-      <c r="K655" s="16">
+      <c r="K655" s="8">
         <v>3123</v>
       </c>
-      <c r="L655" s="17"/>
+      <c r="L655" s="9"/>
     </row>
     <row r="656" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B656" s="3" t="s">
@@ -21440,10 +21485,10 @@
       <c r="J656" s="4">
         <v>1907</v>
       </c>
-      <c r="K656" s="16">
+      <c r="K656" s="8">
         <v>3012</v>
       </c>
-      <c r="L656" s="17"/>
+      <c r="L656" s="9"/>
     </row>
     <row r="657" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B657" s="3" t="s">
@@ -21473,10 +21518,10 @@
       <c r="J657" s="4">
         <v>1982</v>
       </c>
-      <c r="K657" s="16">
+      <c r="K657" s="8">
         <v>3098</v>
       </c>
-      <c r="L657" s="17"/>
+      <c r="L657" s="9"/>
     </row>
     <row r="658" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B658" s="3" t="s">
@@ -21506,10 +21551,10 @@
       <c r="J658" s="4">
         <v>2008</v>
       </c>
-      <c r="K658" s="16">
+      <c r="K658" s="8">
         <v>3182</v>
       </c>
-      <c r="L658" s="17"/>
+      <c r="L658" s="9"/>
     </row>
     <row r="659" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B659" s="3" t="s">
@@ -21539,10 +21584,10 @@
       <c r="J659" s="4">
         <v>2023</v>
       </c>
-      <c r="K659" s="16">
+      <c r="K659" s="8">
         <v>3233</v>
       </c>
-      <c r="L659" s="17"/>
+      <c r="L659" s="9"/>
     </row>
     <row r="660" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B660" s="3" t="s">
@@ -21572,10 +21617,10 @@
       <c r="J660" s="4">
         <v>2066</v>
       </c>
-      <c r="K660" s="16">
+      <c r="K660" s="8">
         <v>3317</v>
       </c>
-      <c r="L660" s="17"/>
+      <c r="L660" s="9"/>
     </row>
     <row r="661" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B661" s="3" t="s">
@@ -21605,10 +21650,10 @@
       <c r="J661" s="4">
         <v>2084</v>
       </c>
-      <c r="K661" s="16">
+      <c r="K661" s="8">
         <v>3313</v>
       </c>
-      <c r="L661" s="17"/>
+      <c r="L661" s="9"/>
     </row>
     <row r="662" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B662" s="3" t="s">
@@ -21638,10 +21683,10 @@
       <c r="J662" s="4">
         <v>2101</v>
       </c>
-      <c r="K662" s="16">
+      <c r="K662" s="8">
         <v>3353</v>
       </c>
-      <c r="L662" s="17"/>
+      <c r="L662" s="9"/>
     </row>
     <row r="663" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B663" s="3" t="s">
@@ -21671,10 +21716,10 @@
       <c r="J663" s="4">
         <v>2113</v>
       </c>
-      <c r="K663" s="16">
+      <c r="K663" s="8">
         <v>3398</v>
       </c>
-      <c r="L663" s="17"/>
+      <c r="L663" s="9"/>
     </row>
     <row r="664" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B664" s="3" t="s">
@@ -21704,10 +21749,10 @@
       <c r="J664" s="4">
         <v>2141</v>
       </c>
-      <c r="K664" s="16">
+      <c r="K664" s="8">
         <v>3444</v>
       </c>
-      <c r="L664" s="17"/>
+      <c r="L664" s="9"/>
     </row>
     <row r="665" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B665" s="6" t="s">
@@ -21737,10 +21782,10 @@
       <c r="J665" s="6">
         <v>2002</v>
       </c>
-      <c r="K665" s="19">
+      <c r="K665" s="10">
         <v>3217</v>
       </c>
-      <c r="L665" s="20"/>
+      <c r="L665" s="11"/>
     </row>
     <row r="666" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B666" s="7"/>
@@ -21752,8 +21797,8 @@
       <c r="H666" s="7"/>
       <c r="I666" s="7"/>
       <c r="J666" s="7"/>
-      <c r="K666" s="21"/>
-      <c r="L666" s="22"/>
+      <c r="K666" s="12"/>
+      <c r="L666" s="13"/>
     </row>
     <row r="667" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B667" s="1">
@@ -21816,10 +21861,10 @@
       <c r="J668" s="4">
         <v>1711</v>
       </c>
-      <c r="K668" s="16">
+      <c r="K668" s="8">
         <v>2871</v>
       </c>
-      <c r="L668" s="17"/>
+      <c r="L668" s="9"/>
     </row>
     <row r="669" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B669" s="3" t="s">
@@ -21849,10 +21894,10 @@
       <c r="J669" s="4">
         <v>1594</v>
       </c>
-      <c r="K669" s="16">
+      <c r="K669" s="8">
         <v>2765</v>
       </c>
-      <c r="L669" s="17"/>
+      <c r="L669" s="9"/>
     </row>
     <row r="670" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B670" s="3" t="s">
@@ -21882,10 +21927,10 @@
       <c r="J670" s="4">
         <v>1540</v>
       </c>
-      <c r="K670" s="16">
+      <c r="K670" s="8">
         <v>2699</v>
       </c>
-      <c r="L670" s="17"/>
+      <c r="L670" s="9"/>
     </row>
     <row r="671" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B671" s="3" t="s">
@@ -21915,10 +21960,10 @@
       <c r="J671" s="4">
         <v>1480</v>
       </c>
-      <c r="K671" s="16">
+      <c r="K671" s="8">
         <v>2511</v>
       </c>
-      <c r="L671" s="17"/>
+      <c r="L671" s="9"/>
     </row>
     <row r="672" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B672" s="3" t="s">
@@ -21948,10 +21993,10 @@
       <c r="J672" s="4">
         <v>1496</v>
       </c>
-      <c r="K672" s="16">
+      <c r="K672" s="8">
         <v>2578</v>
       </c>
-      <c r="L672" s="17"/>
+      <c r="L672" s="9"/>
     </row>
     <row r="673" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B673" s="3" t="s">
@@ -21981,10 +22026,10 @@
       <c r="J673" s="4">
         <v>1546</v>
       </c>
-      <c r="K673" s="16">
+      <c r="K673" s="8">
         <v>2698</v>
       </c>
-      <c r="L673" s="17"/>
+      <c r="L673" s="9"/>
     </row>
     <row r="674" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B674" s="3" t="s">
@@ -22014,10 +22059,10 @@
       <c r="J674" s="4">
         <v>1597</v>
       </c>
-      <c r="K674" s="16">
+      <c r="K674" s="8">
         <v>2723</v>
       </c>
-      <c r="L674" s="17"/>
+      <c r="L674" s="9"/>
     </row>
     <row r="675" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B675" s="3" t="s">
@@ -22047,10 +22092,10 @@
       <c r="J675" s="4">
         <v>1690</v>
       </c>
-      <c r="K675" s="16">
+      <c r="K675" s="8">
         <v>2848</v>
       </c>
-      <c r="L675" s="17"/>
+      <c r="L675" s="9"/>
     </row>
     <row r="676" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B676" s="3" t="s">
@@ -22080,10 +22125,10 @@
       <c r="J676" s="4">
         <v>1744</v>
       </c>
-      <c r="K676" s="16">
+      <c r="K676" s="8">
         <v>2888</v>
       </c>
-      <c r="L676" s="17"/>
+      <c r="L676" s="9"/>
     </row>
     <row r="677" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B677" s="3" t="s">
@@ -22113,10 +22158,10 @@
       <c r="J677" s="4">
         <v>1794</v>
       </c>
-      <c r="K677" s="16">
+      <c r="K677" s="8">
         <v>2926</v>
       </c>
-      <c r="L677" s="17"/>
+      <c r="L677" s="9"/>
     </row>
     <row r="678" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B678" s="3" t="s">
@@ -22146,10 +22191,10 @@
       <c r="J678" s="4">
         <v>1840</v>
       </c>
-      <c r="K678" s="16">
+      <c r="K678" s="8">
         <v>2976</v>
       </c>
-      <c r="L678" s="17"/>
+      <c r="L678" s="9"/>
     </row>
     <row r="679" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B679" s="3" t="s">
@@ -22179,10 +22224,10 @@
       <c r="J679" s="4">
         <v>1860</v>
       </c>
-      <c r="K679" s="16">
+      <c r="K679" s="8">
         <v>3013</v>
       </c>
-      <c r="L679" s="17"/>
+      <c r="L679" s="9"/>
     </row>
     <row r="680" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B680" s="6" t="s">
@@ -22212,10 +22257,10 @@
       <c r="J680" s="6">
         <v>1658</v>
       </c>
-      <c r="K680" s="19">
+      <c r="K680" s="10">
         <v>2791</v>
       </c>
-      <c r="L680" s="20"/>
+      <c r="L680" s="11"/>
     </row>
     <row r="681" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B681" s="7"/>
@@ -22227,8 +22272,8 @@
       <c r="H681" s="7"/>
       <c r="I681" s="7"/>
       <c r="J681" s="7"/>
-      <c r="K681" s="21"/>
-      <c r="L681" s="22"/>
+      <c r="K681" s="12"/>
+      <c r="L681" s="13"/>
     </row>
     <row r="682" spans="2:12" ht="24" x14ac:dyDescent="0.2">
       <c r="B682" s="1">
@@ -22291,10 +22336,10 @@
       <c r="J683" s="4">
         <v>1615</v>
       </c>
-      <c r="K683" s="16">
+      <c r="K683" s="8">
         <v>2694</v>
       </c>
-      <c r="L683" s="17"/>
+      <c r="L683" s="9"/>
     </row>
     <row r="684" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B684" s="3" t="s">
@@ -22324,10 +22369,10 @@
       <c r="J684" s="4">
         <v>1611</v>
       </c>
-      <c r="K684" s="16">
+      <c r="K684" s="8">
         <v>2718</v>
       </c>
-      <c r="L684" s="17"/>
+      <c r="L684" s="9"/>
     </row>
     <row r="685" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B685" s="3" t="s">
@@ -22357,10 +22402,10 @@
       <c r="J685" s="4">
         <v>1651</v>
       </c>
-      <c r="K685" s="16">
+      <c r="K685" s="8">
         <v>2769</v>
       </c>
-      <c r="L685" s="17"/>
+      <c r="L685" s="9"/>
     </row>
     <row r="686" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B686" s="3" t="s">
@@ -22390,10 +22435,10 @@
       <c r="J686" s="4">
         <v>1605</v>
       </c>
-      <c r="K686" s="16">
+      <c r="K686" s="8">
         <v>2593</v>
       </c>
-      <c r="L686" s="17"/>
+      <c r="L686" s="9"/>
     </row>
     <row r="687" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B687" s="3" t="s">
@@ -22423,10 +22468,10 @@
       <c r="J687" s="4">
         <v>1592</v>
       </c>
-      <c r="K687" s="16">
+      <c r="K687" s="8">
         <v>2557</v>
       </c>
-      <c r="L687" s="17"/>
+      <c r="L687" s="9"/>
     </row>
     <row r="688" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B688" s="3" t="s">
@@ -22456,10 +22501,10 @@
       <c r="J688" s="4">
         <v>1613</v>
       </c>
-      <c r="K688" s="16">
+      <c r="K688" s="8">
         <v>2650</v>
       </c>
-      <c r="L688" s="17"/>
+      <c r="L688" s="9"/>
     </row>
     <row r="689" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B689" s="3" t="s">
@@ -22489,10 +22534,10 @@
       <c r="J689" s="4">
         <v>1617</v>
       </c>
-      <c r="K689" s="16">
+      <c r="K689" s="8">
         <v>2670</v>
       </c>
-      <c r="L689" s="17"/>
+      <c r="L689" s="9"/>
     </row>
     <row r="690" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B690" s="3" t="s">
@@ -22522,10 +22567,10 @@
       <c r="J690" s="4">
         <v>1645</v>
       </c>
-      <c r="K690" s="16">
+      <c r="K690" s="8">
         <v>2711</v>
       </c>
-      <c r="L690" s="17"/>
+      <c r="L690" s="9"/>
     </row>
     <row r="691" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B691" s="3" t="s">
@@ -22555,10 +22600,10 @@
       <c r="J691" s="4">
         <v>1699</v>
       </c>
-      <c r="K691" s="16">
+      <c r="K691" s="8">
         <v>2743</v>
       </c>
-      <c r="L691" s="17"/>
+      <c r="L691" s="9"/>
     </row>
     <row r="692" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B692" s="3" t="s">
@@ -22588,10 +22633,10 @@
       <c r="J692" s="4">
         <v>1716</v>
       </c>
-      <c r="K692" s="16">
+      <c r="K692" s="8">
         <v>2801</v>
       </c>
-      <c r="L692" s="17"/>
+      <c r="L692" s="9"/>
     </row>
     <row r="693" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B693" s="3" t="s">
@@ -22621,10 +22666,10 @@
       <c r="J693" s="4">
         <v>1757</v>
       </c>
-      <c r="K693" s="16">
+      <c r="K693" s="8">
         <v>2853</v>
       </c>
-      <c r="L693" s="17"/>
+      <c r="L693" s="9"/>
     </row>
     <row r="694" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B694" s="3" t="s">
@@ -22654,10 +22699,10 @@
       <c r="J694" s="4">
         <v>1793</v>
       </c>
-      <c r="K694" s="16">
+      <c r="K694" s="8">
         <v>2899</v>
       </c>
-      <c r="L694" s="17"/>
+      <c r="L694" s="9"/>
     </row>
     <row r="695" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B695" s="6" t="s">
@@ -22687,10 +22732,10 @@
       <c r="J695" s="6">
         <v>1660</v>
       </c>
-      <c r="K695" s="19">
+      <c r="K695" s="10">
         <v>2722</v>
       </c>
-      <c r="L695" s="20"/>
+      <c r="L695" s="11"/>
     </row>
     <row r="696" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B696" s="7"/>
@@ -22702,20 +22747,683 @@
       <c r="H696" s="7"/>
       <c r="I696" s="7"/>
       <c r="J696" s="7"/>
-      <c r="K696" s="21"/>
-      <c r="L696" s="22"/>
+      <c r="K696" s="12"/>
+      <c r="L696" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="693">
-    <mergeCell ref="K694:L694"/>
-    <mergeCell ref="K695:L695"/>
-    <mergeCell ref="K696:L696"/>
-    <mergeCell ref="K688:L688"/>
-    <mergeCell ref="K689:L689"/>
-    <mergeCell ref="K690:L690"/>
-    <mergeCell ref="K691:L691"/>
-    <mergeCell ref="K692:L692"/>
-    <mergeCell ref="K693:L693"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="K226:L226"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="K228:L228"/>
+    <mergeCell ref="K229:L229"/>
+    <mergeCell ref="K230:L230"/>
+    <mergeCell ref="K231:L231"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="K222:L222"/>
+    <mergeCell ref="K223:L223"/>
+    <mergeCell ref="K224:L224"/>
+    <mergeCell ref="K225:L225"/>
+    <mergeCell ref="K238:L238"/>
+    <mergeCell ref="K239:L239"/>
+    <mergeCell ref="K240:L240"/>
+    <mergeCell ref="K241:L241"/>
+    <mergeCell ref="K242:L242"/>
+    <mergeCell ref="K243:L243"/>
+    <mergeCell ref="K232:L232"/>
+    <mergeCell ref="K233:L233"/>
+    <mergeCell ref="K234:L234"/>
+    <mergeCell ref="K235:L235"/>
+    <mergeCell ref="K236:L236"/>
+    <mergeCell ref="K237:L237"/>
+    <mergeCell ref="K250:L250"/>
+    <mergeCell ref="K251:L251"/>
+    <mergeCell ref="K252:L252"/>
+    <mergeCell ref="K253:L253"/>
+    <mergeCell ref="K254:L254"/>
+    <mergeCell ref="K255:L255"/>
+    <mergeCell ref="K244:L244"/>
+    <mergeCell ref="K245:L245"/>
+    <mergeCell ref="K246:L246"/>
+    <mergeCell ref="K247:L247"/>
+    <mergeCell ref="K248:L248"/>
+    <mergeCell ref="K249:L249"/>
+    <mergeCell ref="K262:L262"/>
+    <mergeCell ref="K263:L263"/>
+    <mergeCell ref="K264:L264"/>
+    <mergeCell ref="K265:L265"/>
+    <mergeCell ref="K266:L266"/>
+    <mergeCell ref="K267:L267"/>
+    <mergeCell ref="K256:L256"/>
+    <mergeCell ref="K257:L257"/>
+    <mergeCell ref="K258:L258"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="K261:L261"/>
+    <mergeCell ref="K274:L274"/>
+    <mergeCell ref="K275:L275"/>
+    <mergeCell ref="K276:L276"/>
+    <mergeCell ref="K277:L277"/>
+    <mergeCell ref="K278:L278"/>
+    <mergeCell ref="K279:L279"/>
+    <mergeCell ref="K268:L268"/>
+    <mergeCell ref="K269:L269"/>
+    <mergeCell ref="K270:L270"/>
+    <mergeCell ref="K271:L271"/>
+    <mergeCell ref="K272:L272"/>
+    <mergeCell ref="K273:L273"/>
+    <mergeCell ref="K286:L286"/>
+    <mergeCell ref="K287:L287"/>
+    <mergeCell ref="K288:L288"/>
+    <mergeCell ref="K289:L289"/>
+    <mergeCell ref="K290:L290"/>
+    <mergeCell ref="K291:L291"/>
+    <mergeCell ref="K280:L280"/>
+    <mergeCell ref="K281:L281"/>
+    <mergeCell ref="K282:L282"/>
+    <mergeCell ref="K283:L283"/>
+    <mergeCell ref="K284:L284"/>
+    <mergeCell ref="K285:L285"/>
+    <mergeCell ref="K298:L298"/>
+    <mergeCell ref="K299:L299"/>
+    <mergeCell ref="K300:L300"/>
+    <mergeCell ref="K301:L301"/>
+    <mergeCell ref="K302:L302"/>
+    <mergeCell ref="K303:L303"/>
+    <mergeCell ref="K292:L292"/>
+    <mergeCell ref="K293:L293"/>
+    <mergeCell ref="K294:L294"/>
+    <mergeCell ref="K295:L295"/>
+    <mergeCell ref="K296:L296"/>
+    <mergeCell ref="K297:L297"/>
+    <mergeCell ref="K310:L310"/>
+    <mergeCell ref="K311:L311"/>
+    <mergeCell ref="K312:L312"/>
+    <mergeCell ref="K313:L313"/>
+    <mergeCell ref="K314:L314"/>
+    <mergeCell ref="K315:L315"/>
+    <mergeCell ref="K304:L304"/>
+    <mergeCell ref="K305:L305"/>
+    <mergeCell ref="K306:L306"/>
+    <mergeCell ref="K307:L307"/>
+    <mergeCell ref="K308:L308"/>
+    <mergeCell ref="K309:L309"/>
+    <mergeCell ref="K322:L322"/>
+    <mergeCell ref="K323:L323"/>
+    <mergeCell ref="K324:L324"/>
+    <mergeCell ref="K325:L325"/>
+    <mergeCell ref="K326:L326"/>
+    <mergeCell ref="K327:L327"/>
+    <mergeCell ref="K316:L316"/>
+    <mergeCell ref="K317:L317"/>
+    <mergeCell ref="K318:L318"/>
+    <mergeCell ref="K319:L319"/>
+    <mergeCell ref="K320:L320"/>
+    <mergeCell ref="K321:L321"/>
+    <mergeCell ref="K334:L334"/>
+    <mergeCell ref="K335:L335"/>
+    <mergeCell ref="K336:L336"/>
+    <mergeCell ref="K337:L337"/>
+    <mergeCell ref="K338:L338"/>
+    <mergeCell ref="K339:L339"/>
+    <mergeCell ref="K328:L328"/>
+    <mergeCell ref="K329:L329"/>
+    <mergeCell ref="K330:L330"/>
+    <mergeCell ref="K331:L331"/>
+    <mergeCell ref="K332:L332"/>
+    <mergeCell ref="K333:L333"/>
+    <mergeCell ref="K346:L346"/>
+    <mergeCell ref="K347:L347"/>
+    <mergeCell ref="K348:L348"/>
+    <mergeCell ref="K349:L349"/>
+    <mergeCell ref="K350:L350"/>
+    <mergeCell ref="K351:L351"/>
+    <mergeCell ref="K340:L340"/>
+    <mergeCell ref="K341:L341"/>
+    <mergeCell ref="K342:L342"/>
+    <mergeCell ref="K343:L343"/>
+    <mergeCell ref="K344:L344"/>
+    <mergeCell ref="K345:L345"/>
+    <mergeCell ref="K358:L358"/>
+    <mergeCell ref="K359:L359"/>
+    <mergeCell ref="K360:L360"/>
+    <mergeCell ref="K361:L361"/>
+    <mergeCell ref="K362:L362"/>
+    <mergeCell ref="K363:L363"/>
+    <mergeCell ref="K352:L352"/>
+    <mergeCell ref="K353:L353"/>
+    <mergeCell ref="K354:L354"/>
+    <mergeCell ref="K355:L355"/>
+    <mergeCell ref="K356:L356"/>
+    <mergeCell ref="K357:L357"/>
+    <mergeCell ref="K370:L370"/>
+    <mergeCell ref="K371:L371"/>
+    <mergeCell ref="K372:L372"/>
+    <mergeCell ref="K373:L373"/>
+    <mergeCell ref="K374:L374"/>
+    <mergeCell ref="K375:L375"/>
+    <mergeCell ref="K364:L364"/>
+    <mergeCell ref="K365:L365"/>
+    <mergeCell ref="K366:L366"/>
+    <mergeCell ref="K367:L367"/>
+    <mergeCell ref="K368:L368"/>
+    <mergeCell ref="K369:L369"/>
+    <mergeCell ref="K382:L382"/>
+    <mergeCell ref="K383:L383"/>
+    <mergeCell ref="K384:L384"/>
+    <mergeCell ref="K385:L385"/>
+    <mergeCell ref="K386:L386"/>
+    <mergeCell ref="K387:L387"/>
+    <mergeCell ref="K376:L376"/>
+    <mergeCell ref="K377:L377"/>
+    <mergeCell ref="K378:L378"/>
+    <mergeCell ref="K379:L379"/>
+    <mergeCell ref="K380:L380"/>
+    <mergeCell ref="K381:L381"/>
+    <mergeCell ref="K394:L394"/>
+    <mergeCell ref="K395:L395"/>
+    <mergeCell ref="K396:L396"/>
+    <mergeCell ref="K397:L397"/>
+    <mergeCell ref="K398:L398"/>
+    <mergeCell ref="K399:L399"/>
+    <mergeCell ref="K388:L388"/>
+    <mergeCell ref="K389:L389"/>
+    <mergeCell ref="K390:L390"/>
+    <mergeCell ref="K391:L391"/>
+    <mergeCell ref="K392:L392"/>
+    <mergeCell ref="K393:L393"/>
+    <mergeCell ref="K406:L406"/>
+    <mergeCell ref="K407:L407"/>
+    <mergeCell ref="K408:L408"/>
+    <mergeCell ref="K409:L409"/>
+    <mergeCell ref="K410:L410"/>
+    <mergeCell ref="K411:L411"/>
+    <mergeCell ref="K400:L400"/>
+    <mergeCell ref="K401:L401"/>
+    <mergeCell ref="K402:L402"/>
+    <mergeCell ref="K403:L403"/>
+    <mergeCell ref="K404:L404"/>
+    <mergeCell ref="K405:L405"/>
+    <mergeCell ref="K418:L418"/>
+    <mergeCell ref="K419:L419"/>
+    <mergeCell ref="K420:L420"/>
+    <mergeCell ref="K421:L421"/>
+    <mergeCell ref="K422:L422"/>
+    <mergeCell ref="K423:L423"/>
+    <mergeCell ref="K412:L412"/>
+    <mergeCell ref="K413:L413"/>
+    <mergeCell ref="K414:L414"/>
+    <mergeCell ref="K415:L415"/>
+    <mergeCell ref="K416:L416"/>
+    <mergeCell ref="K417:L417"/>
+    <mergeCell ref="K430:L430"/>
+    <mergeCell ref="K431:L431"/>
+    <mergeCell ref="K432:L432"/>
+    <mergeCell ref="K433:L433"/>
+    <mergeCell ref="K434:L434"/>
+    <mergeCell ref="K435:L435"/>
+    <mergeCell ref="K424:L424"/>
+    <mergeCell ref="K425:L425"/>
+    <mergeCell ref="K426:L426"/>
+    <mergeCell ref="K427:L427"/>
+    <mergeCell ref="K428:L428"/>
+    <mergeCell ref="K429:L429"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="K445:L445"/>
+    <mergeCell ref="K446:L446"/>
+    <mergeCell ref="K447:L447"/>
+    <mergeCell ref="K436:L436"/>
+    <mergeCell ref="K437:L437"/>
+    <mergeCell ref="K438:L438"/>
+    <mergeCell ref="K439:L439"/>
+    <mergeCell ref="K440:L440"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="K454:L454"/>
+    <mergeCell ref="K455:L455"/>
+    <mergeCell ref="K456:L456"/>
+    <mergeCell ref="K457:L457"/>
+    <mergeCell ref="K458:L458"/>
+    <mergeCell ref="K459:L459"/>
+    <mergeCell ref="K448:L448"/>
+    <mergeCell ref="K449:L449"/>
+    <mergeCell ref="K450:L450"/>
+    <mergeCell ref="K451:L451"/>
+    <mergeCell ref="K452:L452"/>
+    <mergeCell ref="K453:L453"/>
+    <mergeCell ref="K466:L466"/>
+    <mergeCell ref="K467:L467"/>
+    <mergeCell ref="K468:L468"/>
+    <mergeCell ref="K469:L469"/>
+    <mergeCell ref="K470:L470"/>
+    <mergeCell ref="K471:L471"/>
+    <mergeCell ref="K460:L460"/>
+    <mergeCell ref="K461:L461"/>
+    <mergeCell ref="K462:L462"/>
+    <mergeCell ref="K463:L463"/>
+    <mergeCell ref="K464:L464"/>
+    <mergeCell ref="K465:L465"/>
+    <mergeCell ref="K478:L478"/>
+    <mergeCell ref="K479:L479"/>
+    <mergeCell ref="K480:L480"/>
+    <mergeCell ref="K481:L481"/>
+    <mergeCell ref="K482:L482"/>
+    <mergeCell ref="K483:L483"/>
+    <mergeCell ref="K472:L472"/>
+    <mergeCell ref="K473:L473"/>
+    <mergeCell ref="K474:L474"/>
+    <mergeCell ref="K475:L475"/>
+    <mergeCell ref="K476:L476"/>
+    <mergeCell ref="K477:L477"/>
+    <mergeCell ref="K490:L490"/>
+    <mergeCell ref="K491:L491"/>
+    <mergeCell ref="K492:L492"/>
+    <mergeCell ref="K493:L493"/>
+    <mergeCell ref="K494:L494"/>
+    <mergeCell ref="K495:L495"/>
+    <mergeCell ref="K484:L484"/>
+    <mergeCell ref="K485:L485"/>
+    <mergeCell ref="K486:L486"/>
+    <mergeCell ref="K487:L487"/>
+    <mergeCell ref="K488:L488"/>
+    <mergeCell ref="K489:L489"/>
+    <mergeCell ref="K502:L502"/>
+    <mergeCell ref="K503:L503"/>
+    <mergeCell ref="K504:L504"/>
+    <mergeCell ref="K505:L505"/>
+    <mergeCell ref="K506:L506"/>
+    <mergeCell ref="K507:L507"/>
+    <mergeCell ref="K496:L496"/>
+    <mergeCell ref="K497:L497"/>
+    <mergeCell ref="K498:L498"/>
+    <mergeCell ref="K499:L499"/>
+    <mergeCell ref="K500:L500"/>
+    <mergeCell ref="K501:L501"/>
+    <mergeCell ref="K514:L514"/>
+    <mergeCell ref="K515:L515"/>
+    <mergeCell ref="K516:L516"/>
+    <mergeCell ref="K517:L517"/>
+    <mergeCell ref="K518:L518"/>
+    <mergeCell ref="K519:L519"/>
+    <mergeCell ref="K508:L508"/>
+    <mergeCell ref="K509:L509"/>
+    <mergeCell ref="K510:L510"/>
+    <mergeCell ref="K511:L511"/>
+    <mergeCell ref="K512:L512"/>
+    <mergeCell ref="K513:L513"/>
+    <mergeCell ref="K526:L526"/>
+    <mergeCell ref="K527:L527"/>
+    <mergeCell ref="K528:L528"/>
+    <mergeCell ref="K529:L529"/>
+    <mergeCell ref="K530:L530"/>
+    <mergeCell ref="K531:L531"/>
+    <mergeCell ref="K520:L520"/>
+    <mergeCell ref="K521:L521"/>
+    <mergeCell ref="K522:L522"/>
+    <mergeCell ref="K523:L523"/>
+    <mergeCell ref="K524:L524"/>
+    <mergeCell ref="K525:L525"/>
+    <mergeCell ref="K538:L538"/>
+    <mergeCell ref="K539:L539"/>
+    <mergeCell ref="K540:L540"/>
+    <mergeCell ref="K541:L541"/>
+    <mergeCell ref="K542:L542"/>
+    <mergeCell ref="K543:L543"/>
+    <mergeCell ref="K532:L532"/>
+    <mergeCell ref="K533:L533"/>
+    <mergeCell ref="K534:L534"/>
+    <mergeCell ref="K535:L535"/>
+    <mergeCell ref="K536:L536"/>
+    <mergeCell ref="K537:L537"/>
+    <mergeCell ref="K550:L550"/>
+    <mergeCell ref="K551:L551"/>
+    <mergeCell ref="K552:L552"/>
+    <mergeCell ref="K553:L553"/>
+    <mergeCell ref="K554:L554"/>
+    <mergeCell ref="K555:L555"/>
+    <mergeCell ref="K544:L544"/>
+    <mergeCell ref="K545:L545"/>
+    <mergeCell ref="K546:L546"/>
+    <mergeCell ref="K547:L547"/>
+    <mergeCell ref="K548:L548"/>
+    <mergeCell ref="K549:L549"/>
+    <mergeCell ref="K562:L562"/>
+    <mergeCell ref="K563:L563"/>
+    <mergeCell ref="K564:L564"/>
+    <mergeCell ref="K565:L565"/>
+    <mergeCell ref="K566:L566"/>
+    <mergeCell ref="K567:L567"/>
+    <mergeCell ref="K556:L556"/>
+    <mergeCell ref="K557:L557"/>
+    <mergeCell ref="K558:L558"/>
+    <mergeCell ref="K559:L559"/>
+    <mergeCell ref="K560:L560"/>
+    <mergeCell ref="K561:L561"/>
+    <mergeCell ref="K574:L574"/>
+    <mergeCell ref="K575:L575"/>
+    <mergeCell ref="K576:L576"/>
+    <mergeCell ref="K577:L577"/>
+    <mergeCell ref="K578:L578"/>
+    <mergeCell ref="K579:L579"/>
+    <mergeCell ref="K568:L568"/>
+    <mergeCell ref="K569:L569"/>
+    <mergeCell ref="K570:L570"/>
+    <mergeCell ref="K571:L571"/>
+    <mergeCell ref="K572:L572"/>
+    <mergeCell ref="K573:L573"/>
+    <mergeCell ref="K586:L586"/>
+    <mergeCell ref="K587:L587"/>
+    <mergeCell ref="K588:L588"/>
+    <mergeCell ref="K589:L589"/>
+    <mergeCell ref="K590:L590"/>
+    <mergeCell ref="K591:L591"/>
+    <mergeCell ref="K580:L580"/>
+    <mergeCell ref="K581:L581"/>
+    <mergeCell ref="K582:L582"/>
+    <mergeCell ref="K583:L583"/>
+    <mergeCell ref="K584:L584"/>
+    <mergeCell ref="K585:L585"/>
+    <mergeCell ref="K598:L598"/>
+    <mergeCell ref="K599:L599"/>
+    <mergeCell ref="K600:L600"/>
+    <mergeCell ref="K601:L601"/>
+    <mergeCell ref="K602:L602"/>
+    <mergeCell ref="K603:L603"/>
+    <mergeCell ref="K592:L592"/>
+    <mergeCell ref="K593:L593"/>
+    <mergeCell ref="K594:L594"/>
+    <mergeCell ref="K595:L595"/>
+    <mergeCell ref="K596:L596"/>
+    <mergeCell ref="K597:L597"/>
+    <mergeCell ref="K610:L610"/>
+    <mergeCell ref="K611:L611"/>
+    <mergeCell ref="K612:L612"/>
+    <mergeCell ref="K613:L613"/>
+    <mergeCell ref="K614:L614"/>
+    <mergeCell ref="K615:L615"/>
+    <mergeCell ref="K604:L604"/>
+    <mergeCell ref="K605:L605"/>
+    <mergeCell ref="K606:L606"/>
+    <mergeCell ref="K607:L607"/>
+    <mergeCell ref="K608:L608"/>
+    <mergeCell ref="K609:L609"/>
+    <mergeCell ref="K622:L622"/>
+    <mergeCell ref="K623:L623"/>
+    <mergeCell ref="K624:L624"/>
+    <mergeCell ref="K625:L625"/>
+    <mergeCell ref="K626:L626"/>
+    <mergeCell ref="K627:L627"/>
+    <mergeCell ref="K616:L616"/>
+    <mergeCell ref="K617:L617"/>
+    <mergeCell ref="K618:L618"/>
+    <mergeCell ref="K619:L619"/>
+    <mergeCell ref="K620:L620"/>
+    <mergeCell ref="K621:L621"/>
+    <mergeCell ref="K634:L634"/>
+    <mergeCell ref="K635:L635"/>
+    <mergeCell ref="K636:L636"/>
+    <mergeCell ref="K637:L637"/>
+    <mergeCell ref="K638:L638"/>
+    <mergeCell ref="K639:L639"/>
+    <mergeCell ref="K628:L628"/>
+    <mergeCell ref="K629:L629"/>
+    <mergeCell ref="K630:L630"/>
+    <mergeCell ref="K631:L631"/>
+    <mergeCell ref="K632:L632"/>
+    <mergeCell ref="K633:L633"/>
+    <mergeCell ref="K646:L646"/>
+    <mergeCell ref="K647:L647"/>
+    <mergeCell ref="K648:L648"/>
+    <mergeCell ref="K649:L649"/>
+    <mergeCell ref="K650:L650"/>
+    <mergeCell ref="K651:L651"/>
+    <mergeCell ref="K640:L640"/>
+    <mergeCell ref="K641:L641"/>
+    <mergeCell ref="K642:L642"/>
+    <mergeCell ref="K643:L643"/>
+    <mergeCell ref="K644:L644"/>
+    <mergeCell ref="K645:L645"/>
+    <mergeCell ref="K658:L658"/>
+    <mergeCell ref="K659:L659"/>
+    <mergeCell ref="K660:L660"/>
+    <mergeCell ref="K661:L661"/>
+    <mergeCell ref="K662:L662"/>
+    <mergeCell ref="K663:L663"/>
+    <mergeCell ref="K652:L652"/>
+    <mergeCell ref="K653:L653"/>
+    <mergeCell ref="K654:L654"/>
+    <mergeCell ref="K655:L655"/>
+    <mergeCell ref="K656:L656"/>
+    <mergeCell ref="K657:L657"/>
+    <mergeCell ref="K670:L670"/>
+    <mergeCell ref="K671:L671"/>
+    <mergeCell ref="K672:L672"/>
+    <mergeCell ref="K673:L673"/>
+    <mergeCell ref="K674:L674"/>
+    <mergeCell ref="K675:L675"/>
+    <mergeCell ref="K664:L664"/>
+    <mergeCell ref="K665:L665"/>
+    <mergeCell ref="K666:L666"/>
+    <mergeCell ref="K667:L667"/>
+    <mergeCell ref="K668:L668"/>
+    <mergeCell ref="K669:L669"/>
     <mergeCell ref="K682:L682"/>
     <mergeCell ref="K683:L683"/>
     <mergeCell ref="K684:L684"/>
@@ -22728,678 +23436,15 @@
     <mergeCell ref="K679:L679"/>
     <mergeCell ref="K680:L680"/>
     <mergeCell ref="K681:L681"/>
-    <mergeCell ref="K670:L670"/>
-    <mergeCell ref="K671:L671"/>
-    <mergeCell ref="K672:L672"/>
-    <mergeCell ref="K673:L673"/>
-    <mergeCell ref="K674:L674"/>
-    <mergeCell ref="K675:L675"/>
-    <mergeCell ref="K664:L664"/>
-    <mergeCell ref="K665:L665"/>
-    <mergeCell ref="K666:L666"/>
-    <mergeCell ref="K667:L667"/>
-    <mergeCell ref="K668:L668"/>
-    <mergeCell ref="K669:L669"/>
-    <mergeCell ref="K658:L658"/>
-    <mergeCell ref="K659:L659"/>
-    <mergeCell ref="K660:L660"/>
-    <mergeCell ref="K661:L661"/>
-    <mergeCell ref="K662:L662"/>
-    <mergeCell ref="K663:L663"/>
-    <mergeCell ref="K652:L652"/>
-    <mergeCell ref="K653:L653"/>
-    <mergeCell ref="K654:L654"/>
-    <mergeCell ref="K655:L655"/>
-    <mergeCell ref="K656:L656"/>
-    <mergeCell ref="K657:L657"/>
-    <mergeCell ref="K646:L646"/>
-    <mergeCell ref="K647:L647"/>
-    <mergeCell ref="K648:L648"/>
-    <mergeCell ref="K649:L649"/>
-    <mergeCell ref="K650:L650"/>
-    <mergeCell ref="K651:L651"/>
-    <mergeCell ref="K640:L640"/>
-    <mergeCell ref="K641:L641"/>
-    <mergeCell ref="K642:L642"/>
-    <mergeCell ref="K643:L643"/>
-    <mergeCell ref="K644:L644"/>
-    <mergeCell ref="K645:L645"/>
-    <mergeCell ref="K634:L634"/>
-    <mergeCell ref="K635:L635"/>
-    <mergeCell ref="K636:L636"/>
-    <mergeCell ref="K637:L637"/>
-    <mergeCell ref="K638:L638"/>
-    <mergeCell ref="K639:L639"/>
-    <mergeCell ref="K628:L628"/>
-    <mergeCell ref="K629:L629"/>
-    <mergeCell ref="K630:L630"/>
-    <mergeCell ref="K631:L631"/>
-    <mergeCell ref="K632:L632"/>
-    <mergeCell ref="K633:L633"/>
-    <mergeCell ref="K622:L622"/>
-    <mergeCell ref="K623:L623"/>
-    <mergeCell ref="K624:L624"/>
-    <mergeCell ref="K625:L625"/>
-    <mergeCell ref="K626:L626"/>
-    <mergeCell ref="K627:L627"/>
-    <mergeCell ref="K616:L616"/>
-    <mergeCell ref="K617:L617"/>
-    <mergeCell ref="K618:L618"/>
-    <mergeCell ref="K619:L619"/>
-    <mergeCell ref="K620:L620"/>
-    <mergeCell ref="K621:L621"/>
-    <mergeCell ref="K610:L610"/>
-    <mergeCell ref="K611:L611"/>
-    <mergeCell ref="K612:L612"/>
-    <mergeCell ref="K613:L613"/>
-    <mergeCell ref="K614:L614"/>
-    <mergeCell ref="K615:L615"/>
-    <mergeCell ref="K604:L604"/>
-    <mergeCell ref="K605:L605"/>
-    <mergeCell ref="K606:L606"/>
-    <mergeCell ref="K607:L607"/>
-    <mergeCell ref="K608:L608"/>
-    <mergeCell ref="K609:L609"/>
-    <mergeCell ref="K598:L598"/>
-    <mergeCell ref="K599:L599"/>
-    <mergeCell ref="K600:L600"/>
-    <mergeCell ref="K601:L601"/>
-    <mergeCell ref="K602:L602"/>
-    <mergeCell ref="K603:L603"/>
-    <mergeCell ref="K592:L592"/>
-    <mergeCell ref="K593:L593"/>
-    <mergeCell ref="K594:L594"/>
-    <mergeCell ref="K595:L595"/>
-    <mergeCell ref="K596:L596"/>
-    <mergeCell ref="K597:L597"/>
-    <mergeCell ref="K586:L586"/>
-    <mergeCell ref="K587:L587"/>
-    <mergeCell ref="K588:L588"/>
-    <mergeCell ref="K589:L589"/>
-    <mergeCell ref="K590:L590"/>
-    <mergeCell ref="K591:L591"/>
-    <mergeCell ref="K580:L580"/>
-    <mergeCell ref="K581:L581"/>
-    <mergeCell ref="K582:L582"/>
-    <mergeCell ref="K583:L583"/>
-    <mergeCell ref="K584:L584"/>
-    <mergeCell ref="K585:L585"/>
-    <mergeCell ref="K574:L574"/>
-    <mergeCell ref="K575:L575"/>
-    <mergeCell ref="K576:L576"/>
-    <mergeCell ref="K577:L577"/>
-    <mergeCell ref="K578:L578"/>
-    <mergeCell ref="K579:L579"/>
-    <mergeCell ref="K568:L568"/>
-    <mergeCell ref="K569:L569"/>
-    <mergeCell ref="K570:L570"/>
-    <mergeCell ref="K571:L571"/>
-    <mergeCell ref="K572:L572"/>
-    <mergeCell ref="K573:L573"/>
-    <mergeCell ref="K562:L562"/>
-    <mergeCell ref="K563:L563"/>
-    <mergeCell ref="K564:L564"/>
-    <mergeCell ref="K565:L565"/>
-    <mergeCell ref="K566:L566"/>
-    <mergeCell ref="K567:L567"/>
-    <mergeCell ref="K556:L556"/>
-    <mergeCell ref="K557:L557"/>
-    <mergeCell ref="K558:L558"/>
-    <mergeCell ref="K559:L559"/>
-    <mergeCell ref="K560:L560"/>
-    <mergeCell ref="K561:L561"/>
-    <mergeCell ref="K550:L550"/>
-    <mergeCell ref="K551:L551"/>
-    <mergeCell ref="K552:L552"/>
-    <mergeCell ref="K553:L553"/>
-    <mergeCell ref="K554:L554"/>
-    <mergeCell ref="K555:L555"/>
-    <mergeCell ref="K544:L544"/>
-    <mergeCell ref="K545:L545"/>
-    <mergeCell ref="K546:L546"/>
-    <mergeCell ref="K547:L547"/>
-    <mergeCell ref="K548:L548"/>
-    <mergeCell ref="K549:L549"/>
-    <mergeCell ref="K538:L538"/>
-    <mergeCell ref="K539:L539"/>
-    <mergeCell ref="K540:L540"/>
-    <mergeCell ref="K541:L541"/>
-    <mergeCell ref="K542:L542"/>
-    <mergeCell ref="K543:L543"/>
-    <mergeCell ref="K532:L532"/>
-    <mergeCell ref="K533:L533"/>
-    <mergeCell ref="K534:L534"/>
-    <mergeCell ref="K535:L535"/>
-    <mergeCell ref="K536:L536"/>
-    <mergeCell ref="K537:L537"/>
-    <mergeCell ref="K526:L526"/>
-    <mergeCell ref="K527:L527"/>
-    <mergeCell ref="K528:L528"/>
-    <mergeCell ref="K529:L529"/>
-    <mergeCell ref="K530:L530"/>
-    <mergeCell ref="K531:L531"/>
-    <mergeCell ref="K520:L520"/>
-    <mergeCell ref="K521:L521"/>
-    <mergeCell ref="K522:L522"/>
-    <mergeCell ref="K523:L523"/>
-    <mergeCell ref="K524:L524"/>
-    <mergeCell ref="K525:L525"/>
-    <mergeCell ref="K514:L514"/>
-    <mergeCell ref="K515:L515"/>
-    <mergeCell ref="K516:L516"/>
-    <mergeCell ref="K517:L517"/>
-    <mergeCell ref="K518:L518"/>
-    <mergeCell ref="K519:L519"/>
-    <mergeCell ref="K508:L508"/>
-    <mergeCell ref="K509:L509"/>
-    <mergeCell ref="K510:L510"/>
-    <mergeCell ref="K511:L511"/>
-    <mergeCell ref="K512:L512"/>
-    <mergeCell ref="K513:L513"/>
-    <mergeCell ref="K502:L502"/>
-    <mergeCell ref="K503:L503"/>
-    <mergeCell ref="K504:L504"/>
-    <mergeCell ref="K505:L505"/>
-    <mergeCell ref="K506:L506"/>
-    <mergeCell ref="K507:L507"/>
-    <mergeCell ref="K496:L496"/>
-    <mergeCell ref="K497:L497"/>
-    <mergeCell ref="K498:L498"/>
-    <mergeCell ref="K499:L499"/>
-    <mergeCell ref="K500:L500"/>
-    <mergeCell ref="K501:L501"/>
-    <mergeCell ref="K490:L490"/>
-    <mergeCell ref="K491:L491"/>
-    <mergeCell ref="K492:L492"/>
-    <mergeCell ref="K493:L493"/>
-    <mergeCell ref="K494:L494"/>
-    <mergeCell ref="K495:L495"/>
-    <mergeCell ref="K484:L484"/>
-    <mergeCell ref="K485:L485"/>
-    <mergeCell ref="K486:L486"/>
-    <mergeCell ref="K487:L487"/>
-    <mergeCell ref="K488:L488"/>
-    <mergeCell ref="K489:L489"/>
-    <mergeCell ref="K478:L478"/>
-    <mergeCell ref="K479:L479"/>
-    <mergeCell ref="K480:L480"/>
-    <mergeCell ref="K481:L481"/>
-    <mergeCell ref="K482:L482"/>
-    <mergeCell ref="K483:L483"/>
-    <mergeCell ref="K472:L472"/>
-    <mergeCell ref="K473:L473"/>
-    <mergeCell ref="K474:L474"/>
-    <mergeCell ref="K475:L475"/>
-    <mergeCell ref="K476:L476"/>
-    <mergeCell ref="K477:L477"/>
-    <mergeCell ref="K466:L466"/>
-    <mergeCell ref="K467:L467"/>
-    <mergeCell ref="K468:L468"/>
-    <mergeCell ref="K469:L469"/>
-    <mergeCell ref="K470:L470"/>
-    <mergeCell ref="K471:L471"/>
-    <mergeCell ref="K460:L460"/>
-    <mergeCell ref="K461:L461"/>
-    <mergeCell ref="K462:L462"/>
-    <mergeCell ref="K463:L463"/>
-    <mergeCell ref="K464:L464"/>
-    <mergeCell ref="K465:L465"/>
-    <mergeCell ref="K454:L454"/>
-    <mergeCell ref="K455:L455"/>
-    <mergeCell ref="K456:L456"/>
-    <mergeCell ref="K457:L457"/>
-    <mergeCell ref="K458:L458"/>
-    <mergeCell ref="K459:L459"/>
-    <mergeCell ref="K448:L448"/>
-    <mergeCell ref="K449:L449"/>
-    <mergeCell ref="K450:L450"/>
-    <mergeCell ref="K451:L451"/>
-    <mergeCell ref="K452:L452"/>
-    <mergeCell ref="K453:L453"/>
-    <mergeCell ref="K442:L442"/>
-    <mergeCell ref="K443:L443"/>
-    <mergeCell ref="K444:L444"/>
-    <mergeCell ref="K445:L445"/>
-    <mergeCell ref="K446:L446"/>
-    <mergeCell ref="K447:L447"/>
-    <mergeCell ref="K436:L436"/>
-    <mergeCell ref="K437:L437"/>
-    <mergeCell ref="K438:L438"/>
-    <mergeCell ref="K439:L439"/>
-    <mergeCell ref="K440:L440"/>
-    <mergeCell ref="K441:L441"/>
-    <mergeCell ref="K430:L430"/>
-    <mergeCell ref="K431:L431"/>
-    <mergeCell ref="K432:L432"/>
-    <mergeCell ref="K433:L433"/>
-    <mergeCell ref="K434:L434"/>
-    <mergeCell ref="K435:L435"/>
-    <mergeCell ref="K424:L424"/>
-    <mergeCell ref="K425:L425"/>
-    <mergeCell ref="K426:L426"/>
-    <mergeCell ref="K427:L427"/>
-    <mergeCell ref="K428:L428"/>
-    <mergeCell ref="K429:L429"/>
-    <mergeCell ref="K418:L418"/>
-    <mergeCell ref="K419:L419"/>
-    <mergeCell ref="K420:L420"/>
-    <mergeCell ref="K421:L421"/>
-    <mergeCell ref="K422:L422"/>
-    <mergeCell ref="K423:L423"/>
-    <mergeCell ref="K412:L412"/>
-    <mergeCell ref="K413:L413"/>
-    <mergeCell ref="K414:L414"/>
-    <mergeCell ref="K415:L415"/>
-    <mergeCell ref="K416:L416"/>
-    <mergeCell ref="K417:L417"/>
-    <mergeCell ref="K406:L406"/>
-    <mergeCell ref="K407:L407"/>
-    <mergeCell ref="K408:L408"/>
-    <mergeCell ref="K409:L409"/>
-    <mergeCell ref="K410:L410"/>
-    <mergeCell ref="K411:L411"/>
-    <mergeCell ref="K400:L400"/>
-    <mergeCell ref="K401:L401"/>
-    <mergeCell ref="K402:L402"/>
-    <mergeCell ref="K403:L403"/>
-    <mergeCell ref="K404:L404"/>
-    <mergeCell ref="K405:L405"/>
-    <mergeCell ref="K394:L394"/>
-    <mergeCell ref="K395:L395"/>
-    <mergeCell ref="K396:L396"/>
-    <mergeCell ref="K397:L397"/>
-    <mergeCell ref="K398:L398"/>
-    <mergeCell ref="K399:L399"/>
-    <mergeCell ref="K388:L388"/>
-    <mergeCell ref="K389:L389"/>
-    <mergeCell ref="K390:L390"/>
-    <mergeCell ref="K391:L391"/>
-    <mergeCell ref="K392:L392"/>
-    <mergeCell ref="K393:L393"/>
-    <mergeCell ref="K382:L382"/>
-    <mergeCell ref="K383:L383"/>
-    <mergeCell ref="K384:L384"/>
-    <mergeCell ref="K385:L385"/>
-    <mergeCell ref="K386:L386"/>
-    <mergeCell ref="K387:L387"/>
-    <mergeCell ref="K376:L376"/>
-    <mergeCell ref="K377:L377"/>
-    <mergeCell ref="K378:L378"/>
-    <mergeCell ref="K379:L379"/>
-    <mergeCell ref="K380:L380"/>
-    <mergeCell ref="K381:L381"/>
-    <mergeCell ref="K370:L370"/>
-    <mergeCell ref="K371:L371"/>
-    <mergeCell ref="K372:L372"/>
-    <mergeCell ref="K373:L373"/>
-    <mergeCell ref="K374:L374"/>
-    <mergeCell ref="K375:L375"/>
-    <mergeCell ref="K364:L364"/>
-    <mergeCell ref="K365:L365"/>
-    <mergeCell ref="K366:L366"/>
-    <mergeCell ref="K367:L367"/>
-    <mergeCell ref="K368:L368"/>
-    <mergeCell ref="K369:L369"/>
-    <mergeCell ref="K358:L358"/>
-    <mergeCell ref="K359:L359"/>
-    <mergeCell ref="K360:L360"/>
-    <mergeCell ref="K361:L361"/>
-    <mergeCell ref="K362:L362"/>
-    <mergeCell ref="K363:L363"/>
-    <mergeCell ref="K352:L352"/>
-    <mergeCell ref="K353:L353"/>
-    <mergeCell ref="K354:L354"/>
-    <mergeCell ref="K355:L355"/>
-    <mergeCell ref="K356:L356"/>
-    <mergeCell ref="K357:L357"/>
-    <mergeCell ref="K346:L346"/>
-    <mergeCell ref="K347:L347"/>
-    <mergeCell ref="K348:L348"/>
-    <mergeCell ref="K349:L349"/>
-    <mergeCell ref="K350:L350"/>
-    <mergeCell ref="K351:L351"/>
-    <mergeCell ref="K340:L340"/>
-    <mergeCell ref="K341:L341"/>
-    <mergeCell ref="K342:L342"/>
-    <mergeCell ref="K343:L343"/>
-    <mergeCell ref="K344:L344"/>
-    <mergeCell ref="K345:L345"/>
-    <mergeCell ref="K334:L334"/>
-    <mergeCell ref="K335:L335"/>
-    <mergeCell ref="K336:L336"/>
-    <mergeCell ref="K337:L337"/>
-    <mergeCell ref="K338:L338"/>
-    <mergeCell ref="K339:L339"/>
-    <mergeCell ref="K328:L328"/>
-    <mergeCell ref="K329:L329"/>
-    <mergeCell ref="K330:L330"/>
-    <mergeCell ref="K331:L331"/>
-    <mergeCell ref="K332:L332"/>
-    <mergeCell ref="K333:L333"/>
-    <mergeCell ref="K322:L322"/>
-    <mergeCell ref="K323:L323"/>
-    <mergeCell ref="K324:L324"/>
-    <mergeCell ref="K325:L325"/>
-    <mergeCell ref="K326:L326"/>
-    <mergeCell ref="K327:L327"/>
-    <mergeCell ref="K316:L316"/>
-    <mergeCell ref="K317:L317"/>
-    <mergeCell ref="K318:L318"/>
-    <mergeCell ref="K319:L319"/>
-    <mergeCell ref="K320:L320"/>
-    <mergeCell ref="K321:L321"/>
-    <mergeCell ref="K310:L310"/>
-    <mergeCell ref="K311:L311"/>
-    <mergeCell ref="K312:L312"/>
-    <mergeCell ref="K313:L313"/>
-    <mergeCell ref="K314:L314"/>
-    <mergeCell ref="K315:L315"/>
-    <mergeCell ref="K304:L304"/>
-    <mergeCell ref="K305:L305"/>
-    <mergeCell ref="K306:L306"/>
-    <mergeCell ref="K307:L307"/>
-    <mergeCell ref="K308:L308"/>
-    <mergeCell ref="K309:L309"/>
-    <mergeCell ref="K298:L298"/>
-    <mergeCell ref="K299:L299"/>
-    <mergeCell ref="K300:L300"/>
-    <mergeCell ref="K301:L301"/>
-    <mergeCell ref="K302:L302"/>
-    <mergeCell ref="K303:L303"/>
-    <mergeCell ref="K292:L292"/>
-    <mergeCell ref="K293:L293"/>
-    <mergeCell ref="K294:L294"/>
-    <mergeCell ref="K295:L295"/>
-    <mergeCell ref="K296:L296"/>
-    <mergeCell ref="K297:L297"/>
-    <mergeCell ref="K286:L286"/>
-    <mergeCell ref="K287:L287"/>
-    <mergeCell ref="K288:L288"/>
-    <mergeCell ref="K289:L289"/>
-    <mergeCell ref="K290:L290"/>
-    <mergeCell ref="K291:L291"/>
-    <mergeCell ref="K280:L280"/>
-    <mergeCell ref="K281:L281"/>
-    <mergeCell ref="K282:L282"/>
-    <mergeCell ref="K283:L283"/>
-    <mergeCell ref="K284:L284"/>
-    <mergeCell ref="K285:L285"/>
-    <mergeCell ref="K274:L274"/>
-    <mergeCell ref="K275:L275"/>
-    <mergeCell ref="K276:L276"/>
-    <mergeCell ref="K277:L277"/>
-    <mergeCell ref="K278:L278"/>
-    <mergeCell ref="K279:L279"/>
-    <mergeCell ref="K268:L268"/>
-    <mergeCell ref="K269:L269"/>
-    <mergeCell ref="K270:L270"/>
-    <mergeCell ref="K271:L271"/>
-    <mergeCell ref="K272:L272"/>
-    <mergeCell ref="K273:L273"/>
-    <mergeCell ref="K262:L262"/>
-    <mergeCell ref="K263:L263"/>
-    <mergeCell ref="K264:L264"/>
-    <mergeCell ref="K265:L265"/>
-    <mergeCell ref="K266:L266"/>
-    <mergeCell ref="K267:L267"/>
-    <mergeCell ref="K256:L256"/>
-    <mergeCell ref="K257:L257"/>
-    <mergeCell ref="K258:L258"/>
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="K260:L260"/>
-    <mergeCell ref="K261:L261"/>
-    <mergeCell ref="K250:L250"/>
-    <mergeCell ref="K251:L251"/>
-    <mergeCell ref="K252:L252"/>
-    <mergeCell ref="K253:L253"/>
-    <mergeCell ref="K254:L254"/>
-    <mergeCell ref="K255:L255"/>
-    <mergeCell ref="K244:L244"/>
-    <mergeCell ref="K245:L245"/>
-    <mergeCell ref="K246:L246"/>
-    <mergeCell ref="K247:L247"/>
-    <mergeCell ref="K248:L248"/>
-    <mergeCell ref="K249:L249"/>
-    <mergeCell ref="K238:L238"/>
-    <mergeCell ref="K239:L239"/>
-    <mergeCell ref="K240:L240"/>
-    <mergeCell ref="K241:L241"/>
-    <mergeCell ref="K242:L242"/>
-    <mergeCell ref="K243:L243"/>
-    <mergeCell ref="K232:L232"/>
-    <mergeCell ref="K233:L233"/>
-    <mergeCell ref="K234:L234"/>
-    <mergeCell ref="K235:L235"/>
-    <mergeCell ref="K236:L236"/>
-    <mergeCell ref="K237:L237"/>
-    <mergeCell ref="K226:L226"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="K228:L228"/>
-    <mergeCell ref="K229:L229"/>
-    <mergeCell ref="K230:L230"/>
-    <mergeCell ref="K231:L231"/>
-    <mergeCell ref="K220:L220"/>
-    <mergeCell ref="K221:L221"/>
-    <mergeCell ref="K222:L222"/>
-    <mergeCell ref="K223:L223"/>
-    <mergeCell ref="K224:L224"/>
-    <mergeCell ref="K225:L225"/>
-    <mergeCell ref="K214:L214"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="K218:L218"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="K207:L207"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="K191:L191"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="K194:L194"/>
-    <mergeCell ref="K195:L195"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="K181:L181"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="K144:L144"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="K136:L136"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K694:L694"/>
+    <mergeCell ref="K695:L695"/>
+    <mergeCell ref="K696:L696"/>
+    <mergeCell ref="K688:L688"/>
+    <mergeCell ref="K689:L689"/>
+    <mergeCell ref="K690:L690"/>
+    <mergeCell ref="K691:L691"/>
+    <mergeCell ref="K692:L692"/>
+    <mergeCell ref="K693:L693"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.9" right="0.5" top="0.2" bottom="0.26876" header="0.2" footer="0.2"/>
@@ -23409,4 +23454,16 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DD9781-1DDE-476D-834D-4155AAD9AF9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>